--- a/tests/regression_data/performance_analysis_moustapha.xlsx
+++ b/tests/regression_data/performance_analysis_moustapha.xlsx
@@ -688,40 +688,40 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2.023365931659388</v>
+        <v>2.0233659352324</v>
       </c>
       <c r="C2" t="n">
-        <v>2.299999999965001</v>
+        <v>2.299999999961393</v>
       </c>
       <c r="D2" t="n">
-        <v>2.698749320076786</v>
+        <v>2.698749322951342</v>
       </c>
       <c r="E2" t="n">
-        <v>89.45650425761028</v>
+        <v>89.45650417135211</v>
       </c>
       <c r="F2" t="n">
-        <v>76.74201854828048</v>
+        <v>76.74201865304187</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1421303662025019</v>
+        <v>0.1421303642042159</v>
       </c>
       <c r="H2" t="n">
-        <v>-75.88414891448299</v>
+        <v>-75.88414901724609</v>
       </c>
       <c r="I2" t="n">
-        <v>130144.2390823393</v>
+        <v>130144.239398623</v>
       </c>
       <c r="J2" t="n">
-        <v>79.99031289633641</v>
+        <v>79.99031309073325</v>
       </c>
       <c r="K2" t="n">
         <v>1627</v>
       </c>
       <c r="L2" t="n">
-        <v>-23.88251906835448</v>
+        <v>-23.88251798869469</v>
       </c>
       <c r="M2" t="n">
-        <v>133.6512507914835</v>
+        <v>133.6512498519467</v>
       </c>
       <c r="N2" t="n">
         <v>354.5108977203336</v>
@@ -736,13 +736,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R2" t="n">
-        <v>373560.5230308246</v>
+        <v>373560.5229649935</v>
       </c>
       <c r="S2" t="n">
         <v>358945.442787251</v>
       </c>
       <c r="T2" t="n">
-        <v>0.710551311344183</v>
+        <v>0.7105513117226026</v>
       </c>
       <c r="U2" t="n">
         <v>0.375758900097585</v>
@@ -759,40 +759,40 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2.078590350931613</v>
+        <v>2.07859034877902</v>
       </c>
       <c r="C3" t="n">
-        <v>2.39999999988446</v>
+        <v>2.400000000038325</v>
       </c>
       <c r="D3" t="n">
-        <v>2.701005603109432</v>
+        <v>2.701005606733803</v>
       </c>
       <c r="E3" t="n">
-        <v>89.42866543740041</v>
+        <v>89.42866546963789</v>
       </c>
       <c r="F3" t="n">
-        <v>75.900481470546</v>
+        <v>75.90048139716826</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1512734636113301</v>
+        <v>0.1512734647377982</v>
       </c>
       <c r="H3" t="n">
-        <v>-75.05175493415733</v>
+        <v>-75.05175486190606</v>
       </c>
       <c r="I3" t="n">
-        <v>134617.2629354238</v>
+        <v>134617.2629859183</v>
       </c>
       <c r="J3" t="n">
-        <v>82.7395592719261</v>
+        <v>82.73955930296148</v>
       </c>
       <c r="K3" t="n">
         <v>1627</v>
       </c>
       <c r="L3" t="n">
-        <v>-26.41972795937911</v>
+        <v>-26.41972823924697</v>
       </c>
       <c r="M3" t="n">
-        <v>140.9489170206367</v>
+        <v>140.9489175454296</v>
       </c>
       <c r="N3" t="n">
         <v>362.3934737152361</v>
@@ -807,13 +807,13 @@
         <v>421784.4310885898</v>
       </c>
       <c r="R3" t="n">
-        <v>371944.7481273806</v>
+        <v>371944.7481755637</v>
       </c>
       <c r="S3" t="n">
         <v>356119.9161927916</v>
       </c>
       <c r="T3" t="n">
-        <v>0.6983018884842129</v>
+        <v>0.6983018889527245</v>
       </c>
       <c r="U3" t="n">
         <v>0.3675856069766728</v>
@@ -3079,10 +3079,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>79.34035761328676</v>
+        <v>79.34035770271539</v>
       </c>
       <c r="D2" t="n">
-        <v>79.34035761328676</v>
+        <v>79.34035770271539</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -3091,10 +3091,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>79.34035761328676</v>
+        <v>79.34035770271539</v>
       </c>
       <c r="H2" t="n">
-        <v>79.34035761328676</v>
+        <v>79.34035770271539</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -3103,97 +3103,97 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>292.4617683021842</v>
+        <v>292.461768295109</v>
       </c>
       <c r="L2" t="n">
-        <v>132946.0768855633</v>
+        <v>132946.0768743211</v>
       </c>
       <c r="M2" t="n">
-        <v>1.58441136394682</v>
+        <v>1.584411363851247</v>
       </c>
       <c r="N2" t="n">
-        <v>334728.1718946127</v>
+        <v>334728.1718895513</v>
       </c>
       <c r="O2" t="n">
-        <v>418636.9849154876</v>
+        <v>418636.9849083922</v>
       </c>
       <c r="P2" t="n">
         <v>3782.917347718237</v>
       </c>
       <c r="Q2" t="n">
-        <v>-687721.7119391966</v>
+        <v>-687721.7119195272</v>
       </c>
       <c r="R2" t="n">
-        <v>717.7178602730689</v>
+        <v>717.7178602727485</v>
       </c>
       <c r="S2" t="n">
-        <v>1006.653407018174</v>
+        <v>1006.653407017802</v>
       </c>
       <c r="T2" t="n">
-        <v>1.40257538893511</v>
+        <v>1.402575388935218</v>
       </c>
       <c r="U2" t="n">
-        <v>0.9994987285256761</v>
+        <v>0.9994987285256266</v>
       </c>
       <c r="V2" t="n">
-        <v>342.9723774456461</v>
+        <v>342.9723774414937</v>
       </c>
       <c r="W2" t="n">
-        <v>186374.3906404266</v>
+        <v>186374.3906246714</v>
       </c>
       <c r="X2" t="n">
-        <v>5.365544035120721e-06</v>
+        <v>5.365544035574296e-06</v>
       </c>
       <c r="Y2" t="n">
-        <v>132880.1233151035</v>
+        <v>132880.1233038602</v>
       </c>
       <c r="Z2" t="n">
-        <v>7.525580011907903e-06</v>
+        <v>7.525580012544659e-06</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.003432178763243636</v>
+        <v>0.003432178763326533</v>
       </c>
       <c r="AB2" t="n">
-        <v>1.817675808678219e-05</v>
+        <v>1.817675808643606e-05</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.02583254416813438</v>
+        <v>0.02583254416760121</v>
       </c>
       <c r="AD2" t="n">
-        <v>132946.0768855633</v>
+        <v>132946.0768743211</v>
       </c>
       <c r="AE2" t="n">
-        <v>1.58441136394682</v>
+        <v>1.584411363851247</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.58441136394682</v>
+        <v>1.584411363851247</v>
       </c>
       <c r="AG2" t="n">
-        <v>334728.1718946127</v>
+        <v>334728.1718895513</v>
       </c>
       <c r="AH2" t="n">
-        <v>418636.9849154876</v>
+        <v>418636.9849083922</v>
       </c>
       <c r="AI2" t="n">
         <v>3782.917347718237</v>
       </c>
       <c r="AJ2" t="n">
-        <v>717.7178602730689</v>
+        <v>717.7178602727485</v>
       </c>
       <c r="AK2" t="n">
-        <v>1006.653407018174</v>
+        <v>1006.653407017802</v>
       </c>
       <c r="AL2" t="n">
-        <v>342.9723774456461</v>
+        <v>342.9723774414937</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.9994987285256761</v>
+        <v>0.9994987285256266</v>
       </c>
       <c r="AN2" t="n">
-        <v>1.817675808678219e-05</v>
+        <v>1.817675808643606e-05</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.02583254416813438</v>
+        <v>0.02583254416760121</v>
       </c>
       <c r="AP2" t="n">
         <v>295.6000000000945</v>
@@ -3382,16 +3382,16 @@
         <v>0.0260686341970676</v>
       </c>
       <c r="CZ2" t="n">
-        <v>0.2313316256084225</v>
+        <v>0.2313316258719691</v>
       </c>
       <c r="DA2" t="n">
-        <v>0.2313316256084225</v>
+        <v>0.2313316258719691</v>
       </c>
       <c r="DB2" t="n">
-        <v>180918.6817775488</v>
+        <v>180918.6819740036</v>
       </c>
       <c r="DC2" t="n">
-        <v>2.698749320077162</v>
+        <v>2.698749322956272</v>
       </c>
       <c r="DD2" t="n">
         <v>421784.4310884894</v>
@@ -3400,325 +3400,325 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>260.8833469760908</v>
+        <v>260.883350215151</v>
       </c>
       <c r="DG2" t="n">
-        <v>107.6895028630834</v>
+        <v>107.6895039105495</v>
       </c>
       <c r="DH2" t="n">
-        <v>237.6196366097494</v>
+        <v>237.6196396912109</v>
       </c>
       <c r="DI2" t="n">
-        <v>65.61990958888822</v>
+        <v>65.61990965871263</v>
       </c>
       <c r="DJ2" t="n">
-        <v>260.8833469760908</v>
+        <v>260.883350215151</v>
       </c>
       <c r="DK2" t="n">
-        <v>107.6895028630834</v>
+        <v>107.6895039105495</v>
       </c>
       <c r="DL2" t="n">
-        <v>237.6196366097494</v>
+        <v>237.6196396912109</v>
       </c>
       <c r="DM2" t="n">
-        <v>65.61990958888822</v>
+        <v>65.61990965871263</v>
       </c>
       <c r="DN2" t="n">
-        <v>261.6409624338273</v>
+        <v>261.6409615903474</v>
       </c>
       <c r="DO2" t="n">
-        <v>87611.96946892388</v>
+        <v>87611.96842866842</v>
       </c>
       <c r="DP2" t="n">
-        <v>1.167316784640974</v>
+        <v>1.16731677454807</v>
       </c>
       <c r="DQ2" t="n">
-        <v>312700.2203664681</v>
+        <v>312700.2197638663</v>
       </c>
       <c r="DR2" t="n">
-        <v>387754.3707236654</v>
+        <v>387754.3698788491</v>
       </c>
       <c r="DS2" t="n">
-        <v>3790.970718496023</v>
+        <v>3790.970718673117</v>
       </c>
       <c r="DT2" t="n">
-        <v>-604118.8566220923</v>
+        <v>-604118.8543156356</v>
       </c>
       <c r="DU2" t="n">
-        <v>716.5914381524593</v>
+        <v>716.5914381287691</v>
       </c>
       <c r="DV2" t="n">
-        <v>1005.259824333157</v>
+        <v>1005.259824302659</v>
       </c>
       <c r="DW2" t="n">
-        <v>1.402835382634423</v>
+        <v>1.402835382638241</v>
       </c>
       <c r="DX2" t="n">
-        <v>0.999338789318108</v>
+        <v>0.9993387893147196</v>
       </c>
       <c r="DY2" t="n">
-        <v>324.3752182739204</v>
+        <v>324.3752177503918</v>
       </c>
       <c r="DZ2" t="n">
-        <v>122824.2342152507</v>
+        <v>122824.2327568158</v>
       </c>
       <c r="EA2" t="n">
-        <v>8.141715732153397e-06</v>
+        <v>8.141715828829453e-06</v>
       </c>
       <c r="EB2" t="n">
-        <v>87554.2745326224</v>
+        <v>87554.27349275045</v>
       </c>
       <c r="EC2" t="n">
-        <v>1.142148690441611e-05</v>
+        <v>1.142148704006779e-05</v>
       </c>
       <c r="ED2" t="n">
-        <v>0.003835327295884925</v>
+        <v>0.003835327308217164</v>
       </c>
       <c r="EE2" t="n">
-        <v>1.663475967345338e-05</v>
+        <v>1.663475963029623e-05</v>
       </c>
       <c r="EF2" t="n">
-        <v>0.02346872921481263</v>
+        <v>0.02346872914898582</v>
       </c>
       <c r="EG2" t="n">
-        <v>87611.96946892388</v>
+        <v>87611.96842866842</v>
       </c>
       <c r="EH2" t="n">
-        <v>1.167316784640974</v>
+        <v>1.16731677454807</v>
       </c>
       <c r="EI2" t="n">
-        <v>1.167316784640974</v>
+        <v>1.16731677454807</v>
       </c>
       <c r="EJ2" t="n">
-        <v>312700.2203664681</v>
+        <v>312700.2197638663</v>
       </c>
       <c r="EK2" t="n">
-        <v>387754.3707236654</v>
+        <v>387754.3698788491</v>
       </c>
       <c r="EL2" t="n">
-        <v>3790.970718496023</v>
+        <v>3790.970718673117</v>
       </c>
       <c r="EM2" t="n">
-        <v>716.5914381524593</v>
+        <v>716.5914381287691</v>
       </c>
       <c r="EN2" t="n">
-        <v>1005.259824333157</v>
+        <v>1005.259824302659</v>
       </c>
       <c r="EO2" t="n">
-        <v>324.3752182739204</v>
+        <v>324.3752177503918</v>
       </c>
       <c r="EP2" t="n">
-        <v>0.999338789318108</v>
+        <v>0.9993387893147196</v>
       </c>
       <c r="EQ2" t="n">
-        <v>1.663475967345338e-05</v>
+        <v>1.663475963029623e-05</v>
       </c>
       <c r="ER2" t="n">
-        <v>0.02346872921481263</v>
+        <v>0.02346872914898582</v>
       </c>
       <c r="ES2" t="n">
-        <v>295.5911436441068</v>
+        <v>295.5911436439146</v>
       </c>
       <c r="ET2" t="n">
-        <v>134180.3381448213</v>
+        <v>134180.3380620009</v>
       </c>
       <c r="EU2" t="n">
-        <v>1.582135351260054</v>
+        <v>1.582135350284091</v>
       </c>
       <c r="EV2" t="n">
-        <v>336974.7856698482</v>
+        <v>336974.7856698793</v>
       </c>
       <c r="EW2" t="n">
         <v>421784.4310885898</v>
       </c>
       <c r="EX2" t="n">
-        <v>3790.970718501248</v>
+        <v>3790.970718678343</v>
       </c>
       <c r="EY2" t="n">
-        <v>-698792.9391145153</v>
+        <v>-698792.9391661343</v>
       </c>
       <c r="EZ2" t="n">
-        <v>717.8532872838359</v>
+        <v>717.85328728362</v>
       </c>
       <c r="FA2" t="n">
-        <v>1006.758869099101</v>
+        <v>1006.758869097741</v>
       </c>
       <c r="FB2" t="n">
-        <v>1.402457698436412</v>
+        <v>1.402457698434939</v>
       </c>
       <c r="FC2" t="n">
-        <v>0.9995340644353943</v>
+        <v>0.9995340644356763</v>
       </c>
       <c r="FD2" t="n">
-        <v>344.8001391117911</v>
+        <v>344.8001391115942</v>
       </c>
       <c r="FE2" t="n">
-        <v>188095.5405673021</v>
+        <v>188095.5404510579</v>
       </c>
       <c r="FF2" t="n">
-        <v>5.316447146933778e-06</v>
+        <v>5.316447150219376e-06</v>
       </c>
       <c r="FG2" t="n">
-        <v>134118.5126489078</v>
+        <v>134118.5125661626</v>
       </c>
       <c r="FH2" t="n">
-        <v>7.456092229547576e-06</v>
+        <v>7.456092234147658e-06</v>
       </c>
       <c r="FI2" t="n">
-        <v>0.00339554672060213</v>
+        <v>0.003395546720596667</v>
       </c>
       <c r="FJ2" t="n">
-        <v>1.832897112378984e-05</v>
+        <v>1.832897112376857e-05</v>
       </c>
       <c r="FK2" t="n">
-        <v>0.0260667489754519</v>
+        <v>0.02606674897541101</v>
       </c>
       <c r="FL2" t="n">
-        <v>134180.3381448213</v>
+        <v>134180.3380620009</v>
       </c>
       <c r="FM2" t="n">
-        <v>1.582135351260054</v>
+        <v>1.582135350284091</v>
       </c>
       <c r="FN2" t="n">
-        <v>1.582135351260054</v>
+        <v>1.582135350284091</v>
       </c>
       <c r="FO2" t="n">
-        <v>336974.7856698482</v>
+        <v>336974.7856698793</v>
       </c>
       <c r="FP2" t="n">
         <v>421784.4310885898</v>
       </c>
       <c r="FQ2" t="n">
-        <v>3790.970718501248</v>
+        <v>3790.970718678343</v>
       </c>
       <c r="FR2" t="n">
-        <v>717.8532872838359</v>
+        <v>717.85328728362</v>
       </c>
       <c r="FS2" t="n">
-        <v>1006.758869099101</v>
+        <v>1006.758869097741</v>
       </c>
       <c r="FT2" t="n">
-        <v>344.8001391117911</v>
+        <v>344.8001391115942</v>
       </c>
       <c r="FU2" t="n">
-        <v>0.9995340644353943</v>
+        <v>0.9995340644356763</v>
       </c>
       <c r="FV2" t="n">
-        <v>1.832897112378984e-05</v>
+        <v>1.832897112376857e-05</v>
       </c>
       <c r="FW2" t="n">
-        <v>0.0260667489754519</v>
+        <v>0.02606674897541101</v>
       </c>
       <c r="FX2" t="n">
-        <v>295.5911436441068</v>
+        <v>295.5911436439146</v>
       </c>
       <c r="FY2" t="n">
-        <v>134180.3381448213</v>
+        <v>134180.3380620009</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1.582135351260054</v>
+        <v>1.582135350284091</v>
       </c>
       <c r="GA2" t="n">
-        <v>336974.7856698482</v>
+        <v>336974.7856698793</v>
       </c>
       <c r="GB2" t="n">
         <v>421784.4310885898</v>
       </c>
       <c r="GC2" t="n">
-        <v>3790.970718501248</v>
+        <v>3790.970718678343</v>
       </c>
       <c r="GD2" t="n">
-        <v>-698792.9391145153</v>
+        <v>-698792.9391661343</v>
       </c>
       <c r="GE2" t="n">
-        <v>717.8532872838359</v>
+        <v>717.85328728362</v>
       </c>
       <c r="GF2" t="n">
-        <v>1006.758869099101</v>
+        <v>1006.758869097741</v>
       </c>
       <c r="GG2" t="n">
-        <v>1.402457698436412</v>
+        <v>1.402457698434939</v>
       </c>
       <c r="GH2" t="n">
-        <v>0.9995340644353943</v>
+        <v>0.9995340644356763</v>
       </c>
       <c r="GI2" t="n">
-        <v>344.8001391117911</v>
+        <v>344.8001391115942</v>
       </c>
       <c r="GJ2" t="n">
-        <v>188095.5405673021</v>
+        <v>188095.5404510579</v>
       </c>
       <c r="GK2" t="n">
-        <v>5.316447146933778e-06</v>
+        <v>5.316447150219376e-06</v>
       </c>
       <c r="GL2" t="n">
-        <v>134118.5126489078</v>
+        <v>134118.5125661626</v>
       </c>
       <c r="GM2" t="n">
-        <v>7.456092229547576e-06</v>
+        <v>7.456092234147658e-06</v>
       </c>
       <c r="GN2" t="n">
-        <v>0.00339554672060213</v>
+        <v>0.003395546720596667</v>
       </c>
       <c r="GO2" t="n">
-        <v>1.832897112378984e-05</v>
+        <v>1.832897112376857e-05</v>
       </c>
       <c r="GP2" t="n">
-        <v>0.0260667489754519</v>
+        <v>0.02606674897541101</v>
       </c>
       <c r="GQ2" t="n">
-        <v>134180.3381448213</v>
+        <v>134180.3380620009</v>
       </c>
       <c r="GR2" t="n">
-        <v>1.582135351260054</v>
+        <v>1.582135350284091</v>
       </c>
       <c r="GS2" t="n">
-        <v>1.582135351260054</v>
+        <v>1.582135350284091</v>
       </c>
       <c r="GT2" t="n">
-        <v>336974.7856698482</v>
+        <v>336974.7856698793</v>
       </c>
       <c r="GU2" t="n">
         <v>421784.4310885898</v>
       </c>
       <c r="GV2" t="n">
-        <v>3790.970718501248</v>
+        <v>3790.970718678343</v>
       </c>
       <c r="GW2" t="n">
-        <v>717.8532872838359</v>
+        <v>717.85328728362</v>
       </c>
       <c r="GX2" t="n">
-        <v>1006.758869099101</v>
+        <v>1006.758869097741</v>
       </c>
       <c r="GY2" t="n">
-        <v>344.8001391117911</v>
+        <v>344.8001391115942</v>
       </c>
       <c r="GZ2" t="n">
-        <v>0.9995340644353943</v>
+        <v>0.9995340644356763</v>
       </c>
       <c r="HA2" t="n">
-        <v>1.832897112378984e-05</v>
+        <v>1.832897112376857e-05</v>
       </c>
       <c r="HB2" t="n">
-        <v>0.0260667489754519</v>
+        <v>0.02606674897541101</v>
       </c>
       <c r="HC2" t="n">
-        <v>0.8042641122966012</v>
+        <v>0.8042641235801864</v>
       </c>
       <c r="HD2" t="n">
-        <v>0.8042641122966012</v>
+        <v>0.8042641235801864</v>
       </c>
       <c r="HE2" t="n">
-        <v>478912.6366517951</v>
+        <v>478912.6396995446</v>
       </c>
       <c r="HF2" t="n">
-        <v>2.698749320069076</v>
+        <v>2.698749322985023</v>
       </c>
       <c r="HG2" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="HH2" t="n">
-        <v>0.01760218515226914</v>
+        <v>0.01760218522435198</v>
       </c>
       <c r="HI2" t="n">
         <v>0</v>
@@ -3727,16 +3727,16 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="HK2" t="n">
-        <v>0.04914041451742465</v>
+        <v>0.04914041453420952</v>
       </c>
       <c r="HL2" t="n">
         <v>0</v>
       </c>
       <c r="HM2" t="n">
-        <v>0.08202266820893692</v>
+        <v>0.08202266829780464</v>
       </c>
       <c r="HN2" t="n">
-        <v>-1.15592257987629e-12</v>
+        <v>2.079128536003338e-12</v>
       </c>
       <c r="HO2" t="n">
         <v>0</v>
@@ -3745,664 +3745,664 @@
         <v>165.3032</v>
       </c>
       <c r="HQ2" t="n">
-        <v>260.8833469760908</v>
+        <v>260.883350215151</v>
       </c>
       <c r="HR2" t="n">
-        <v>107.6895028630834</v>
+        <v>107.6895039105495</v>
       </c>
       <c r="HS2" t="n">
-        <v>237.6196366097494</v>
+        <v>237.6196396912109</v>
       </c>
       <c r="HT2" t="n">
-        <v>65.61990958888822</v>
+        <v>65.61990965871263</v>
       </c>
       <c r="HU2" t="n">
-        <v>129.7177552643814</v>
+        <v>129.7177578518561</v>
       </c>
       <c r="HV2" t="n">
-        <v>107.6895028630834</v>
+        <v>107.6895039105495</v>
       </c>
       <c r="HW2" t="n">
-        <v>72.31643660974936</v>
+        <v>72.31643969121086</v>
       </c>
       <c r="HX2" t="n">
-        <v>33.88243698025887</v>
+        <v>33.88243785226565</v>
       </c>
       <c r="HY2" t="n">
-        <v>261.640962433927</v>
+        <v>261.6409615902474</v>
       </c>
       <c r="HZ2" t="n">
-        <v>87611.96946887413</v>
+        <v>87611.96842855071</v>
       </c>
       <c r="IA2" t="n">
-        <v>1.167316784639864</v>
+        <v>1.167316774546948</v>
       </c>
       <c r="IB2" t="n">
-        <v>312700.2203665399</v>
+        <v>312700.2197637946</v>
       </c>
       <c r="IC2" t="n">
-        <v>387754.370723766</v>
+        <v>387754.3698787487</v>
       </c>
       <c r="ID2" t="n">
-        <v>3790.970718496571</v>
+        <v>3790.970718673118</v>
       </c>
       <c r="IE2" t="n">
-        <v>-604118.8566225129</v>
+        <v>-604118.8543153572</v>
       </c>
       <c r="IF2" t="n">
-        <v>716.5914381524617</v>
+        <v>716.5914381287662</v>
       </c>
       <c r="IG2" t="n">
-        <v>1005.259824333157</v>
+        <v>1005.259824302656</v>
       </c>
       <c r="IH2" t="n">
-        <v>1.402835382634418</v>
+        <v>1.402835382638242</v>
       </c>
       <c r="II2" t="n">
-        <v>0.9993387893181097</v>
+        <v>0.9993387893147192</v>
       </c>
       <c r="IJ2" t="n">
-        <v>324.3752182739822</v>
+        <v>324.3752177503297</v>
       </c>
       <c r="IK2" t="n">
-        <v>122824.2342151807</v>
+        <v>122824.2327566508</v>
       </c>
       <c r="IL2" t="n">
-        <v>8.141715732158035e-06</v>
+        <v>8.141715828840392e-06</v>
       </c>
       <c r="IM2" t="n">
-        <v>87554.2745325728</v>
+        <v>87554.27349263277</v>
       </c>
       <c r="IN2" t="n">
-        <v>1.142148690442258e-05</v>
+        <v>1.142148704008314e-05</v>
       </c>
       <c r="IO2" t="n">
-        <v>0.003835327295883442</v>
+        <v>0.003835327308218627</v>
       </c>
       <c r="IP2" t="n">
-        <v>1.663475967345846e-05</v>
+        <v>1.663475963029111e-05</v>
       </c>
       <c r="IQ2" t="n">
-        <v>0.02346872921482036</v>
+        <v>0.02346872914897801</v>
       </c>
       <c r="IR2" t="n">
-        <v>87611.96946887413</v>
+        <v>87611.96842855071</v>
       </c>
       <c r="IS2" t="n">
-        <v>1.167316784639864</v>
+        <v>1.167316774546948</v>
       </c>
       <c r="IT2" t="n">
-        <v>1.167316784639864</v>
+        <v>1.167316774546948</v>
       </c>
       <c r="IU2" t="n">
-        <v>312700.2203665399</v>
+        <v>312700.2197637946</v>
       </c>
       <c r="IV2" t="n">
-        <v>387754.370723766</v>
+        <v>387754.3698787487</v>
       </c>
       <c r="IW2" t="n">
-        <v>3790.970718496571</v>
+        <v>3790.970718673118</v>
       </c>
       <c r="IX2" t="n">
-        <v>716.5914381524617</v>
+        <v>716.5914381287662</v>
       </c>
       <c r="IY2" t="n">
-        <v>1005.259824333157</v>
+        <v>1005.259824302656</v>
       </c>
       <c r="IZ2" t="n">
-        <v>324.3752182739822</v>
+        <v>324.3752177503297</v>
       </c>
       <c r="JA2" t="n">
-        <v>0.9993387893181097</v>
+        <v>0.9993387893147192</v>
       </c>
       <c r="JB2" t="n">
-        <v>1.663475967345846e-05</v>
+        <v>1.663475963029111e-05</v>
       </c>
       <c r="JC2" t="n">
-        <v>0.02346872921482036</v>
+        <v>0.02346872914897801</v>
       </c>
       <c r="JD2" t="n">
-        <v>295.5911436442063</v>
+        <v>295.5911436439146</v>
       </c>
       <c r="JE2" t="n">
-        <v>134180.3381447243</v>
+        <v>134180.3380620004</v>
       </c>
       <c r="JF2" t="n">
-        <v>1.582135351258374</v>
+        <v>1.582135350284084</v>
       </c>
       <c r="JG2" t="n">
-        <v>336974.7856699199</v>
+        <v>336974.7856698793</v>
       </c>
       <c r="JH2" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="JI2" t="n">
-        <v>3790.970718501796</v>
+        <v>3790.970718678343</v>
       </c>
       <c r="JJ2" t="n">
-        <v>-698792.939114954</v>
+        <v>-698792.9391661346</v>
       </c>
       <c r="JK2" t="n">
-        <v>717.8532872838398</v>
+        <v>717.85328728362</v>
       </c>
       <c r="JL2" t="n">
-        <v>1006.758869099102</v>
+        <v>1006.758869097741</v>
       </c>
       <c r="JM2" t="n">
-        <v>1.402457698436406</v>
+        <v>1.402457698434939</v>
       </c>
       <c r="JN2" t="n">
-        <v>0.9995340644353958</v>
+        <v>0.9995340644356763</v>
       </c>
       <c r="JO2" t="n">
-        <v>344.800139111849</v>
+        <v>344.8001391115942</v>
       </c>
       <c r="JP2" t="n">
-        <v>188095.5405671655</v>
+        <v>188095.5404510571</v>
       </c>
       <c r="JQ2" t="n">
-        <v>5.316447146937639e-06</v>
+        <v>5.316447150219397e-06</v>
       </c>
       <c r="JR2" t="n">
-        <v>134118.5126488111</v>
+        <v>134118.5125661621</v>
       </c>
       <c r="JS2" t="n">
-        <v>7.456092229552955e-06</v>
+        <v>7.456092234147687e-06</v>
       </c>
       <c r="JT2" t="n">
-        <v>0.003395546720600964</v>
+        <v>0.003395546720596666</v>
       </c>
       <c r="JU2" t="n">
-        <v>1.832897112379466e-05</v>
+        <v>1.832897112376857e-05</v>
       </c>
       <c r="JV2" t="n">
-        <v>0.02606674897545929</v>
+        <v>0.02606674897541101</v>
       </c>
       <c r="JW2" t="n">
-        <v>134180.3381447243</v>
+        <v>134180.3380620004</v>
       </c>
       <c r="JX2" t="n">
-        <v>1.582135351258374</v>
+        <v>1.582135350284084</v>
       </c>
       <c r="JY2" t="n">
-        <v>1.582135351258374</v>
+        <v>1.582135350284084</v>
       </c>
       <c r="JZ2" t="n">
-        <v>336974.7856699199</v>
+        <v>336974.7856698793</v>
       </c>
       <c r="KA2" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="KB2" t="n">
-        <v>3790.970718501796</v>
+        <v>3790.970718678343</v>
       </c>
       <c r="KC2" t="n">
-        <v>717.8532872838398</v>
+        <v>717.85328728362</v>
       </c>
       <c r="KD2" t="n">
-        <v>1006.758869099102</v>
+        <v>1006.758869097741</v>
       </c>
       <c r="KE2" t="n">
-        <v>344.800139111849</v>
+        <v>344.8001391115942</v>
       </c>
       <c r="KF2" t="n">
-        <v>0.9995340644353958</v>
+        <v>0.9995340644356763</v>
       </c>
       <c r="KG2" t="n">
-        <v>1.832897112379466e-05</v>
+        <v>1.832897112376857e-05</v>
       </c>
       <c r="KH2" t="n">
-        <v>0.02606674897545929</v>
+        <v>0.02606674897541101</v>
       </c>
       <c r="KI2" t="n">
-        <v>270.0383893860115</v>
+        <v>270.038388877497</v>
       </c>
       <c r="KJ2" t="n">
-        <v>97831.94143792945</v>
+        <v>97831.94073443163</v>
       </c>
       <c r="KK2" t="n">
-        <v>1.26289913803975</v>
+        <v>1.262899131339386</v>
       </c>
       <c r="KL2" t="n">
-        <v>318701.5628991118</v>
+        <v>318701.5625357862</v>
       </c>
       <c r="KM2" t="n">
-        <v>396167.7187393814</v>
+        <v>396167.7182300058</v>
       </c>
       <c r="KN2" t="n">
-        <v>3790.970718496572</v>
+        <v>3790.970718673118</v>
       </c>
       <c r="KO2" t="n">
-        <v>-627539.9082929638</v>
+        <v>-627539.9069222501</v>
       </c>
       <c r="KP2" t="n">
-        <v>716.8434232579607</v>
+        <v>716.8434232413944</v>
       </c>
       <c r="KQ2" t="n">
-        <v>1005.569873275043</v>
+        <v>1005.569873253917</v>
       </c>
       <c r="KR2" t="n">
-        <v>1.402774777098265</v>
+        <v>1.402774777101212</v>
       </c>
       <c r="KS2" t="n">
-        <v>0.9993791075696015</v>
+        <v>0.9993791075673831</v>
       </c>
       <c r="KT2" t="n">
-        <v>329.5458192504918</v>
+        <v>329.5458189398134</v>
       </c>
       <c r="KU2" t="n">
-        <v>137151.4108886915</v>
+        <v>137151.4099024308</v>
       </c>
       <c r="KV2" t="n">
-        <v>7.29121190602679e-06</v>
+        <v>7.291211958458159e-06</v>
       </c>
       <c r="KW2" t="n">
-        <v>97771.51195461227</v>
+        <v>97771.51125132831</v>
       </c>
       <c r="KX2" t="n">
-        <v>1.022792815625294e-05</v>
+        <v>1.022792822982384e-05</v>
       </c>
       <c r="KY2" t="n">
-        <v>0.003716282316635175</v>
+        <v>0.003716282323612351</v>
       </c>
       <c r="KZ2" t="n">
-        <v>1.706164671320042e-05</v>
+        <v>1.706164668750183e-05</v>
       </c>
       <c r="LA2" t="n">
-        <v>0.02412067795197642</v>
+        <v>0.02412067791266771</v>
       </c>
       <c r="LB2" t="n">
-        <v>97831.94143792945</v>
+        <v>97831.94073443163</v>
       </c>
       <c r="LC2" t="n">
-        <v>1.26289913803975</v>
+        <v>1.262899131339386</v>
       </c>
       <c r="LD2" t="n">
-        <v>1.26289913803975</v>
+        <v>1.262899131339386</v>
       </c>
       <c r="LE2" t="n">
-        <v>318701.5628991118</v>
+        <v>318701.5625357862</v>
       </c>
       <c r="LF2" t="n">
-        <v>396167.7187393814</v>
+        <v>396167.7182300058</v>
       </c>
       <c r="LG2" t="n">
-        <v>3790.970718496572</v>
+        <v>3790.970718673118</v>
       </c>
       <c r="LH2" t="n">
-        <v>716.8434232579607</v>
+        <v>716.8434232413944</v>
       </c>
       <c r="LI2" t="n">
-        <v>1005.569873275043</v>
+        <v>1005.569873253917</v>
       </c>
       <c r="LJ2" t="n">
-        <v>329.5458192504918</v>
+        <v>329.5458189398134</v>
       </c>
       <c r="LK2" t="n">
-        <v>0.9993791075696015</v>
+        <v>0.9993791075673831</v>
       </c>
       <c r="LL2" t="n">
-        <v>1.706164671320042e-05</v>
+        <v>1.706164668750183e-05</v>
       </c>
       <c r="LM2" t="n">
-        <v>0.02412067795197642</v>
+        <v>0.02412067791266771</v>
       </c>
       <c r="LN2" t="n">
-        <v>0.804264112296448</v>
+        <v>0.8042641235803403</v>
       </c>
       <c r="LO2" t="n">
-        <v>0.3999003251685394</v>
+        <v>0.3999003337909105</v>
       </c>
       <c r="LP2" t="n">
-        <v>237217.1235337499</v>
+        <v>237217.1268300513</v>
       </c>
       <c r="LQ2" t="n">
-        <v>2.69874932006651</v>
+        <v>2.69874932298243</v>
       </c>
       <c r="LR2" t="n">
-        <v>382505.1447741611</v>
+        <v>382505.1442647856</v>
       </c>
       <c r="LS2" t="n">
         <v>165.3032</v>
       </c>
       <c r="LT2" t="n">
-        <v>133.6512507914835</v>
+        <v>133.6512498519467</v>
       </c>
       <c r="LU2" t="n">
-        <v>122.2076994177425</v>
+        <v>122.2076995782868</v>
       </c>
       <c r="LV2" t="n">
-        <v>-54.11039679350651</v>
+        <v>-54.11039411028796</v>
       </c>
       <c r="LW2" t="n">
-        <v>-23.88251906835448</v>
+        <v>-23.88251798869469</v>
       </c>
       <c r="LX2" t="n">
-        <v>251.1514448591542</v>
+        <v>251.1514425931314</v>
       </c>
       <c r="LY2" t="n">
-        <v>122.2076994177425</v>
+        <v>122.2076995782868</v>
       </c>
       <c r="LZ2" t="n">
-        <v>-219.4135967935065</v>
+        <v>-219.413594110288</v>
       </c>
       <c r="MA2" t="n">
-        <v>-60.88332394961672</v>
+        <v>-60.88332361976401</v>
       </c>
       <c r="MB2" t="n">
-        <v>238.5383990394886</v>
+        <v>238.5383990989682</v>
       </c>
       <c r="MC2" t="n">
-        <v>59999.99999991394</v>
+        <v>60000.00000000804</v>
       </c>
       <c r="MD2" t="n">
-        <v>0.8768865193250682</v>
+        <v>0.876886519107112</v>
       </c>
       <c r="ME2" t="n">
-        <v>296205.2894910736</v>
+        <v>296205.2895337052</v>
       </c>
       <c r="MF2" t="n">
-        <v>364629.1946117675</v>
+        <v>364629.1946715135</v>
       </c>
       <c r="MG2" t="n">
-        <v>3807.031910265776</v>
+        <v>3807.031910515792</v>
       </c>
       <c r="MH2" t="n">
-        <v>-543494.1023552767</v>
+        <v>-543494.10258161</v>
       </c>
       <c r="MI2" t="n">
-        <v>716.054900949584</v>
+        <v>716.0549009503972</v>
       </c>
       <c r="MJ2" t="n">
-        <v>1004.486582228236</v>
+        <v>1004.486582228224</v>
       </c>
       <c r="MK2" t="n">
-        <v>1.402806657556779</v>
+        <v>1.402806657555168</v>
       </c>
       <c r="ML2" t="n">
-        <v>0.9992941076632775</v>
+        <v>0.999294107664052</v>
       </c>
       <c r="MM2" t="n">
-        <v>309.7061258776834</v>
+        <v>309.7061259163583</v>
       </c>
       <c r="MN2" t="n">
-        <v>84109.09979794493</v>
+        <v>84109.09979804547</v>
       </c>
       <c r="MO2" t="n">
-        <v>1.188931997135027e-05</v>
+        <v>1.188931997133606e-05</v>
       </c>
       <c r="MP2" t="n">
-        <v>59957.72784856532</v>
+        <v>59957.72784870584</v>
       </c>
       <c r="MQ2" t="n">
-        <v>1.667841720963294e-05</v>
+        <v>1.667841720959385e-05</v>
       </c>
       <c r="MR2" t="n">
-        <v>0.004205246366108533</v>
+        <v>0.004205246365050672</v>
       </c>
       <c r="MS2" t="n">
-        <v>1.543114346774382e-05</v>
+        <v>1.543114347088879e-05</v>
       </c>
       <c r="MT2" t="n">
-        <v>0.02163960256528663</v>
+        <v>0.02163960257003762</v>
       </c>
       <c r="MU2" t="n">
-        <v>59999.99999991394</v>
+        <v>60000.00000000804</v>
       </c>
       <c r="MV2" t="n">
-        <v>0.8768865193250682</v>
+        <v>0.876886519107112</v>
       </c>
       <c r="MW2" t="n">
-        <v>0.8768865193250682</v>
+        <v>0.876886519107112</v>
       </c>
       <c r="MX2" t="n">
-        <v>296205.2894910736</v>
+        <v>296205.2895337052</v>
       </c>
       <c r="MY2" t="n">
-        <v>364629.1946117675</v>
+        <v>364629.1946715135</v>
       </c>
       <c r="MZ2" t="n">
-        <v>3807.031910265776</v>
+        <v>3807.031910515792</v>
       </c>
       <c r="NA2" t="n">
-        <v>716.054900949584</v>
+        <v>716.0549009503972</v>
       </c>
       <c r="NB2" t="n">
-        <v>1004.486582228236</v>
+        <v>1004.486582228224</v>
       </c>
       <c r="NC2" t="n">
-        <v>309.7061258776834</v>
+        <v>309.7061259163583</v>
       </c>
       <c r="ND2" t="n">
-        <v>0.9992941076632775</v>
+        <v>0.999294107664052</v>
       </c>
       <c r="NE2" t="n">
-        <v>1.543114346774382e-05</v>
+        <v>1.543114347088879e-05</v>
       </c>
       <c r="NF2" t="n">
-        <v>0.02163960256528663</v>
+        <v>0.02163960257003762</v>
       </c>
       <c r="NG2" t="n">
-        <v>247.4568372856319</v>
+        <v>247.4568372197126</v>
       </c>
       <c r="NH2" t="n">
-        <v>68203.18452457413</v>
+        <v>68203.18440413583</v>
       </c>
       <c r="NI2" t="n">
-        <v>0.9608242376855525</v>
+        <v>0.9608242362444733</v>
       </c>
       <c r="NJ2" t="n">
-        <v>302576.484692176</v>
+        <v>302576.4846452294</v>
       </c>
       <c r="NK2" t="n">
-        <v>373560.5230308246</v>
+        <v>373560.5229649935</v>
       </c>
       <c r="NL2" t="n">
-        <v>3807.031910274412</v>
+        <v>3807.031910514931</v>
       </c>
       <c r="NM2" t="n">
-        <v>-568515.552931159</v>
+        <v>-568515.552805551</v>
       </c>
       <c r="NN2" t="n">
-        <v>716.2280498180996</v>
+        <v>716.2280498164669</v>
       </c>
       <c r="NO2" t="n">
-        <v>1004.716668692521</v>
+        <v>1004.71666868926</v>
       </c>
       <c r="NP2" t="n">
-        <v>1.402788775094314</v>
+        <v>1.402788775092959</v>
       </c>
       <c r="NQ2" t="n">
-        <v>0.999321002659196</v>
+        <v>0.9993210026595443</v>
       </c>
       <c r="NR2" t="n">
-        <v>315.4491588482906</v>
+        <v>315.4491588062314</v>
       </c>
       <c r="NS2" t="n">
-        <v>95609.86333060323</v>
+        <v>95609.86316170853</v>
       </c>
       <c r="NT2" t="n">
-        <v>1.045917194277502e-05</v>
+        <v>1.045917196125114e-05</v>
       </c>
       <c r="NU2" t="n">
-        <v>68156.99200628052</v>
+        <v>68156.99188594715</v>
       </c>
       <c r="NV2" t="n">
-        <v>1.46720089981062e-05</v>
+        <v>1.46720090240101e-05</v>
       </c>
       <c r="NW2" t="n">
-        <v>0.004053977935430328</v>
+        <v>0.004053977936497413</v>
       </c>
       <c r="NX2" t="n">
-        <v>1.590063289261765e-05</v>
+        <v>1.590063288916278e-05</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.02235115815904233</v>
+        <v>0.02235115815378986</v>
       </c>
       <c r="NZ2" t="n">
-        <v>68203.18452457413</v>
+        <v>68203.18440413583</v>
       </c>
       <c r="OA2" t="n">
-        <v>0.9608242376855525</v>
+        <v>0.9608242362444733</v>
       </c>
       <c r="OB2" t="n">
-        <v>0.9608242376855525</v>
+        <v>0.9608242362444733</v>
       </c>
       <c r="OC2" t="n">
-        <v>302576.484692176</v>
+        <v>302576.4846452294</v>
       </c>
       <c r="OD2" t="n">
-        <v>373560.5230308246</v>
+        <v>373560.5229649935</v>
       </c>
       <c r="OE2" t="n">
-        <v>3807.031910274412</v>
+        <v>3807.031910514931</v>
       </c>
       <c r="OF2" t="n">
-        <v>716.2280498180996</v>
+        <v>716.2280498164669</v>
       </c>
       <c r="OG2" t="n">
-        <v>1004.716668692521</v>
+        <v>1004.71666868926</v>
       </c>
       <c r="OH2" t="n">
-        <v>315.4491588482906</v>
+        <v>315.4491588062314</v>
       </c>
       <c r="OI2" t="n">
-        <v>0.999321002659196</v>
+        <v>0.9993210026595443</v>
       </c>
       <c r="OJ2" t="n">
-        <v>1.590063289261765e-05</v>
+        <v>1.590063288916278e-05</v>
       </c>
       <c r="OK2" t="n">
-        <v>0.02235115815904233</v>
+        <v>0.02235115815378986</v>
       </c>
       <c r="OL2" t="n">
-        <v>270.0235432810396</v>
+        <v>270.0235427723192</v>
       </c>
       <c r="OM2" t="n">
-        <v>92505.17082342009</v>
+        <v>92505.17013734813</v>
       </c>
       <c r="ON2" t="n">
-        <v>1.194162261626533</v>
+        <v>1.194162255022067</v>
       </c>
       <c r="OO2" t="n">
-        <v>318703.2285306375</v>
+        <v>318703.228167156</v>
       </c>
       <c r="OP2" t="n">
-        <v>396167.7187393815</v>
+        <v>396167.7182298056</v>
       </c>
       <c r="OQ2" t="n">
-        <v>3807.031910265775</v>
+        <v>3807.031910506294</v>
       </c>
       <c r="OR2" t="n">
-        <v>-631820.5270545681</v>
+        <v>-631820.525692375</v>
       </c>
       <c r="OS2" t="n">
-        <v>716.8261010717748</v>
+        <v>716.8261010551754</v>
       </c>
       <c r="OT2" t="n">
-        <v>1005.461299403897</v>
+        <v>1005.46129938263</v>
       </c>
       <c r="OU2" t="n">
-        <v>1.402657210585056</v>
+        <v>1.402657210587869</v>
       </c>
       <c r="OV2" t="n">
-        <v>0.9994125649715495</v>
+        <v>0.9994125649695833</v>
       </c>
       <c r="OW2" t="n">
-        <v>329.5339267773071</v>
+        <v>329.533926466565</v>
       </c>
       <c r="OX2" t="n">
-        <v>129677.1954366914</v>
+        <v>129677.1944749306</v>
       </c>
       <c r="OY2" t="n">
-        <v>7.711456101687529e-06</v>
+        <v>7.711456158880128e-06</v>
       </c>
       <c r="OZ2" t="n">
-        <v>92451.09529120261</v>
+        <v>92451.09460534662</v>
       </c>
       <c r="PA2" t="n">
-        <v>1.081652950514213e-05</v>
+        <v>1.081652958538544e-05</v>
       </c>
       <c r="PB2" t="n">
-        <v>0.003715775530437373</v>
+        <v>0.003715775537415172</v>
       </c>
       <c r="PC2" t="n">
-        <v>1.706009188093105e-05</v>
+        <v>1.706009185522337e-05</v>
       </c>
       <c r="PD2" t="n">
-        <v>0.02411765899386925</v>
+        <v>0.02411765895454641</v>
       </c>
       <c r="PE2" t="n">
-        <v>92505.17082342009</v>
+        <v>92505.17013734813</v>
       </c>
       <c r="PF2" t="n">
-        <v>1.194162261626533</v>
+        <v>1.194162255022067</v>
       </c>
       <c r="PG2" t="n">
-        <v>1.194162261626533</v>
+        <v>1.194162255022067</v>
       </c>
       <c r="PH2" t="n">
-        <v>318703.2285306375</v>
+        <v>318703.228167156</v>
       </c>
       <c r="PI2" t="n">
-        <v>396167.7187393815</v>
+        <v>396167.7182298056</v>
       </c>
       <c r="PJ2" t="n">
-        <v>3807.031910265775</v>
+        <v>3807.031910506294</v>
       </c>
       <c r="PK2" t="n">
-        <v>716.8261010717748</v>
+        <v>716.8261010551754</v>
       </c>
       <c r="PL2" t="n">
-        <v>1005.461299403897</v>
+        <v>1005.46129938263</v>
       </c>
       <c r="PM2" t="n">
-        <v>329.5339267773071</v>
+        <v>329.533926466565</v>
       </c>
       <c r="PN2" t="n">
-        <v>0.9994125649715495</v>
+        <v>0.9994125649695833</v>
       </c>
       <c r="PO2" t="n">
-        <v>1.706009188093105e-05</v>
+        <v>1.706009185522337e-05</v>
       </c>
       <c r="PP2" t="n">
-        <v>0.02411765899386925</v>
+        <v>0.02411765895454641</v>
       </c>
       <c r="PQ2" t="n">
-        <v>0.4315421608556374</v>
+        <v>0.4315421577681084</v>
       </c>
       <c r="PR2" t="n">
-        <v>0.8109347018804043</v>
+        <v>0.8109346944624511</v>
       </c>
       <c r="PS2" t="n">
-        <v>371925.0044516393</v>
+        <v>371925.0009276876</v>
       </c>
       <c r="PT2" t="n">
-        <v>2.698749320076786</v>
+        <v>2.698749322951342</v>
       </c>
       <c r="PU2" t="n">
-        <v>382505.1447741611</v>
+        <v>382505.1442647856</v>
       </c>
       <c r="PV2" t="n">
-        <v>0.02695523138935275</v>
+        <v>0.02695523202557725</v>
       </c>
       <c r="PW2" t="n">
-        <v>0.0006584125366910353</v>
+        <v>0.0006584127040981048</v>
       </c>
       <c r="PX2" t="n">
-        <v>0.01388415223971151</v>
+        <v>0.01388415222180672</v>
       </c>
       <c r="PY2" t="n">
-        <v>0.08117664797816022</v>
+        <v>0.081176649690545</v>
       </c>
       <c r="PZ2" t="n">
-        <v>0.04120011734419655</v>
+        <v>0.04120011771314341</v>
       </c>
       <c r="QA2" t="n">
-        <v>0.1638745614881121</v>
+        <v>0.1638745643551705</v>
       </c>
       <c r="QB2" t="n">
-        <v>-8.887557356729303e-12</v>
+        <v>4.725980717878997e-11</v>
       </c>
       <c r="QC2" t="n">
         <v>0</v>
@@ -4416,10 +4416,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>79.4104455579005</v>
+        <v>79.41044567550462</v>
       </c>
       <c r="D3" t="n">
-        <v>79.4104455579005</v>
+        <v>79.41044567550462</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -4428,10 +4428,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>79.4104455579005</v>
+        <v>79.41044567550462</v>
       </c>
       <c r="H3" t="n">
-        <v>79.4104455579005</v>
+        <v>79.41044567550462</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -4440,97 +4440,97 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>292.4562209165522</v>
+        <v>292.4562209073399</v>
       </c>
       <c r="L3" t="n">
-        <v>132937.2626034566</v>
+        <v>132937.2625888193</v>
       </c>
       <c r="M3" t="n">
-        <v>1.584336431005347</v>
+        <v>1.584336430880911</v>
       </c>
       <c r="N3" t="n">
-        <v>334724.2034661795</v>
+        <v>334724.2034595895</v>
       </c>
       <c r="O3" t="n">
-        <v>418631.4216566372</v>
+        <v>418631.4216473986</v>
       </c>
       <c r="P3" t="n">
-        <v>3782.917347718237</v>
+        <v>3782.917347718238</v>
       </c>
       <c r="Q3" t="n">
-        <v>-687706.2898967055</v>
+        <v>-687706.2898710947</v>
       </c>
       <c r="R3" t="n">
-        <v>717.7176088215429</v>
+        <v>717.7176088211252</v>
       </c>
       <c r="S3" t="n">
-        <v>1006.653115304957</v>
+        <v>1006.653115304472</v>
       </c>
       <c r="T3" t="n">
-        <v>1.402575473880085</v>
+        <v>1.402575473880226</v>
       </c>
       <c r="U3" t="n">
-        <v>0.9994986897352819</v>
+        <v>0.9994986897352175</v>
       </c>
       <c r="V3" t="n">
-        <v>342.969121686194</v>
+        <v>342.9691216807872</v>
       </c>
       <c r="W3" t="n">
-        <v>186362.038038647</v>
+        <v>186362.038018134</v>
       </c>
       <c r="X3" t="n">
-        <v>5.365899678520495e-06</v>
+        <v>5.365899679111123e-06</v>
       </c>
       <c r="Y3" t="n">
-        <v>132871.3081821508</v>
+        <v>132871.3081675122</v>
       </c>
       <c r="Z3" t="n">
-        <v>7.526079284393878e-06</v>
+        <v>7.526079285223034e-06</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.003432243760637922</v>
+        <v>0.003432243760745862</v>
       </c>
       <c r="AB3" t="n">
-        <v>1.81764866959537e-05</v>
+        <v>1.817648669550301e-05</v>
       </c>
       <c r="AC3" t="n">
-        <v>0.02583212612825235</v>
+        <v>0.02583212612755812</v>
       </c>
       <c r="AD3" t="n">
-        <v>132937.2626034566</v>
+        <v>132937.2625888193</v>
       </c>
       <c r="AE3" t="n">
-        <v>1.584336431005347</v>
+        <v>1.584336430880911</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.584336431005347</v>
+        <v>1.584336430880911</v>
       </c>
       <c r="AG3" t="n">
-        <v>334724.2034661795</v>
+        <v>334724.2034595895</v>
       </c>
       <c r="AH3" t="n">
-        <v>418631.4216566372</v>
+        <v>418631.4216473986</v>
       </c>
       <c r="AI3" t="n">
-        <v>3782.917347718237</v>
+        <v>3782.917347718238</v>
       </c>
       <c r="AJ3" t="n">
-        <v>717.7176088215429</v>
+        <v>717.7176088211252</v>
       </c>
       <c r="AK3" t="n">
-        <v>1006.653115304957</v>
+        <v>1006.653115304472</v>
       </c>
       <c r="AL3" t="n">
-        <v>342.969121686194</v>
+        <v>342.9691216807872</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.9994986897352819</v>
+        <v>0.9994986897352175</v>
       </c>
       <c r="AN3" t="n">
-        <v>1.81764866959537e-05</v>
+        <v>1.817648669550301e-05</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.02583212612825235</v>
+        <v>0.02583212612755812</v>
       </c>
       <c r="AP3" t="n">
         <v>295.6000000000945</v>
@@ -4719,16 +4719,16 @@
         <v>0.0260686341970676</v>
       </c>
       <c r="CZ3" t="n">
-        <v>0.2315381780362098</v>
+        <v>0.2315381783827599</v>
       </c>
       <c r="DA3" t="n">
-        <v>0.2315381780362098</v>
+        <v>0.2315381783827599</v>
       </c>
       <c r="DB3" t="n">
-        <v>181072.6419440614</v>
+        <v>181072.6422024918</v>
       </c>
       <c r="DC3" t="n">
-        <v>2.701005603035188</v>
+        <v>2.701005606823143</v>
       </c>
       <c r="DD3" t="n">
         <v>421784.4310884894</v>
@@ -4737,325 +4737,325 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>262.1360872686239</v>
+        <v>262.1360861579157</v>
       </c>
       <c r="DG3" t="n">
-        <v>108.1411335464097</v>
+        <v>108.1411333734085</v>
       </c>
       <c r="DH3" t="n">
-        <v>238.7903337319189</v>
+        <v>238.7903325909675</v>
       </c>
       <c r="DI3" t="n">
-        <v>65.63562325319825</v>
+        <v>65.63562318476484</v>
       </c>
       <c r="DJ3" t="n">
-        <v>262.1360872686239</v>
+        <v>262.1360861579157</v>
       </c>
       <c r="DK3" t="n">
-        <v>108.1411335464097</v>
+        <v>108.1411333734085</v>
       </c>
       <c r="DL3" t="n">
-        <v>238.7903337319189</v>
+        <v>238.7903325909675</v>
       </c>
       <c r="DM3" t="n">
-        <v>65.63562325319825</v>
+        <v>65.63562318476485</v>
       </c>
       <c r="DN3" t="n">
-        <v>261.3138770285236</v>
+        <v>261.3138773190262</v>
       </c>
       <c r="DO3" t="n">
-        <v>87209.74197491763</v>
+        <v>87209.74233337035</v>
       </c>
       <c r="DP3" t="n">
-        <v>1.163413566828742</v>
+        <v>1.163413570315943</v>
       </c>
       <c r="DQ3" t="n">
-        <v>312466.5426198374</v>
+        <v>312466.5428273744</v>
       </c>
       <c r="DR3" t="n">
-        <v>387426.7669643374</v>
+        <v>387426.767255294</v>
       </c>
       <c r="DS3" t="n">
-        <v>3791.037829097057</v>
+        <v>3791.037829031435</v>
       </c>
       <c r="DT3" t="n">
-        <v>-603224.0261188116</v>
+        <v>-603224.0269120137</v>
       </c>
       <c r="DU3" t="n">
-        <v>716.5822797189118</v>
+        <v>716.5822797270287</v>
       </c>
       <c r="DV3" t="n">
-        <v>1005.24803584906</v>
+        <v>1005.248035859546</v>
       </c>
       <c r="DW3" t="n">
-        <v>1.4028368608883</v>
+        <v>1.402836860887043</v>
       </c>
       <c r="DX3" t="n">
-        <v>0.9993374759783155</v>
+        <v>0.9993374759794644</v>
       </c>
       <c r="DY3" t="n">
-        <v>324.1721406018049</v>
+        <v>324.1721407822263</v>
       </c>
       <c r="DZ3" t="n">
-        <v>122260.312487214</v>
+        <v>122260.312989766</v>
       </c>
       <c r="EA3" t="n">
-        <v>8.179269132038088e-06</v>
+        <v>8.179269098417134e-06</v>
       </c>
       <c r="EB3" t="n">
-        <v>87152.19559443048</v>
+        <v>87152.19595274843</v>
       </c>
       <c r="EC3" t="n">
-        <v>1.147418023354888e-05</v>
+        <v>1.147418018637388e-05</v>
       </c>
       <c r="ED3" t="n">
-        <v>0.003840115550185813</v>
+        <v>0.003840115545928063</v>
       </c>
       <c r="EE3" t="n">
-        <v>1.661802011033917e-05</v>
+        <v>1.661802012521045e-05</v>
       </c>
       <c r="EF3" t="n">
-        <v>0.02344319810300552</v>
+        <v>0.02344319812568613</v>
       </c>
       <c r="EG3" t="n">
-        <v>87209.74197491763</v>
+        <v>87209.74233337035</v>
       </c>
       <c r="EH3" t="n">
-        <v>1.163413566828742</v>
+        <v>1.163413570315943</v>
       </c>
       <c r="EI3" t="n">
-        <v>1.163413566828742</v>
+        <v>1.163413570315943</v>
       </c>
       <c r="EJ3" t="n">
-        <v>312466.5426198374</v>
+        <v>312466.5428273744</v>
       </c>
       <c r="EK3" t="n">
-        <v>387426.7669643374</v>
+        <v>387426.767255294</v>
       </c>
       <c r="EL3" t="n">
-        <v>3791.037829097057</v>
+        <v>3791.037829031435</v>
       </c>
       <c r="EM3" t="n">
-        <v>716.5822797189118</v>
+        <v>716.5822797270287</v>
       </c>
       <c r="EN3" t="n">
-        <v>1005.24803584906</v>
+        <v>1005.248035859546</v>
       </c>
       <c r="EO3" t="n">
-        <v>324.1721406018049</v>
+        <v>324.1721407822263</v>
       </c>
       <c r="EP3" t="n">
-        <v>0.9993374759783155</v>
+        <v>0.9993374759794644</v>
       </c>
       <c r="EQ3" t="n">
-        <v>1.661802011033917e-05</v>
+        <v>1.661802012521045e-05</v>
       </c>
       <c r="ER3" t="n">
-        <v>0.02344319810300552</v>
+        <v>0.02344319812568613</v>
       </c>
       <c r="ES3" t="n">
-        <v>295.5910708744304</v>
+        <v>295.591070874702</v>
       </c>
       <c r="ET3" t="n">
-        <v>134148.9565239522</v>
+        <v>134148.9565549523</v>
       </c>
       <c r="EU3" t="n">
-        <v>1.581765547373505</v>
+        <v>1.58176554773774</v>
       </c>
       <c r="EV3" t="n">
-        <v>336974.7974820023</v>
+        <v>336974.7974821343</v>
       </c>
       <c r="EW3" t="n">
-        <v>421784.4310883886</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="EX3" t="n">
-        <v>3791.037829102282</v>
+        <v>3791.037829036659</v>
       </c>
       <c r="EY3" t="n">
-        <v>-698812.5005414307</v>
+        <v>-698812.5005228616</v>
       </c>
       <c r="EZ3" t="n">
-        <v>717.8532055402372</v>
+        <v>717.8532055403268</v>
       </c>
       <c r="FA3" t="n">
-        <v>1006.758353831786</v>
+        <v>1006.758353832301</v>
       </c>
       <c r="FB3" t="n">
-        <v>1.402457140348251</v>
+        <v>1.402457140348793</v>
       </c>
       <c r="FC3" t="n">
-        <v>0.9995341712883594</v>
+        <v>0.9995341712882564</v>
       </c>
       <c r="FD3" t="n">
-        <v>344.8000645104944</v>
+        <v>344.8000645106844</v>
       </c>
       <c r="FE3" t="n">
-        <v>188051.4942683356</v>
+        <v>188051.4943118457</v>
       </c>
       <c r="FF3" t="n">
-        <v>5.317692390006078e-06</v>
+        <v>5.317692388775707e-06</v>
       </c>
       <c r="FG3" t="n">
-        <v>134087.1594989632</v>
+        <v>134087.1595299355</v>
       </c>
       <c r="FH3" t="n">
-        <v>7.457835662539578e-06</v>
+        <v>7.45783566081692e-06</v>
       </c>
       <c r="FI3" t="n">
-        <v>0.003395544649992003</v>
+        <v>0.003395544649991728</v>
       </c>
       <c r="FJ3" t="n">
-        <v>1.832896306781597e-05</v>
+        <v>1.832896306783361e-05</v>
       </c>
       <c r="FK3" t="n">
-        <v>0.02606673348870712</v>
+        <v>0.02606673348873731</v>
       </c>
       <c r="FL3" t="n">
-        <v>134148.9565239522</v>
+        <v>134148.9565549523</v>
       </c>
       <c r="FM3" t="n">
-        <v>1.581765547373505</v>
+        <v>1.58176554773774</v>
       </c>
       <c r="FN3" t="n">
-        <v>1.581765547373505</v>
+        <v>1.58176554773774</v>
       </c>
       <c r="FO3" t="n">
-        <v>336974.7974820023</v>
+        <v>336974.7974821343</v>
       </c>
       <c r="FP3" t="n">
-        <v>421784.4310883886</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="FQ3" t="n">
-        <v>3791.037829102282</v>
+        <v>3791.037829036659</v>
       </c>
       <c r="FR3" t="n">
-        <v>717.8532055402372</v>
+        <v>717.8532055403268</v>
       </c>
       <c r="FS3" t="n">
-        <v>1006.758353831786</v>
+        <v>1006.758353832301</v>
       </c>
       <c r="FT3" t="n">
-        <v>344.8000645104944</v>
+        <v>344.8000645106844</v>
       </c>
       <c r="FU3" t="n">
-        <v>0.9995341712883594</v>
+        <v>0.9995341712882564</v>
       </c>
       <c r="FV3" t="n">
-        <v>1.832896306781597e-05</v>
+        <v>1.832896306783361e-05</v>
       </c>
       <c r="FW3" t="n">
-        <v>0.02606673348870712</v>
+        <v>0.02606673348873731</v>
       </c>
       <c r="FX3" t="n">
-        <v>295.5910708744304</v>
+        <v>295.591070874702</v>
       </c>
       <c r="FY3" t="n">
-        <v>134148.9565239522</v>
+        <v>134148.9565549523</v>
       </c>
       <c r="FZ3" t="n">
-        <v>1.581765547373505</v>
+        <v>1.58176554773774</v>
       </c>
       <c r="GA3" t="n">
-        <v>336974.7974820023</v>
+        <v>336974.7974821343</v>
       </c>
       <c r="GB3" t="n">
-        <v>421784.4310883886</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="GC3" t="n">
-        <v>3791.037829102282</v>
+        <v>3791.037829036659</v>
       </c>
       <c r="GD3" t="n">
-        <v>-698812.5005414307</v>
+        <v>-698812.5005228616</v>
       </c>
       <c r="GE3" t="n">
-        <v>717.8532055402372</v>
+        <v>717.8532055403268</v>
       </c>
       <c r="GF3" t="n">
-        <v>1006.758353831786</v>
+        <v>1006.758353832301</v>
       </c>
       <c r="GG3" t="n">
-        <v>1.402457140348251</v>
+        <v>1.402457140348793</v>
       </c>
       <c r="GH3" t="n">
-        <v>0.9995341712883594</v>
+        <v>0.9995341712882564</v>
       </c>
       <c r="GI3" t="n">
-        <v>344.8000645104944</v>
+        <v>344.8000645106844</v>
       </c>
       <c r="GJ3" t="n">
-        <v>188051.4942683356</v>
+        <v>188051.4943118457</v>
       </c>
       <c r="GK3" t="n">
-        <v>5.317692390006078e-06</v>
+        <v>5.317692388775707e-06</v>
       </c>
       <c r="GL3" t="n">
-        <v>134087.1594989632</v>
+        <v>134087.1595299355</v>
       </c>
       <c r="GM3" t="n">
-        <v>7.457835662539578e-06</v>
+        <v>7.45783566081692e-06</v>
       </c>
       <c r="GN3" t="n">
-        <v>0.003395544649992003</v>
+        <v>0.003395544649991728</v>
       </c>
       <c r="GO3" t="n">
-        <v>1.832896306781597e-05</v>
+        <v>1.832896306783361e-05</v>
       </c>
       <c r="GP3" t="n">
-        <v>0.02606673348870712</v>
+        <v>0.02606673348873731</v>
       </c>
       <c r="GQ3" t="n">
-        <v>134148.9565239522</v>
+        <v>134148.9565549523</v>
       </c>
       <c r="GR3" t="n">
-        <v>1.581765547373505</v>
+        <v>1.58176554773774</v>
       </c>
       <c r="GS3" t="n">
-        <v>1.581765547373505</v>
+        <v>1.58176554773774</v>
       </c>
       <c r="GT3" t="n">
-        <v>336974.7974820023</v>
+        <v>336974.7974821343</v>
       </c>
       <c r="GU3" t="n">
-        <v>421784.4310883886</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="GV3" t="n">
-        <v>3791.037829102282</v>
+        <v>3791.037829036659</v>
       </c>
       <c r="GW3" t="n">
-        <v>717.8532055402372</v>
+        <v>717.8532055403268</v>
       </c>
       <c r="GX3" t="n">
-        <v>1006.758353831786</v>
+        <v>1006.758353832301</v>
       </c>
       <c r="GY3" t="n">
-        <v>344.8000645104944</v>
+        <v>344.8000645106844</v>
       </c>
       <c r="GZ3" t="n">
-        <v>0.9995341712883594</v>
+        <v>0.9995341712882564</v>
       </c>
       <c r="HA3" t="n">
-        <v>1.832896306781597e-05</v>
+        <v>1.832896306783361e-05</v>
       </c>
       <c r="HB3" t="n">
-        <v>0.02606673348870712</v>
+        <v>0.02606673348873731</v>
       </c>
       <c r="HC3" t="n">
-        <v>0.8086323728559308</v>
+        <v>0.8086323689795867</v>
       </c>
       <c r="HD3" t="n">
-        <v>0.8086323728559308</v>
+        <v>0.8086323689795867</v>
       </c>
       <c r="HE3" t="n">
-        <v>480086.3919558277</v>
+        <v>480086.390931014</v>
       </c>
       <c r="HF3" t="n">
-        <v>2.701005603043418</v>
+        <v>2.701005606818386</v>
       </c>
       <c r="HG3" t="n">
         <v>421784.4310884894</v>
       </c>
       <c r="HH3" t="n">
-        <v>0.01761869846138403</v>
+        <v>0.01761869839159354</v>
       </c>
       <c r="HI3" t="n">
         <v>0</v>
@@ -5064,16 +5064,16 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="HK3" t="n">
-        <v>0.04914443526870539</v>
+        <v>0.0491444352530653</v>
       </c>
       <c r="HL3" t="n">
         <v>0</v>
       </c>
       <c r="HM3" t="n">
-        <v>0.08204320226933255</v>
+        <v>0.08204320218390196</v>
       </c>
       <c r="HN3" t="n">
-        <v>2.979283486581608e-12</v>
+        <v>3.208683319044781e-13</v>
       </c>
       <c r="HO3" t="n">
         <v>0</v>
@@ -5082,664 +5082,664 @@
         <v>165.3032</v>
       </c>
       <c r="HQ3" t="n">
-        <v>262.1360872686239</v>
+        <v>262.1360861579157</v>
       </c>
       <c r="HR3" t="n">
-        <v>108.1411335464097</v>
+        <v>108.1411333734085</v>
       </c>
       <c r="HS3" t="n">
-        <v>238.7903337319189</v>
+        <v>238.7903325909675</v>
       </c>
       <c r="HT3" t="n">
-        <v>65.63562325319825</v>
+        <v>65.63562318476484</v>
       </c>
       <c r="HU3" t="n">
-        <v>130.7473272722442</v>
+        <v>130.747326487878</v>
       </c>
       <c r="HV3" t="n">
-        <v>108.1411335464097</v>
+        <v>108.1411333734085</v>
       </c>
       <c r="HW3" t="n">
-        <v>73.48713373191887</v>
+        <v>73.48713259096752</v>
       </c>
       <c r="HX3" t="n">
-        <v>34.19800485674807</v>
+        <v>34.198004485821</v>
       </c>
       <c r="HY3" t="n">
-        <v>261.3138770284171</v>
+        <v>261.3138773191261</v>
       </c>
       <c r="HZ3" t="n">
-        <v>87209.74197495946</v>
+        <v>87209.74233332094</v>
       </c>
       <c r="IA3" t="n">
-        <v>1.163413566829776</v>
+        <v>1.163413570314837</v>
       </c>
       <c r="IB3" t="n">
-        <v>312466.542619761</v>
+        <v>312466.542827446</v>
       </c>
       <c r="IC3" t="n">
-        <v>387426.7669642305</v>
+        <v>387426.7672553944</v>
       </c>
       <c r="ID3" t="n">
-        <v>3791.037829096509</v>
+        <v>3791.037829031983</v>
       </c>
       <c r="IE3" t="n">
-        <v>-603224.0261183722</v>
+        <v>-603224.0269124352</v>
       </c>
       <c r="IF3" t="n">
-        <v>716.5822797189096</v>
+        <v>716.5822797270308</v>
       </c>
       <c r="IG3" t="n">
-        <v>1005.24803584906</v>
+        <v>1005.248035859545</v>
       </c>
       <c r="IH3" t="n">
-        <v>1.402836860888304</v>
+        <v>1.402836860887038</v>
       </c>
       <c r="II3" t="n">
-        <v>0.9993374759783138</v>
+        <v>0.9993374759794661</v>
       </c>
       <c r="IJ3" t="n">
-        <v>324.1721406017388</v>
+        <v>324.1721407822884</v>
       </c>
       <c r="IK3" t="n">
-        <v>122260.3124872728</v>
+        <v>122260.3129896966</v>
       </c>
       <c r="IL3" t="n">
-        <v>8.179269132034154e-06</v>
+        <v>8.179269098421776e-06</v>
       </c>
       <c r="IM3" t="n">
-        <v>87152.19559447211</v>
+        <v>87152.1959526992</v>
       </c>
       <c r="IN3" t="n">
-        <v>1.14741802335434e-05</v>
+        <v>1.147418018638036e-05</v>
       </c>
       <c r="IO3" t="n">
-        <v>0.0038401155501874</v>
+        <v>0.003840115545926573</v>
       </c>
       <c r="IP3" t="n">
-        <v>1.661802011033375e-05</v>
+        <v>1.661802012521553e-05</v>
       </c>
       <c r="IQ3" t="n">
-        <v>0.02344319810299727</v>
+        <v>0.02344319812569387</v>
       </c>
       <c r="IR3" t="n">
-        <v>87209.74197495946</v>
+        <v>87209.74233332094</v>
       </c>
       <c r="IS3" t="n">
-        <v>1.163413566829776</v>
+        <v>1.163413570314837</v>
       </c>
       <c r="IT3" t="n">
-        <v>1.163413566829776</v>
+        <v>1.163413570314837</v>
       </c>
       <c r="IU3" t="n">
-        <v>312466.542619761</v>
+        <v>312466.542827446</v>
       </c>
       <c r="IV3" t="n">
-        <v>387426.7669642305</v>
+        <v>387426.7672553944</v>
       </c>
       <c r="IW3" t="n">
-        <v>3791.037829096509</v>
+        <v>3791.037829031983</v>
       </c>
       <c r="IX3" t="n">
-        <v>716.5822797189096</v>
+        <v>716.5822797270308</v>
       </c>
       <c r="IY3" t="n">
-        <v>1005.24803584906</v>
+        <v>1005.248035859545</v>
       </c>
       <c r="IZ3" t="n">
-        <v>324.1721406017388</v>
+        <v>324.1721407822884</v>
       </c>
       <c r="JA3" t="n">
-        <v>0.9993374759783138</v>
+        <v>0.9993374759794661</v>
       </c>
       <c r="JB3" t="n">
-        <v>1.661802011033375e-05</v>
+        <v>1.661802012521553e-05</v>
       </c>
       <c r="JC3" t="n">
-        <v>0.02344319810299727</v>
+        <v>0.02344319812569387</v>
       </c>
       <c r="JD3" t="n">
-        <v>295.5910708745308</v>
+        <v>295.5910708748013</v>
       </c>
       <c r="JE3" t="n">
-        <v>134148.9565243663</v>
+        <v>134148.9565548541</v>
       </c>
       <c r="JF3" t="n">
-        <v>1.581765547377851</v>
+        <v>1.581765547736048</v>
       </c>
       <c r="JG3" t="n">
-        <v>336974.7974820737</v>
+        <v>336974.7974822057</v>
       </c>
       <c r="JH3" t="n">
-        <v>421784.431088489</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="JI3" t="n">
-        <v>3791.037829101735</v>
+        <v>3791.037829037209</v>
       </c>
       <c r="JJ3" t="n">
-        <v>-698812.5005415493</v>
+        <v>-698812.5005233007</v>
       </c>
       <c r="JK3" t="n">
-        <v>717.8532055402428</v>
+        <v>717.8532055403309</v>
       </c>
       <c r="JL3" t="n">
-        <v>1006.758353831796</v>
+        <v>1006.758353832302</v>
       </c>
       <c r="JM3" t="n">
-        <v>1.402457140348254</v>
+        <v>1.402457140348787</v>
       </c>
       <c r="JN3" t="n">
-        <v>0.9995341712883593</v>
+        <v>0.9995341712882579</v>
       </c>
       <c r="JO3" t="n">
-        <v>344.8000645105533</v>
+        <v>344.8000645107421</v>
       </c>
       <c r="JP3" t="n">
-        <v>188051.4942689165</v>
+        <v>188051.4943117075</v>
       </c>
       <c r="JQ3" t="n">
-        <v>5.317692389989652e-06</v>
+        <v>5.317692388779615e-06</v>
       </c>
       <c r="JR3" t="n">
-        <v>134087.159499377</v>
+        <v>134087.1595298375</v>
       </c>
       <c r="JS3" t="n">
-        <v>7.457835662516558e-06</v>
+        <v>7.457835660822368e-06</v>
       </c>
       <c r="JT3" t="n">
-        <v>0.003395544649990876</v>
+        <v>0.003395544649990565</v>
       </c>
       <c r="JU3" t="n">
-        <v>1.832896306782089e-05</v>
+        <v>1.832896306783841e-05</v>
       </c>
       <c r="JV3" t="n">
-        <v>0.02606673348871474</v>
+        <v>0.02606673348874469</v>
       </c>
       <c r="JW3" t="n">
-        <v>134148.9565243663</v>
+        <v>134148.9565548541</v>
       </c>
       <c r="JX3" t="n">
-        <v>1.581765547377851</v>
+        <v>1.581765547736048</v>
       </c>
       <c r="JY3" t="n">
-        <v>1.581765547377851</v>
+        <v>1.581765547736048</v>
       </c>
       <c r="JZ3" t="n">
-        <v>336974.7974820737</v>
+        <v>336974.7974822057</v>
       </c>
       <c r="KA3" t="n">
-        <v>421784.431088489</v>
+        <v>421784.4310886901</v>
       </c>
       <c r="KB3" t="n">
-        <v>3791.037829101735</v>
+        <v>3791.037829037209</v>
       </c>
       <c r="KC3" t="n">
-        <v>717.8532055402428</v>
+        <v>717.8532055403309</v>
       </c>
       <c r="KD3" t="n">
-        <v>1006.758353831796</v>
+        <v>1006.758353832302</v>
       </c>
       <c r="KE3" t="n">
-        <v>344.8000645105533</v>
+        <v>344.8000645107421</v>
       </c>
       <c r="KF3" t="n">
-        <v>0.9995341712883593</v>
+        <v>0.9995341712882579</v>
       </c>
       <c r="KG3" t="n">
-        <v>1.832896306782089e-05</v>
+        <v>1.832896306783841e-05</v>
       </c>
       <c r="KH3" t="n">
-        <v>0.02606673348871474</v>
+        <v>0.02606673348874469</v>
       </c>
       <c r="KI3" t="n">
-        <v>269.8451959652961</v>
+        <v>269.8451961537813</v>
       </c>
       <c r="KJ3" t="n">
-        <v>97564.93585471952</v>
+        <v>97564.93611462522</v>
       </c>
       <c r="KK3" t="n">
-        <v>1.260355154735944</v>
+        <v>1.26035515721205</v>
       </c>
       <c r="KL3" t="n">
-        <v>318563.5296404249</v>
+        <v>318563.5297750945</v>
       </c>
       <c r="KM3" t="n">
-        <v>395974.1987586547</v>
+        <v>395974.1989474587</v>
       </c>
       <c r="KN3" t="n">
-        <v>3791.03782909651</v>
+        <v>3791.037829031983</v>
       </c>
       <c r="KO3" t="n">
-        <v>-627019.1471457437</v>
+        <v>-627019.147654082</v>
       </c>
       <c r="KP3" t="n">
-        <v>716.8371394153286</v>
+        <v>716.8371394214483</v>
       </c>
       <c r="KQ3" t="n">
-        <v>1005.561857430396</v>
+        <v>1005.5618574382</v>
       </c>
       <c r="KR3" t="n">
-        <v>1.402775891676816</v>
+        <v>1.402775891675727</v>
       </c>
       <c r="KS3" t="n">
-        <v>0.9993782664577947</v>
+        <v>0.9993782664586158</v>
       </c>
       <c r="KT3" t="n">
-        <v>329.4277660463055</v>
+        <v>329.4277661615021</v>
       </c>
       <c r="KU3" t="n">
-        <v>136777.085167432</v>
+        <v>136777.085531804</v>
       </c>
       <c r="KV3" t="n">
-        <v>7.311166185299801e-06</v>
+        <v>7.311166165822972e-06</v>
       </c>
       <c r="KW3" t="n">
-        <v>97504.58785254337</v>
+        <v>97504.58811236975</v>
       </c>
       <c r="KX3" t="n">
-        <v>1.025592766478132e-05</v>
+        <v>1.025592763745173e-05</v>
       </c>
       <c r="KY3" t="n">
-        <v>0.003718934959787955</v>
+        <v>0.003718934957198066</v>
       </c>
       <c r="KZ3" t="n">
-        <v>1.70518819895802e-05</v>
+        <v>1.705188199910826e-05</v>
       </c>
       <c r="LA3" t="n">
-        <v>0.02410574224145429</v>
+        <v>0.02410574225602749</v>
       </c>
       <c r="LB3" t="n">
-        <v>97564.93585471952</v>
+        <v>97564.93611462522</v>
       </c>
       <c r="LC3" t="n">
-        <v>1.260355154735944</v>
+        <v>1.26035515721205</v>
       </c>
       <c r="LD3" t="n">
-        <v>1.260355154735944</v>
+        <v>1.26035515721205</v>
       </c>
       <c r="LE3" t="n">
-        <v>318563.5296404249</v>
+        <v>318563.5297750945</v>
       </c>
       <c r="LF3" t="n">
-        <v>395974.1987586547</v>
+        <v>395974.1989474587</v>
       </c>
       <c r="LG3" t="n">
-        <v>3791.03782909651</v>
+        <v>3791.037829031983</v>
       </c>
       <c r="LH3" t="n">
-        <v>716.8371394153286</v>
+        <v>716.8371394214483</v>
       </c>
       <c r="LI3" t="n">
-        <v>1005.561857430396</v>
+        <v>1005.5618574382</v>
       </c>
       <c r="LJ3" t="n">
-        <v>329.4277660463055</v>
+        <v>329.4277661615021</v>
       </c>
       <c r="LK3" t="n">
-        <v>0.9993782664577947</v>
+        <v>0.9993782664586158</v>
       </c>
       <c r="LL3" t="n">
-        <v>1.70518819895802e-05</v>
+        <v>1.705188199910826e-05</v>
       </c>
       <c r="LM3" t="n">
-        <v>0.02410574224145429</v>
+        <v>0.02410574225602749</v>
       </c>
       <c r="LN3" t="n">
-        <v>0.8086323728560957</v>
+        <v>0.8086323689794318</v>
       </c>
       <c r="LO3" t="n">
-        <v>0.4033268467473696</v>
+        <v>0.4033268441031365</v>
       </c>
       <c r="LP3" t="n">
-        <v>238540.4723487067</v>
+        <v>238540.4714186202</v>
       </c>
       <c r="LQ3" t="n">
-        <v>2.701005603045819</v>
+        <v>2.701005606815818</v>
       </c>
       <c r="LR3" t="n">
-        <v>382311.6247934345</v>
+        <v>382311.6249822386</v>
       </c>
       <c r="LS3" t="n">
         <v>165.3032</v>
       </c>
       <c r="LT3" t="n">
-        <v>140.9489170206367</v>
+        <v>140.9489175454296</v>
       </c>
       <c r="LU3" t="n">
-        <v>126.2280163940439</v>
+        <v>126.2280165576914</v>
       </c>
       <c r="LV3" t="n">
-        <v>-62.71431325076685</v>
+        <v>-62.7143141008454</v>
       </c>
       <c r="LW3" t="n">
-        <v>-26.41972795937911</v>
+        <v>-26.41972823924697</v>
       </c>
       <c r="LX3" t="n">
-        <v>260.6252069003278</v>
+        <v>260.6252077233091</v>
       </c>
       <c r="LY3" t="n">
-        <v>126.2280163940439</v>
+        <v>126.2280165576914</v>
       </c>
       <c r="LZ3" t="n">
-        <v>-228.0175132507669</v>
+        <v>-228.0175141008454</v>
       </c>
       <c r="MA3" t="n">
-        <v>-61.03156311452946</v>
+        <v>-61.03156317356603</v>
       </c>
       <c r="MB3" t="n">
-        <v>235.9233320563704</v>
+        <v>235.9233320305991</v>
       </c>
       <c r="MC3" t="n">
-        <v>57500.00000181068</v>
+        <v>57499.99999812434</v>
       </c>
       <c r="MD3" t="n">
-        <v>0.8496677680367055</v>
+        <v>0.8496677680752945</v>
       </c>
       <c r="ME3" t="n">
-        <v>294337.9397523462</v>
+        <v>294337.9397338863</v>
       </c>
       <c r="MF3" t="n">
-        <v>362011.4495227282</v>
+        <v>362011.4494968563</v>
       </c>
       <c r="MG3" t="n">
-        <v>3808.205261196962</v>
+        <v>3808.205261105689</v>
       </c>
       <c r="MH3" t="n">
-        <v>-536433.0248534596</v>
+        <v>-536433.0247596556</v>
       </c>
       <c r="MI3" t="n">
-        <v>716.0089809908023</v>
+        <v>716.0089809904586</v>
       </c>
       <c r="MJ3" t="n">
-        <v>1004.418518595339</v>
+        <v>1004.418518595265</v>
       </c>
       <c r="MK3" t="n">
-        <v>1.402801564312001</v>
+        <v>1.402801564312571</v>
       </c>
       <c r="ML3" t="n">
-        <v>0.9992900832994775</v>
+        <v>0.999290083299187</v>
       </c>
       <c r="MM3" t="n">
-        <v>308.0019963373154</v>
+        <v>308.001996320466</v>
       </c>
       <c r="MN3" t="n">
-        <v>80603.92802407841</v>
+        <v>80603.92801892021</v>
       </c>
       <c r="MO3" t="n">
-        <v>1.240634327028423e-05</v>
+        <v>1.240634327107817e-05</v>
       </c>
       <c r="MP3" t="n">
-        <v>57459.25159672198</v>
+        <v>57459.25159302154</v>
       </c>
       <c r="MQ3" t="n">
-        <v>1.740363774694638e-05</v>
+        <v>1.74036377480672e-05</v>
       </c>
       <c r="MR3" t="n">
-        <v>0.004251713105609332</v>
+        <v>0.004251713106076999</v>
       </c>
       <c r="MS3" t="n">
-        <v>1.529217508847417e-05</v>
+        <v>1.52921750871051e-05</v>
       </c>
       <c r="MT3" t="n">
-        <v>0.0214293564280563</v>
+        <v>0.02142935642598932</v>
       </c>
       <c r="MU3" t="n">
-        <v>57500.00000181068</v>
+        <v>57499.99999812434</v>
       </c>
       <c r="MV3" t="n">
-        <v>0.8496677680367055</v>
+        <v>0.8496677680752945</v>
       </c>
       <c r="MW3" t="n">
-        <v>0.8496677680367055</v>
+        <v>0.8496677680752945</v>
       </c>
       <c r="MX3" t="n">
-        <v>294337.9397523462</v>
+        <v>294337.9397338863</v>
       </c>
       <c r="MY3" t="n">
-        <v>362011.4495227282</v>
+        <v>362011.4494968563</v>
       </c>
       <c r="MZ3" t="n">
-        <v>3808.205261196962</v>
+        <v>3808.205261105689</v>
       </c>
       <c r="NA3" t="n">
-        <v>716.0089809908023</v>
+        <v>716.0089809904586</v>
       </c>
       <c r="NB3" t="n">
-        <v>1004.418518595339</v>
+        <v>1004.418518595265</v>
       </c>
       <c r="NC3" t="n">
-        <v>308.0019963373154</v>
+        <v>308.001996320466</v>
       </c>
       <c r="ND3" t="n">
-        <v>0.9992900832994775</v>
+        <v>0.999290083299187</v>
       </c>
       <c r="NE3" t="n">
-        <v>1.529217508847417e-05</v>
+        <v>1.52921750871051e-05</v>
       </c>
       <c r="NF3" t="n">
-        <v>0.0214293564280563</v>
+        <v>0.02142935642598932</v>
       </c>
       <c r="NG3" t="n">
-        <v>245.8425920892032</v>
+        <v>245.8425921373922</v>
       </c>
       <c r="NH3" t="n">
-        <v>66391.14818167574</v>
+        <v>66391.14825043057</v>
       </c>
       <c r="NI3" t="n">
-        <v>0.9414405105338117</v>
+        <v>0.9414405113243126</v>
       </c>
       <c r="NJ3" t="n">
-        <v>301423.9372648537</v>
+        <v>301423.9372992195</v>
       </c>
       <c r="NK3" t="n">
-        <v>371944.7481273806</v>
+        <v>371944.7481755637</v>
       </c>
       <c r="NL3" t="n">
-        <v>3808.205261205619</v>
+        <v>3808.205261104545</v>
       </c>
       <c r="NM3" t="n">
-        <v>-564274.3044951499</v>
+        <v>-564274.3046056322</v>
       </c>
       <c r="NN3" t="n">
-        <v>716.1931655483806</v>
+        <v>716.1931655494681</v>
       </c>
       <c r="NO3" t="n">
-        <v>1004.665607144489</v>
+        <v>1004.665607146385</v>
       </c>
       <c r="NP3" t="n">
-        <v>1.402785806222025</v>
+        <v>1.402785806222542</v>
       </c>
       <c r="NQ3" t="n">
-        <v>0.9993185309261677</v>
+        <v>0.9993185309260825</v>
       </c>
       <c r="NR3" t="n">
-        <v>314.4174608699664</v>
+        <v>314.4174609008135</v>
       </c>
       <c r="NS3" t="n">
-        <v>93069.24579761471</v>
+        <v>93069.2458940241</v>
       </c>
       <c r="NT3" t="n">
-        <v>1.074468790877028e-05</v>
+        <v>1.074468789763998e-05</v>
       </c>
       <c r="NU3" t="n">
-        <v>66346.01332919691</v>
+        <v>66346.01339789953</v>
       </c>
       <c r="NV3" t="n">
-        <v>1.507249569070836e-05</v>
+        <v>1.507249567510049e-05</v>
       </c>
       <c r="NW3" t="n">
-        <v>0.004080492907389799</v>
+        <v>0.004080492906596017</v>
       </c>
       <c r="NX3" t="n">
-        <v>1.581610039141132e-05</v>
+        <v>1.58161003939404e-05</v>
       </c>
       <c r="NY3" t="n">
-        <v>0.02222284199473175</v>
+        <v>0.02222284199857199</v>
       </c>
       <c r="NZ3" t="n">
-        <v>66391.14818167574</v>
+        <v>66391.14825043057</v>
       </c>
       <c r="OA3" t="n">
-        <v>0.9414405105338117</v>
+        <v>0.9414405113243126</v>
       </c>
       <c r="OB3" t="n">
-        <v>0.9414405105338117</v>
+        <v>0.9414405113243126</v>
       </c>
       <c r="OC3" t="n">
-        <v>301423.9372648537</v>
+        <v>301423.9372992195</v>
       </c>
       <c r="OD3" t="n">
-        <v>371944.7481273806</v>
+        <v>371944.7481755637</v>
       </c>
       <c r="OE3" t="n">
-        <v>3808.205261205619</v>
+        <v>3808.205261104545</v>
       </c>
       <c r="OF3" t="n">
-        <v>716.1931655483806</v>
+        <v>716.1931655494681</v>
       </c>
       <c r="OG3" t="n">
-        <v>1004.665607144489</v>
+        <v>1004.665607146385</v>
       </c>
       <c r="OH3" t="n">
-        <v>314.4174608699664</v>
+        <v>314.4174609008135</v>
       </c>
       <c r="OI3" t="n">
-        <v>0.9993185309261677</v>
+        <v>0.9993185309260825</v>
       </c>
       <c r="OJ3" t="n">
-        <v>1.581610039141132e-05</v>
+        <v>1.58161003939404e-05</v>
       </c>
       <c r="OK3" t="n">
-        <v>0.02222284199473175</v>
+        <v>0.02222284199857199</v>
       </c>
       <c r="OL3" t="n">
-        <v>269.8293783131255</v>
+        <v>269.8293785018232</v>
       </c>
       <c r="OM3" t="n">
-        <v>91897.6483259594</v>
+        <v>91897.64858271743</v>
       </c>
       <c r="ON3" t="n">
-        <v>1.187171607073194</v>
+        <v>1.187171609559053</v>
       </c>
       <c r="OO3" t="n">
-        <v>318565.2986647934</v>
+        <v>318565.2987996103</v>
       </c>
       <c r="OP3" t="n">
-        <v>395974.1987584541</v>
+        <v>395974.1989474588</v>
       </c>
       <c r="OQ3" t="n">
-        <v>3808.205261196962</v>
+        <v>3808.205261095888</v>
       </c>
       <c r="OR3" t="n">
-        <v>-631591.4593590958</v>
+        <v>-631591.4598614181</v>
       </c>
       <c r="OS3" t="n">
-        <v>716.8186757255302</v>
+        <v>716.8186757316788</v>
       </c>
       <c r="OT3" t="n">
-        <v>1005.446142841902</v>
+        <v>1005.446142849839</v>
       </c>
       <c r="OU3" t="n">
-        <v>1.402650596155627</v>
+        <v>1.402650596154668</v>
       </c>
       <c r="OV3" t="n">
-        <v>0.9994140113574043</v>
+        <v>0.9994140113581037</v>
       </c>
       <c r="OW3" t="n">
-        <v>329.4151213631993</v>
+        <v>329.4151214785032</v>
       </c>
       <c r="OX3" t="n">
-        <v>128825.1222561315</v>
+        <v>128825.1226160671</v>
       </c>
       <c r="OY3" t="n">
-        <v>7.762461098323582e-06</v>
+        <v>7.762461076635373e-06</v>
       </c>
       <c r="OZ3" t="n">
-        <v>91844.0576785226</v>
+        <v>91844.05793519637</v>
       </c>
       <c r="PA3" t="n">
-        <v>1.088802068719843e-05</v>
+        <v>1.088802065677001e-05</v>
       </c>
       <c r="PB3" t="n">
-        <v>0.003718394226332087</v>
+        <v>0.003718394223740627</v>
       </c>
       <c r="PC3" t="n">
-        <v>1.705022610098837e-05</v>
+        <v>1.705022611052719e-05</v>
       </c>
       <c r="PD3" t="n">
-        <v>0.02410252681836985</v>
+        <v>0.02410252683296004</v>
       </c>
       <c r="PE3" t="n">
-        <v>91897.6483259594</v>
+        <v>91897.64858271743</v>
       </c>
       <c r="PF3" t="n">
-        <v>1.187171607073194</v>
+        <v>1.187171609559053</v>
       </c>
       <c r="PG3" t="n">
-        <v>1.187171607073194</v>
+        <v>1.187171609559053</v>
       </c>
       <c r="PH3" t="n">
-        <v>318565.2986647934</v>
+        <v>318565.2987996103</v>
       </c>
       <c r="PI3" t="n">
-        <v>395974.1987584541</v>
+        <v>395974.1989474588</v>
       </c>
       <c r="PJ3" t="n">
-        <v>3808.205261196962</v>
+        <v>3808.205261095888</v>
       </c>
       <c r="PK3" t="n">
-        <v>716.8186757255302</v>
+        <v>716.8186757316788</v>
       </c>
       <c r="PL3" t="n">
-        <v>1005.446142841902</v>
+        <v>1005.446142849839</v>
       </c>
       <c r="PM3" t="n">
-        <v>329.4151213631993</v>
+        <v>329.4151214785032</v>
       </c>
       <c r="PN3" t="n">
-        <v>0.9994140113574043</v>
+        <v>0.9994140113581037</v>
       </c>
       <c r="PO3" t="n">
-        <v>1.705022610098837e-05</v>
+        <v>1.705022611052719e-05</v>
       </c>
       <c r="PP3" t="n">
-        <v>0.02410252681836985</v>
+        <v>0.02410252683296004</v>
       </c>
       <c r="PQ3" t="n">
-        <v>0.4576233878246467</v>
+        <v>0.4576233895535431</v>
       </c>
       <c r="PR3" t="n">
-        <v>0.8461802520750488</v>
+        <v>0.8461802547933395</v>
       </c>
       <c r="PS3" t="n">
-        <v>377372.9008954888</v>
+        <v>377372.9021380509</v>
       </c>
       <c r="PT3" t="n">
-        <v>2.701005603109432</v>
+        <v>2.701005606733803</v>
       </c>
       <c r="PU3" t="n">
-        <v>382311.6247934345</v>
+        <v>382311.6249822386</v>
       </c>
       <c r="PV3" t="n">
-        <v>0.02707894899111803</v>
+        <v>0.02707894880009905</v>
       </c>
       <c r="PW3" t="n">
-        <v>0.0007370771549868602</v>
+        <v>0.0007370770797422196</v>
       </c>
       <c r="PX3" t="n">
-        <v>0.01389216954142047</v>
+        <v>0.01389216954460171</v>
       </c>
       <c r="PY3" t="n">
-        <v>0.08157447988615107</v>
+        <v>0.08157447923654525</v>
       </c>
       <c r="PZ3" t="n">
-        <v>0.0414753181804807</v>
+        <v>0.04147531797976777</v>
       </c>
       <c r="QA3" t="n">
-        <v>0.1647579937541571</v>
+        <v>0.164757992640756</v>
       </c>
       <c r="QB3" t="n">
-        <v>2.943026378154912e-11</v>
+        <v>-1.313790742862864e-11</v>
       </c>
       <c r="QC3" t="n">
         <v>0</v>
@@ -8136,7 +8136,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01760218515226914</v>
+        <v>0.01760218522435198</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -8145,25 +8145,25 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="E2" t="n">
-        <v>0.04914041451742465</v>
+        <v>0.04914041453420952</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.08202266820893692</v>
+        <v>0.08202266829780464</v>
       </c>
       <c r="H2" t="n">
-        <v>-1.15592257987629e-12</v>
+        <v>2.079128536003338e-12</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>80.71248350735149</v>
+        <v>80.71248350640076</v>
       </c>
       <c r="K2" t="n">
-        <v>80.71248350735149</v>
+        <v>80.71248350640076</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -8172,10 +8172,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>80.71248350735149</v>
+        <v>80.71248350640076</v>
       </c>
       <c r="O2" t="n">
-        <v>80.71248350735149</v>
+        <v>80.71248350640076</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -8184,295 +8184,295 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>292.3522750145262</v>
+        <v>292.352275014703</v>
       </c>
       <c r="S2" t="n">
-        <v>132772.1796840941</v>
+        <v>132772.1796843743</v>
       </c>
       <c r="T2" t="n">
-        <v>1.582932747000003</v>
+        <v>1.582932747002386</v>
       </c>
       <c r="U2" t="n">
-        <v>334649.8439823551</v>
+        <v>334649.8439824815</v>
       </c>
       <c r="V2" t="n">
-        <v>418527.1785916275</v>
+        <v>418527.1785918047</v>
       </c>
       <c r="W2" t="n">
         <v>3782.917347723461</v>
       </c>
       <c r="X2" t="n">
-        <v>-687417.314207244</v>
+        <v>-687417.3142077356</v>
       </c>
       <c r="Y2" t="n">
-        <v>717.712900751742</v>
+        <v>717.7129007517499</v>
       </c>
       <c r="Z2" t="n">
-        <v>1006.647652845944</v>
+        <v>1006.647652845953</v>
       </c>
       <c r="AA2" t="n">
-        <v>1.402577063602407</v>
+        <v>1.402577063602404</v>
       </c>
       <c r="AB2" t="n">
-        <v>0.9994979633405101</v>
+        <v>0.9994979633405113</v>
       </c>
       <c r="AC2" t="n">
-        <v>342.9081100794685</v>
+        <v>342.9081100795723</v>
       </c>
       <c r="AD2" t="n">
-        <v>186130.6856005743</v>
+        <v>186130.6856009671</v>
       </c>
       <c r="AE2" t="n">
-        <v>5.372569261072525e-06</v>
+        <v>5.372569261061188e-06</v>
       </c>
       <c r="AF2" t="n">
-        <v>132706.2094702393</v>
+        <v>132706.2094705196</v>
       </c>
       <c r="AG2" t="n">
-        <v>7.53544241819566e-06</v>
+        <v>7.535442418179743e-06</v>
       </c>
       <c r="AH2" t="n">
-        <v>0.003433462124707894</v>
+        <v>0.003433462124705821</v>
       </c>
       <c r="AI2" t="n">
-        <v>1.817140103498211e-05</v>
+        <v>1.817140103499076e-05</v>
       </c>
       <c r="AJ2" t="n">
-        <v>0.02582429250873289</v>
+        <v>0.02582429250874622</v>
       </c>
       <c r="AK2" t="n">
-        <v>132772.1796840941</v>
+        <v>132772.1796843743</v>
       </c>
       <c r="AL2" t="n">
-        <v>1.582932747000003</v>
+        <v>1.582932747002386</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.582932747000003</v>
+        <v>1.582932747002386</v>
       </c>
       <c r="AN2" t="n">
-        <v>334649.8439823551</v>
+        <v>334649.8439824815</v>
       </c>
       <c r="AO2" t="n">
-        <v>418527.1785916275</v>
+        <v>418527.1785918047</v>
       </c>
       <c r="AP2" t="n">
         <v>3782.917347723461</v>
       </c>
       <c r="AQ2" t="n">
-        <v>717.712900751742</v>
+        <v>717.7129007517499</v>
       </c>
       <c r="AR2" t="n">
-        <v>1006.647652845944</v>
+        <v>1006.647652845953</v>
       </c>
       <c r="AS2" t="n">
-        <v>342.9081100794685</v>
+        <v>342.9081100795723</v>
       </c>
       <c r="AT2" t="n">
-        <v>0.9994979633405101</v>
+        <v>0.9994979633405113</v>
       </c>
       <c r="AU2" t="n">
-        <v>1.817140103498211e-05</v>
+        <v>1.817140103499076e-05</v>
       </c>
       <c r="AV2" t="n">
-        <v>0.02582429250873289</v>
+        <v>0.02582429250874622</v>
       </c>
       <c r="AW2" t="n">
-        <v>295.6000000001888</v>
+        <v>295.5999999999887</v>
       </c>
       <c r="AX2" t="n">
-        <v>137999.9999953536</v>
+        <v>137999.9999950273</v>
       </c>
       <c r="AY2" t="n">
-        <v>1.627145819756448</v>
+        <v>1.627145819753704</v>
       </c>
       <c r="AZ2" t="n">
-        <v>336973.3475829663</v>
+        <v>336973.3475828231</v>
       </c>
       <c r="BA2" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="BB2" t="n">
         <v>3782.917347723355</v>
       </c>
       <c r="BC2" t="n">
-        <v>-696445.9368990478</v>
+        <v>-696445.9368984912</v>
       </c>
       <c r="BD2" t="n">
-        <v>717.8632360362602</v>
+        <v>717.8632360362508</v>
       </c>
       <c r="BE2" t="n">
-        <v>1006.821582550254</v>
+        <v>1006.821582550244</v>
       </c>
       <c r="BF2" t="n">
-        <v>1.40252562327819</v>
+        <v>1.402525623278194</v>
       </c>
       <c r="BG2" t="n">
-        <v>0.9995210660216027</v>
+        <v>0.9995210660216013</v>
       </c>
       <c r="BH2" t="n">
-        <v>344.8092213941073</v>
+        <v>344.8092213939905</v>
       </c>
       <c r="BI2" t="n">
-        <v>193456.8974372425</v>
+        <v>193456.8974367851</v>
       </c>
       <c r="BJ2" t="n">
-        <v>5.169110087296838e-06</v>
+        <v>5.169110087309059e-06</v>
       </c>
       <c r="BK2" t="n">
-        <v>137934.6617461907</v>
+        <v>137934.6617458643</v>
       </c>
       <c r="BL2" t="n">
-        <v>7.249809346979579e-06</v>
+        <v>7.249809346996735e-06</v>
       </c>
       <c r="BM2" t="n">
-        <v>0.003395798695744087</v>
+        <v>0.003395798695746383</v>
       </c>
       <c r="BN2" t="n">
-        <v>1.832995174012606e-05</v>
+        <v>1.832995174011631e-05</v>
       </c>
       <c r="BO2" t="n">
-        <v>0.02606863419707387</v>
+        <v>0.02606863419705883</v>
       </c>
       <c r="BP2" t="n">
-        <v>137999.9999953536</v>
+        <v>137999.9999950273</v>
       </c>
       <c r="BQ2" t="n">
-        <v>1.627145819756448</v>
+        <v>1.627145819753704</v>
       </c>
       <c r="BR2" t="n">
-        <v>1.627145819756448</v>
+        <v>1.627145819753704</v>
       </c>
       <c r="BS2" t="n">
-        <v>336973.3475829663</v>
+        <v>336973.3475828231</v>
       </c>
       <c r="BT2" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="BU2" t="n">
         <v>3782.917347723355</v>
       </c>
       <c r="BV2" t="n">
-        <v>717.8632360362602</v>
+        <v>717.8632360362508</v>
       </c>
       <c r="BW2" t="n">
-        <v>1006.821582550254</v>
+        <v>1006.821582550244</v>
       </c>
       <c r="BX2" t="n">
-        <v>344.8092213941073</v>
+        <v>344.8092213939905</v>
       </c>
       <c r="BY2" t="n">
-        <v>0.9995210660216027</v>
+        <v>0.9995210660216013</v>
       </c>
       <c r="BZ2" t="n">
-        <v>1.832995174012606e-05</v>
+        <v>1.832995174011631e-05</v>
       </c>
       <c r="CA2" t="n">
-        <v>0.02606863419707387</v>
+        <v>0.02606863419705883</v>
       </c>
       <c r="CB2" t="n">
-        <v>295.6000000001888</v>
+        <v>295.5999999999887</v>
       </c>
       <c r="CC2" t="n">
-        <v>137999.9999953536</v>
+        <v>137999.9999950273</v>
       </c>
       <c r="CD2" t="n">
-        <v>1.627145819756448</v>
+        <v>1.627145819753704</v>
       </c>
       <c r="CE2" t="n">
-        <v>336973.3475829663</v>
+        <v>336973.3475828231</v>
       </c>
       <c r="CF2" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="CG2" t="n">
         <v>3782.917347723355</v>
       </c>
       <c r="CH2" t="n">
-        <v>-696445.9368990478</v>
+        <v>-696445.9368984912</v>
       </c>
       <c r="CI2" t="n">
-        <v>717.8632360362602</v>
+        <v>717.8632360362508</v>
       </c>
       <c r="CJ2" t="n">
-        <v>1006.821582550254</v>
+        <v>1006.821582550244</v>
       </c>
       <c r="CK2" t="n">
-        <v>1.40252562327819</v>
+        <v>1.402525623278194</v>
       </c>
       <c r="CL2" t="n">
-        <v>0.9995210660216027</v>
+        <v>0.9995210660216013</v>
       </c>
       <c r="CM2" t="n">
-        <v>344.8092213941073</v>
+        <v>344.8092213939905</v>
       </c>
       <c r="CN2" t="n">
-        <v>193456.8974372425</v>
+        <v>193456.8974367851</v>
       </c>
       <c r="CO2" t="n">
-        <v>5.169110087296838e-06</v>
+        <v>5.169110087309059e-06</v>
       </c>
       <c r="CP2" t="n">
-        <v>137934.6617461907</v>
+        <v>137934.6617458643</v>
       </c>
       <c r="CQ2" t="n">
-        <v>7.249809346979579e-06</v>
+        <v>7.249809346996735e-06</v>
       </c>
       <c r="CR2" t="n">
-        <v>0.003395798695744087</v>
+        <v>0.003395798695746383</v>
       </c>
       <c r="CS2" t="n">
-        <v>1.832995174012606e-05</v>
+        <v>1.832995174011631e-05</v>
       </c>
       <c r="CT2" t="n">
-        <v>0.02606863419707387</v>
+        <v>0.02606863419705883</v>
       </c>
       <c r="CU2" t="n">
-        <v>137999.9999953536</v>
+        <v>137999.9999950273</v>
       </c>
       <c r="CV2" t="n">
-        <v>1.627145819756448</v>
+        <v>1.627145819753704</v>
       </c>
       <c r="CW2" t="n">
-        <v>1.627145819756448</v>
+        <v>1.627145819753704</v>
       </c>
       <c r="CX2" t="n">
-        <v>336973.3475829663</v>
+        <v>336973.3475828231</v>
       </c>
       <c r="CY2" t="n">
-        <v>421784.4310886902</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="CZ2" t="n">
         <v>3782.917347723355</v>
       </c>
       <c r="DA2" t="n">
-        <v>717.8632360362602</v>
+        <v>717.8632360362508</v>
       </c>
       <c r="DB2" t="n">
-        <v>1006.821582550254</v>
+        <v>1006.821582550244</v>
       </c>
       <c r="DC2" t="n">
-        <v>344.8092213941073</v>
+        <v>344.8092213939905</v>
       </c>
       <c r="DD2" t="n">
-        <v>0.9995210660216027</v>
+        <v>0.9995210660216013</v>
       </c>
       <c r="DE2" t="n">
-        <v>1.832995174012606e-05</v>
+        <v>1.832995174011631e-05</v>
       </c>
       <c r="DF2" t="n">
-        <v>0.02606863419707387</v>
+        <v>0.02606863419705883</v>
       </c>
       <c r="DG2" t="n">
-        <v>0.235376420489578</v>
+        <v>0.2353764204867342</v>
       </c>
       <c r="DH2" t="n">
-        <v>0.235376420489578</v>
+        <v>0.2353764204867342</v>
       </c>
       <c r="DI2" t="n">
-        <v>183929.9703421884</v>
+        <v>183929.9703402111</v>
       </c>
       <c r="DJ2" t="n">
-        <v>2.742859854038042</v>
+        <v>2.742859854009862</v>
       </c>
       <c r="DK2" t="n">
         <v>421784.4310885898</v>
@@ -8481,310 +8481,310 @@
         <v>0</v>
       </c>
       <c r="DM2" t="n">
-        <v>306.8418903518125</v>
+        <v>306.8418871115961</v>
       </c>
       <c r="DN2" t="n">
-        <v>125.3773411060393</v>
+        <v>125.3773397820684</v>
       </c>
       <c r="DO2" t="n">
-        <v>280.057972591129</v>
+        <v>280.0579696337478</v>
       </c>
       <c r="DP2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DQ2" t="n">
-        <v>306.8418903518125</v>
+        <v>306.8418871115961</v>
       </c>
       <c r="DR2" t="n">
-        <v>125.3773411060393</v>
+        <v>125.3773397820684</v>
       </c>
       <c r="DS2" t="n">
-        <v>280.057972591129</v>
+        <v>280.0579696337478</v>
       </c>
       <c r="DT2" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DU2" t="n">
-        <v>248.6139882032937</v>
+        <v>248.6139891962043</v>
       </c>
       <c r="DV2" t="n">
-        <v>72670.28810755302</v>
+        <v>72670.28916517511</v>
       </c>
       <c r="DW2" t="n">
-        <v>1.019019566196392</v>
+        <v>1.019019576954009</v>
       </c>
       <c r="DX2" t="n">
-        <v>303394.5301206075</v>
+        <v>303394.5308298086</v>
       </c>
       <c r="DY2" t="n">
-        <v>374708.4582513531</v>
+        <v>374708.4592455871</v>
       </c>
       <c r="DZ2" t="n">
-        <v>3793.461869500344</v>
+        <v>3793.461869324778</v>
       </c>
       <c r="EA2" t="n">
-        <v>-568399.2262222499</v>
+        <v>-568399.2289509363</v>
       </c>
       <c r="EB2" t="n">
-        <v>716.2663343107921</v>
+        <v>716.2663343326041</v>
       </c>
       <c r="EC2" t="n">
-        <v>1004.832375571528</v>
+        <v>1004.832375600955</v>
       </c>
       <c r="ED2" t="n">
-        <v>1.402875337619212</v>
+        <v>1.402875337617576</v>
       </c>
       <c r="EE2" t="n">
-        <v>0.9992923632761921</v>
+        <v>0.9992923632792826</v>
       </c>
       <c r="EF2" t="n">
-        <v>316.186575220702</v>
+        <v>316.1865758528939</v>
       </c>
       <c r="EG2" t="n">
-        <v>101875.4115163894</v>
+        <v>101875.4129992557</v>
       </c>
       <c r="EH2" t="n">
-        <v>9.815911269611147e-06</v>
+        <v>9.815911126733846e-06</v>
       </c>
       <c r="EI2" t="n">
-        <v>72619.00525621888</v>
+        <v>72619.0063133229</v>
       </c>
       <c r="EJ2" t="n">
-        <v>1.377049983639597e-05</v>
+        <v>1.377049963594086e-05</v>
       </c>
       <c r="EK2" t="n">
-        <v>0.004035765693441726</v>
+        <v>0.004035765677364418</v>
       </c>
       <c r="EL2" t="n">
-        <v>1.596159556472392e-05</v>
+        <v>1.59615956165469e-05</v>
       </c>
       <c r="EM2" t="n">
-        <v>0.02244419791214792</v>
+        <v>0.022444197990849</v>
       </c>
       <c r="EN2" t="n">
-        <v>72670.28810755302</v>
+        <v>72670.28916517511</v>
       </c>
       <c r="EO2" t="n">
-        <v>1.019019566196392</v>
+        <v>1.019019576954009</v>
       </c>
       <c r="EP2" t="n">
-        <v>1.019019566196392</v>
+        <v>1.019019576954009</v>
       </c>
       <c r="EQ2" t="n">
-        <v>303394.5301206075</v>
+        <v>303394.5308298086</v>
       </c>
       <c r="ER2" t="n">
-        <v>374708.4582513531</v>
+        <v>374708.4592455871</v>
       </c>
       <c r="ES2" t="n">
-        <v>3793.461869500344</v>
+        <v>3793.461869324778</v>
       </c>
       <c r="ET2" t="n">
-        <v>716.2663343107921</v>
+        <v>716.2663343326041</v>
       </c>
       <c r="EU2" t="n">
-        <v>1004.832375571528</v>
+        <v>1004.832375600955</v>
       </c>
       <c r="EV2" t="n">
-        <v>316.186575220702</v>
+        <v>316.1865758528939</v>
       </c>
       <c r="EW2" t="n">
-        <v>0.9992923632761921</v>
+        <v>0.9992923632792826</v>
       </c>
       <c r="EX2" t="n">
-        <v>1.596159556472392e-05</v>
+        <v>1.59615956165469e-05</v>
       </c>
       <c r="EY2" t="n">
-        <v>0.02244419791214792</v>
+        <v>0.022444197990849</v>
       </c>
       <c r="EZ2" t="n">
-        <v>295.5884537393082</v>
+        <v>295.5884537394969</v>
       </c>
       <c r="FA2" t="n">
-        <v>133020.3588757718</v>
+        <v>133020.358957167</v>
       </c>
       <c r="FB2" t="n">
-        <v>1.56846598054529</v>
+        <v>1.568465981504468</v>
       </c>
       <c r="FC2" t="n">
-        <v>336975.2222657319</v>
+        <v>336975.222265701</v>
       </c>
       <c r="FD2" t="n">
-        <v>421784.4310886904</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="FE2" t="n">
-        <v>3793.461869507776</v>
+        <v>3793.461869332211</v>
       </c>
       <c r="FF2" t="n">
-        <v>-699519.0972381384</v>
+        <v>-699519.0971869595</v>
       </c>
       <c r="FG2" t="n">
-        <v>717.85026567175</v>
+        <v>717.8502656719621</v>
       </c>
       <c r="FH2" t="n">
-        <v>1006.739822662877</v>
+        <v>1006.739822664214</v>
       </c>
       <c r="FI2" t="n">
-        <v>1.402437069129995</v>
+        <v>1.402437069131443</v>
       </c>
       <c r="FJ2" t="n">
-        <v>0.9995380147661679</v>
+        <v>0.9995380147658907</v>
       </c>
       <c r="FK2" t="n">
-        <v>344.7973817655603</v>
+        <v>344.7973817657538</v>
       </c>
       <c r="FL2" t="n">
-        <v>186467.4458590869</v>
+        <v>186467.4459733282</v>
       </c>
       <c r="FM2" t="n">
-        <v>5.362866399509211e-06</v>
+        <v>5.362866396223592e-06</v>
       </c>
       <c r="FN2" t="n">
-        <v>132959.5815481135</v>
+        <v>132959.5816294354</v>
       </c>
       <c r="FO2" t="n">
-        <v>7.521082635463427e-06</v>
+        <v>7.521082630863318e-06</v>
       </c>
       <c r="FP2" t="n">
-        <v>0.003395470178523255</v>
+        <v>0.003395470178528628</v>
       </c>
       <c r="FQ2" t="n">
-        <v>1.832867335239061e-05</v>
+        <v>1.832867335241149e-05</v>
       </c>
       <c r="FR2" t="n">
-        <v>0.02606617654992096</v>
+        <v>0.02606617654996111</v>
       </c>
       <c r="FS2" t="n">
-        <v>133020.3588757718</v>
+        <v>133020.358957167</v>
       </c>
       <c r="FT2" t="n">
-        <v>1.56846598054529</v>
+        <v>1.568465981504468</v>
       </c>
       <c r="FU2" t="n">
-        <v>1.56846598054529</v>
+        <v>1.568465981504468</v>
       </c>
       <c r="FV2" t="n">
-        <v>336975.2222657319</v>
+        <v>336975.222265701</v>
       </c>
       <c r="FW2" t="n">
-        <v>421784.4310886904</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="FX2" t="n">
-        <v>3793.461869507776</v>
+        <v>3793.461869332211</v>
       </c>
       <c r="FY2" t="n">
-        <v>717.85026567175</v>
+        <v>717.8502656719621</v>
       </c>
       <c r="FZ2" t="n">
-        <v>1006.739822662877</v>
+        <v>1006.739822664214</v>
       </c>
       <c r="GA2" t="n">
-        <v>344.7973817655603</v>
+        <v>344.7973817657538</v>
       </c>
       <c r="GB2" t="n">
-        <v>0.9995380147661679</v>
+        <v>0.9995380147658907</v>
       </c>
       <c r="GC2" t="n">
-        <v>1.832867335239061e-05</v>
+        <v>1.832867335241149e-05</v>
       </c>
       <c r="GD2" t="n">
-        <v>0.02606617654992096</v>
+        <v>0.02606617654996111</v>
       </c>
       <c r="GE2" t="n">
-        <v>295.5884537393082</v>
+        <v>295.5884537394969</v>
       </c>
       <c r="GF2" t="n">
-        <v>133020.3588757718</v>
+        <v>133020.358957167</v>
       </c>
       <c r="GG2" t="n">
-        <v>1.56846598054529</v>
+        <v>1.568465981504468</v>
       </c>
       <c r="GH2" t="n">
-        <v>336975.2222657319</v>
+        <v>336975.222265701</v>
       </c>
       <c r="GI2" t="n">
-        <v>421784.4310886904</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="GJ2" t="n">
-        <v>3793.461869507776</v>
+        <v>3793.461869332211</v>
       </c>
       <c r="GK2" t="n">
-        <v>-699519.0972381384</v>
+        <v>-699519.0971869595</v>
       </c>
       <c r="GL2" t="n">
-        <v>717.85026567175</v>
+        <v>717.8502656719621</v>
       </c>
       <c r="GM2" t="n">
-        <v>1006.739822662877</v>
+        <v>1006.739822664214</v>
       </c>
       <c r="GN2" t="n">
-        <v>1.402437069129995</v>
+        <v>1.402437069131443</v>
       </c>
       <c r="GO2" t="n">
-        <v>0.9995380147661679</v>
+        <v>0.9995380147658907</v>
       </c>
       <c r="GP2" t="n">
-        <v>344.7973817655603</v>
+        <v>344.7973817657538</v>
       </c>
       <c r="GQ2" t="n">
-        <v>186467.4458590869</v>
+        <v>186467.4459733282</v>
       </c>
       <c r="GR2" t="n">
-        <v>5.362866399509211e-06</v>
+        <v>5.362866396223592e-06</v>
       </c>
       <c r="GS2" t="n">
-        <v>132959.5815481135</v>
+        <v>132959.5816294354</v>
       </c>
       <c r="GT2" t="n">
-        <v>7.521082635463427e-06</v>
+        <v>7.521082630863318e-06</v>
       </c>
       <c r="GU2" t="n">
-        <v>0.003395470178523255</v>
+        <v>0.003395470178528628</v>
       </c>
       <c r="GV2" t="n">
-        <v>1.832867335239061e-05</v>
+        <v>1.832867335241149e-05</v>
       </c>
       <c r="GW2" t="n">
-        <v>0.02606617654992096</v>
+        <v>0.02606617654996111</v>
       </c>
       <c r="GX2" t="n">
-        <v>133020.3588757718</v>
+        <v>133020.358957167</v>
       </c>
       <c r="GY2" t="n">
-        <v>1.56846598054529</v>
+        <v>1.568465981504468</v>
       </c>
       <c r="GZ2" t="n">
-        <v>1.56846598054529</v>
+        <v>1.568465981504468</v>
       </c>
       <c r="HA2" t="n">
-        <v>336975.2222657319</v>
+        <v>336975.222265701</v>
       </c>
       <c r="HB2" t="n">
-        <v>421784.4310886904</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="HC2" t="n">
-        <v>3793.461869507776</v>
+        <v>3793.461869332211</v>
       </c>
       <c r="HD2" t="n">
-        <v>717.85026567175</v>
+        <v>717.8502656719621</v>
       </c>
       <c r="HE2" t="n">
-        <v>1006.739822662877</v>
+        <v>1006.739822664214</v>
       </c>
       <c r="HF2" t="n">
-        <v>344.7973817655603</v>
+        <v>344.7973817657538</v>
       </c>
       <c r="HG2" t="n">
-        <v>0.9995380147661679</v>
+        <v>0.9995380147658907</v>
       </c>
       <c r="HH2" t="n">
-        <v>1.832867335239061e-05</v>
+        <v>1.832867335241149e-05</v>
       </c>
       <c r="HI2" t="n">
-        <v>0.02606617654992096</v>
+        <v>0.02606617654996111</v>
       </c>
       <c r="HJ2" t="n">
-        <v>0.0179540785669447</v>
+        <v>0.01795407855694387</v>
       </c>
       <c r="HK2" t="n">
         <v>0</v>
@@ -8793,763 +8793,763 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="HM2" t="n">
-        <v>0.04927004795668301</v>
+        <v>0.04927004794815577</v>
       </c>
       <c r="HN2" t="n">
         <v>0</v>
       </c>
       <c r="HO2" t="n">
-        <v>0.08250419506287085</v>
+        <v>0.08250419504434277</v>
       </c>
       <c r="HP2" t="n">
-        <v>8.402788201480882e-06</v>
+        <v>8.4027873343967e-06</v>
       </c>
       <c r="HQ2" t="n">
-        <v>0.9704456621462604</v>
+        <v>0.9704456499581264</v>
       </c>
       <c r="HR2" t="n">
-        <v>0.9704456621462604</v>
+        <v>0.9704456499581264</v>
       </c>
       <c r="HS2" t="n">
-        <v>512458.3923429235</v>
+        <v>512458.390677542</v>
       </c>
       <c r="HT2" t="n">
-        <v>2.742849774805044</v>
+        <v>2.742849774796653</v>
       </c>
       <c r="HU2" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="HV2" t="n">
         <v>0</v>
       </c>
       <c r="HW2" t="n">
-        <v>2098.673923110589</v>
+        <v>2098.673962309083</v>
       </c>
       <c r="HX2" t="n">
         <v>0</v>
       </c>
       <c r="HY2" t="n">
-        <v>0.006905170533459825</v>
+        <v>0.006905170688635376</v>
       </c>
       <c r="HZ2" t="n">
         <v>0</v>
       </c>
       <c r="IA2" t="n">
-        <v>0.01927731923010588</v>
+        <v>0.01927731959095479</v>
       </c>
       <c r="IB2" t="n">
         <v>0</v>
       </c>
       <c r="IC2" t="n">
-        <v>0.005994226177812159</v>
+        <v>0.005994226287969628</v>
       </c>
       <c r="ID2" t="n">
-        <v>0.02695523138935275</v>
+        <v>0.02695523202557725</v>
       </c>
       <c r="IE2" t="n">
-        <v>0.0006584125366910353</v>
+        <v>0.0006584127040981048</v>
       </c>
       <c r="IF2" t="n">
-        <v>0.01388415223971151</v>
+        <v>0.01388415222180672</v>
       </c>
       <c r="IG2" t="n">
-        <v>0.08117664797816022</v>
+        <v>0.081176649690545</v>
       </c>
       <c r="IH2" t="n">
-        <v>0.04120011734419655</v>
+        <v>0.04120011771314341</v>
       </c>
       <c r="II2" t="n">
-        <v>0.1638745614881121</v>
+        <v>0.1638745643551705</v>
       </c>
       <c r="IJ2" t="n">
-        <v>-8.887557356729303e-12</v>
+        <v>4.725980717878997e-11</v>
       </c>
       <c r="IK2" t="n">
         <v>165.3032</v>
       </c>
       <c r="IL2" t="n">
-        <v>263.5638533686962</v>
+        <v>263.5638540823999</v>
       </c>
       <c r="IM2" t="n">
-        <v>108.7959836108463</v>
+        <v>108.7959836129003</v>
       </c>
       <c r="IN2" t="n">
-        <v>240.0611146202235</v>
+        <v>240.0611154028701</v>
       </c>
       <c r="IO2" t="n">
-        <v>65.61990958888822</v>
+        <v>65.61990965871263</v>
       </c>
       <c r="IP2" t="n">
-        <v>132.0049690285035</v>
+        <v>132.0049694734298</v>
       </c>
       <c r="IQ2" t="n">
-        <v>108.7959836108463</v>
+        <v>108.7959836129003</v>
       </c>
       <c r="IR2" t="n">
-        <v>74.75791462022349</v>
+        <v>74.75791540287008</v>
       </c>
       <c r="IS2" t="n">
-        <v>34.49445795997168</v>
+        <v>34.49445823944268</v>
       </c>
       <c r="IT2" t="n">
-        <v>260.9393091116961</v>
+        <v>260.9393089234662</v>
       </c>
       <c r="IU2" t="n">
-        <v>86794.20871704502</v>
+        <v>86794.20844517004</v>
       </c>
       <c r="IV2" t="n">
-        <v>1.159534376831608</v>
+        <v>1.159534374036409</v>
       </c>
       <c r="IW2" t="n">
-        <v>312198.8391700756</v>
+        <v>312198.8390357023</v>
       </c>
       <c r="IX2" t="n">
-        <v>387051.4786875062</v>
+        <v>387051.4784991054</v>
       </c>
       <c r="IY2" t="n">
-        <v>3790.970718496571</v>
+        <v>3790.970718673118</v>
       </c>
       <c r="IZ2" t="n">
-        <v>-602161.8014596591</v>
+        <v>-602161.8009805542</v>
       </c>
       <c r="JA2" t="n">
-        <v>716.5720083856318</v>
+        <v>716.5720083802661</v>
       </c>
       <c r="JB2" t="n">
-        <v>1005.235563505058</v>
+        <v>1005.235563497405</v>
       </c>
       <c r="JC2" t="n">
-        <v>1.402839563562855</v>
+        <v>1.40283956356268</v>
       </c>
       <c r="JD2" t="n">
-        <v>0.9993356513665416</v>
+        <v>0.9993356513661104</v>
       </c>
       <c r="JE2" t="n">
-        <v>323.9394399731265</v>
+        <v>323.9394398561265</v>
       </c>
       <c r="JF2" t="n">
-        <v>121677.7815062888</v>
+        <v>121677.7811250747</v>
       </c>
       <c r="JG2" t="n">
-        <v>8.218427289030713e-06</v>
+        <v>8.21842731477888e-06</v>
       </c>
       <c r="JH2" t="n">
-        <v>86736.77636896564</v>
+        <v>86736.77609723191</v>
       </c>
       <c r="JI2" t="n">
-        <v>1.152913495131691e-05</v>
+        <v>1.152913498743601e-05</v>
       </c>
       <c r="JJ2" t="n">
-        <v>0.003845620282285548</v>
+        <v>0.003845620285046057</v>
       </c>
       <c r="JK2" t="n">
-        <v>1.659884706791851e-05</v>
+        <v>1.659884705827104e-05</v>
       </c>
       <c r="JL2" t="n">
-        <v>0.02341396450693405</v>
+        <v>0.02341396449221693</v>
       </c>
       <c r="JM2" t="n">
-        <v>86794.20871704502</v>
+        <v>86794.20844517004</v>
       </c>
       <c r="JN2" t="n">
-        <v>1.159534376831608</v>
+        <v>1.159534374036409</v>
       </c>
       <c r="JO2" t="n">
-        <v>1.159534376831608</v>
+        <v>1.159534374036409</v>
       </c>
       <c r="JP2" t="n">
-        <v>312198.8391700756</v>
+        <v>312198.8390357023</v>
       </c>
       <c r="JQ2" t="n">
-        <v>387051.4786875062</v>
+        <v>387051.4784991054</v>
       </c>
       <c r="JR2" t="n">
-        <v>3790.970718496571</v>
+        <v>3790.970718673118</v>
       </c>
       <c r="JS2" t="n">
-        <v>716.5720083856318</v>
+        <v>716.5720083802661</v>
       </c>
       <c r="JT2" t="n">
-        <v>1005.235563505058</v>
+        <v>1005.235563497405</v>
       </c>
       <c r="JU2" t="n">
-        <v>323.9394399731265</v>
+        <v>323.9394398561265</v>
       </c>
       <c r="JV2" t="n">
-        <v>0.9993356513665416</v>
+        <v>0.9993356513661104</v>
       </c>
       <c r="JW2" t="n">
-        <v>1.659884706791851e-05</v>
+        <v>1.659884705827104e-05</v>
       </c>
       <c r="JX2" t="n">
-        <v>0.02341396450693405</v>
+        <v>0.02341396449221693</v>
       </c>
       <c r="JY2" t="n">
-        <v>295.5911436441061</v>
+        <v>295.5911436439146</v>
       </c>
       <c r="JZ2" t="n">
-        <v>134180.338144565</v>
+        <v>134180.3380620004</v>
       </c>
       <c r="KA2" t="n">
-        <v>1.582135351257033</v>
+        <v>1.582135350284084</v>
       </c>
       <c r="KB2" t="n">
-        <v>336974.7856698481</v>
+        <v>336974.7856698793</v>
       </c>
       <c r="KC2" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="KD2" t="n">
-        <v>3790.970718501796</v>
+        <v>3790.970718678343</v>
       </c>
       <c r="KE2" t="n">
-        <v>-698792.9391146749</v>
+        <v>-698792.9391661346</v>
       </c>
       <c r="KF2" t="n">
-        <v>717.853287283835</v>
+        <v>717.85328728362</v>
       </c>
       <c r="KG2" t="n">
-        <v>1006.758869099097</v>
+        <v>1006.758869097741</v>
       </c>
       <c r="KH2" t="n">
-        <v>1.402457698436408</v>
+        <v>1.402457698434939</v>
       </c>
       <c r="KI2" t="n">
-        <v>0.9995340644353952</v>
+        <v>0.9995340644356763</v>
       </c>
       <c r="KJ2" t="n">
-        <v>344.8001391117905</v>
+        <v>344.8001391115942</v>
       </c>
       <c r="KK2" t="n">
-        <v>188095.5405669423</v>
+        <v>188095.5404510571</v>
       </c>
       <c r="KL2" t="n">
-        <v>5.316447146943948e-06</v>
+        <v>5.316447150219397e-06</v>
       </c>
       <c r="KM2" t="n">
-        <v>134118.5126486517</v>
+        <v>134118.5125661621</v>
       </c>
       <c r="KN2" t="n">
-        <v>7.456092229561815e-06</v>
+        <v>7.456092234147687e-06</v>
       </c>
       <c r="KO2" t="n">
-        <v>0.003395546720602114</v>
+        <v>0.003395546720596666</v>
       </c>
       <c r="KP2" t="n">
-        <v>1.832897112378977e-05</v>
+        <v>1.832897112376857e-05</v>
       </c>
       <c r="KQ2" t="n">
-        <v>0.02606674897545176</v>
+        <v>0.02606674897541101</v>
       </c>
       <c r="KR2" t="n">
-        <v>134180.338144565</v>
+        <v>134180.3380620004</v>
       </c>
       <c r="KS2" t="n">
-        <v>1.582135351257033</v>
+        <v>1.582135350284084</v>
       </c>
       <c r="KT2" t="n">
-        <v>1.582135351257033</v>
+        <v>1.582135350284084</v>
       </c>
       <c r="KU2" t="n">
-        <v>336974.7856698481</v>
+        <v>336974.7856698793</v>
       </c>
       <c r="KV2" t="n">
-        <v>421784.4310885897</v>
+        <v>421784.4310885898</v>
       </c>
       <c r="KW2" t="n">
-        <v>3790.970718501796</v>
+        <v>3790.970718678343</v>
       </c>
       <c r="KX2" t="n">
-        <v>717.853287283835</v>
+        <v>717.85328728362</v>
       </c>
       <c r="KY2" t="n">
-        <v>1006.758869099097</v>
+        <v>1006.758869097741</v>
       </c>
       <c r="KZ2" t="n">
-        <v>344.8001391117905</v>
+        <v>344.8001391115942</v>
       </c>
       <c r="LA2" t="n">
-        <v>0.9995340644353952</v>
+        <v>0.9995340644356763</v>
       </c>
       <c r="LB2" t="n">
-        <v>1.832897112378977e-05</v>
+        <v>1.832897112376857e-05</v>
       </c>
       <c r="LC2" t="n">
-        <v>0.02606674897545176</v>
+        <v>0.02606674897541101</v>
       </c>
       <c r="LD2" t="n">
-        <v>269.6356177969462</v>
+        <v>269.6356176675642</v>
       </c>
       <c r="LE2" t="n">
-        <v>97323.20174425159</v>
+        <v>97323.20152145048</v>
       </c>
       <c r="LF2" t="n">
-        <v>1.258211130843959</v>
+        <v>1.258211128567637</v>
       </c>
       <c r="LG2" t="n">
-        <v>318413.6809727541</v>
+        <v>318413.6808804171</v>
       </c>
       <c r="LH2" t="n">
-        <v>395764.1346116207</v>
+        <v>395764.1344821464</v>
       </c>
       <c r="LI2" t="n">
-        <v>3790.970718496572</v>
+        <v>3790.970718673119</v>
       </c>
       <c r="LJ2" t="n">
-        <v>-626416.5971203357</v>
+        <v>-626416.5968069297</v>
       </c>
       <c r="LK2" t="n">
-        <v>716.8304959761124</v>
+        <v>716.8304959717835</v>
       </c>
       <c r="LL2" t="n">
-        <v>1005.554151035824</v>
+        <v>1005.554151029569</v>
       </c>
       <c r="LM2" t="n">
-        <v>1.402778141667306</v>
+        <v>1.402778141667051</v>
       </c>
       <c r="LN2" t="n">
-        <v>0.9993770564608065</v>
+        <v>0.9993770564605295</v>
       </c>
       <c r="LO2" t="n">
-        <v>329.2996777684202</v>
+        <v>329.2996776892913</v>
       </c>
       <c r="LP2" t="n">
-        <v>136438.2481103136</v>
+        <v>136438.2477979025</v>
       </c>
       <c r="LQ2" t="n">
-        <v>7.329323073625777e-06</v>
+        <v>7.329323090408182e-06</v>
       </c>
       <c r="LR2" t="n">
-        <v>97262.88431337163</v>
+        <v>97262.88409068047</v>
       </c>
       <c r="LS2" t="n">
-        <v>1.028141420090007e-05</v>
+        <v>1.028141422444019e-05</v>
       </c>
       <c r="LT2" t="n">
-        <v>0.003721823233474611</v>
+        <v>0.00372182323524913</v>
       </c>
       <c r="LU2" t="n">
-        <v>1.704129316324846e-05</v>
+        <v>1.70412931566993e-05</v>
       </c>
       <c r="LV2" t="n">
-        <v>0.02408955281638454</v>
+        <v>0.02408955280636283</v>
       </c>
       <c r="LW2" t="n">
-        <v>97323.20174425159</v>
+        <v>97323.20152145048</v>
       </c>
       <c r="LX2" t="n">
-        <v>1.258211130843959</v>
+        <v>1.258211128567637</v>
       </c>
       <c r="LY2" t="n">
-        <v>1.258211130843959</v>
+        <v>1.258211128567637</v>
       </c>
       <c r="LZ2" t="n">
-        <v>318413.6809727541</v>
+        <v>318413.6808804171</v>
       </c>
       <c r="MA2" t="n">
-        <v>395764.1346116207</v>
+        <v>395764.1344821464</v>
       </c>
       <c r="MB2" t="n">
-        <v>3790.970718496572</v>
+        <v>3790.970718673119</v>
       </c>
       <c r="MC2" t="n">
-        <v>716.8304959761124</v>
+        <v>716.8304959717835</v>
       </c>
       <c r="MD2" t="n">
-        <v>1005.554151035824</v>
+        <v>1005.554151029569</v>
       </c>
       <c r="ME2" t="n">
-        <v>329.2996777684202</v>
+        <v>329.2996776892913</v>
       </c>
       <c r="MF2" t="n">
-        <v>0.9993770564608065</v>
+        <v>0.9993770564605295</v>
       </c>
       <c r="MG2" t="n">
-        <v>1.704129316324846e-05</v>
+        <v>1.70412931566993e-05</v>
       </c>
       <c r="MH2" t="n">
-        <v>0.02408955281638454</v>
+        <v>0.02408955280636283</v>
       </c>
       <c r="MI2" t="n">
-        <v>0.8136207600734293</v>
+        <v>0.8136207625704925</v>
       </c>
       <c r="MJ2" t="n">
-        <v>0.4074989110293405</v>
+        <v>0.4074989125500066</v>
       </c>
       <c r="MK2" t="n">
-        <v>240309.1991075227</v>
+        <v>240309.1994778675</v>
       </c>
       <c r="ML2" t="n">
-        <v>2.708301032441737</v>
+        <v>2.708301025964176</v>
       </c>
       <c r="MM2" t="n">
-        <v>382101.5606464004</v>
+        <v>382101.5605169261</v>
       </c>
       <c r="MN2" t="n">
         <v>165.3032</v>
       </c>
       <c r="MO2" t="n">
-        <v>162.2280522019444</v>
+        <v>162.2280707589436</v>
       </c>
       <c r="MP2" t="n">
-        <v>138.0081319894695</v>
+        <v>138.0081422697755</v>
       </c>
       <c r="MQ2" t="n">
-        <v>-85.27424245347447</v>
+        <v>-85.27426111913383</v>
       </c>
       <c r="MR2" t="n">
-        <v>-31.71162382241664</v>
+        <v>-31.71162752204395</v>
       </c>
       <c r="MS2" t="n">
-        <v>286.068696577845</v>
+        <v>286.0687178872685</v>
       </c>
       <c r="MT2" t="n">
-        <v>138.0081319894695</v>
+        <v>138.0081422697755</v>
       </c>
       <c r="MU2" t="n">
-        <v>-250.5774424534745</v>
+        <v>-250.5774611191338</v>
       </c>
       <c r="MV2" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="MW2" t="n">
-        <v>228.7656520453282</v>
+        <v>228.7656458259134</v>
       </c>
       <c r="MX2" t="n">
-        <v>51133.07091014797</v>
+        <v>51133.06558879898</v>
       </c>
       <c r="MY2" t="n">
-        <v>0.7792331482007666</v>
+        <v>0.7792330882969026</v>
       </c>
       <c r="MZ2" t="n">
-        <v>289226.7523124803</v>
+        <v>289226.7478714591</v>
       </c>
       <c r="NA2" t="n">
-        <v>354846.4850307473</v>
+        <v>354846.4788053133</v>
       </c>
       <c r="NB2" t="n">
-        <v>3811.027277089095</v>
+        <v>3811.027279727264</v>
       </c>
       <c r="NC2" t="n">
-        <v>-516985.6549750713</v>
+        <v>-516985.638101668</v>
       </c>
       <c r="ND2" t="n">
-        <v>715.8964416554903</v>
+        <v>715.896441565304</v>
       </c>
       <c r="NE2" t="n">
-        <v>1004.248234619323</v>
+        <v>1004.24823447875</v>
       </c>
       <c r="NF2" t="n">
-        <v>1.402784224345392</v>
+        <v>1.40278422432575</v>
       </c>
       <c r="NG2" t="n">
-        <v>0.9992804916587072</v>
+        <v>0.9992804916523165</v>
       </c>
       <c r="NH2" t="n">
-        <v>303.2889471616363</v>
+        <v>303.2889430348068</v>
       </c>
       <c r="NI2" t="n">
-        <v>71677.12642879378</v>
+        <v>71677.11896797545</v>
       </c>
       <c r="NJ2" t="n">
-        <v>1.395145215529016e-05</v>
+        <v>1.39514536074865e-05</v>
       </c>
       <c r="NK2" t="n">
-        <v>51096.33055806701</v>
+        <v>51096.32524020375</v>
       </c>
       <c r="NL2" t="n">
-        <v>1.957087699015055e-05</v>
+        <v>1.957087902699463e-05</v>
       </c>
       <c r="NM2" t="n">
-        <v>0.004384345516355997</v>
+        <v>0.004384345635197941</v>
       </c>
       <c r="NN2" t="n">
-        <v>1.490881769772128e-05</v>
+        <v>1.490881736267496e-05</v>
       </c>
       <c r="NO2" t="n">
-        <v>0.02085036573752099</v>
+        <v>0.0208503652321175</v>
       </c>
       <c r="NP2" t="n">
-        <v>51133.07091014797</v>
+        <v>51133.06558879898</v>
       </c>
       <c r="NQ2" t="n">
-        <v>0.7792331482007666</v>
+        <v>0.7792330882969026</v>
       </c>
       <c r="NR2" t="n">
-        <v>0.7792331482007666</v>
+        <v>0.7792330882969026</v>
       </c>
       <c r="NS2" t="n">
-        <v>289226.7523124803</v>
+        <v>289226.7478714591</v>
       </c>
       <c r="NT2" t="n">
-        <v>354846.4850307473</v>
+        <v>354846.4788053133</v>
       </c>
       <c r="NU2" t="n">
-        <v>3811.027277089095</v>
+        <v>3811.027279727264</v>
       </c>
       <c r="NV2" t="n">
-        <v>715.8964416554903</v>
+        <v>715.896441565304</v>
       </c>
       <c r="NW2" t="n">
-        <v>1004.248234619323</v>
+        <v>1004.24823447875</v>
       </c>
       <c r="NX2" t="n">
-        <v>303.2889471616363</v>
+        <v>303.2889430348068</v>
       </c>
       <c r="NY2" t="n">
-        <v>0.9992804916587072</v>
+        <v>0.9992804916523165</v>
       </c>
       <c r="NZ2" t="n">
-        <v>1.490881769772128e-05</v>
+        <v>1.490881736267496e-05</v>
       </c>
       <c r="OA2" t="n">
-        <v>0.02085036573752099</v>
+        <v>0.0208503652321175</v>
       </c>
       <c r="OB2" t="n">
-        <v>241.9069500054173</v>
+        <v>241.9069467931207</v>
       </c>
       <c r="OC2" t="n">
-        <v>62141.48313843267</v>
+        <v>62141.47968785097</v>
       </c>
       <c r="OD2" t="n">
-        <v>0.8955202167913967</v>
+        <v>0.895520178959495</v>
       </c>
       <c r="OE2" t="n">
-        <v>298613.9644080236</v>
+        <v>298613.9621147205</v>
       </c>
       <c r="OF2" t="n">
-        <v>368005.4554913656</v>
+        <v>368005.4522763975</v>
       </c>
       <c r="OG2" t="n">
-        <v>3811.027277081655</v>
+        <v>3811.027279719825</v>
       </c>
       <c r="OH2" t="n">
-        <v>-553908.5294949083</v>
+        <v>-553908.5211059175</v>
       </c>
       <c r="OI2" t="n">
-        <v>716.1127518175184</v>
+        <v>716.1127517541739</v>
       </c>
       <c r="OJ2" t="n">
-        <v>1004.546470272839</v>
+        <v>1004.546470176577</v>
       </c>
       <c r="OK2" t="n">
-        <v>1.402776961760932</v>
+        <v>1.402776961750593</v>
       </c>
       <c r="OL2" t="n">
-        <v>0.9993132453406763</v>
+        <v>0.9993132453376327</v>
       </c>
       <c r="OM2" t="n">
-        <v>311.8879232549845</v>
+        <v>311.8879211820724</v>
       </c>
       <c r="ON2" t="n">
-        <v>87110.90222976741</v>
+        <v>87110.89739176742</v>
       </c>
       <c r="OO2" t="n">
-        <v>1.147961936339906e-05</v>
+        <v>1.147962000095877e-05</v>
       </c>
       <c r="OP2" t="n">
-        <v>62098.89711933638</v>
+        <v>62098.89367092078</v>
       </c>
       <c r="OQ2" t="n">
-        <v>1.61033455727609e-05</v>
+        <v>1.610334646699628e-05</v>
       </c>
       <c r="OR2" t="n">
-        <v>0.004146623410877735</v>
+        <v>0.004146623465717319</v>
       </c>
       <c r="OS2" t="n">
-        <v>1.560911249947755e-05</v>
+        <v>1.56091123300001e-05</v>
       </c>
       <c r="OT2" t="n">
-        <v>0.02190894420510022</v>
+        <v>0.02190894394824925</v>
       </c>
       <c r="OU2" t="n">
-        <v>62141.48313843267</v>
+        <v>62141.47968785097</v>
       </c>
       <c r="OV2" t="n">
-        <v>0.8955202167913967</v>
+        <v>0.895520178959495</v>
       </c>
       <c r="OW2" t="n">
-        <v>0.8955202167913967</v>
+        <v>0.895520178959495</v>
       </c>
       <c r="OX2" t="n">
-        <v>298613.9644080236</v>
+        <v>298613.9621147205</v>
       </c>
       <c r="OY2" t="n">
-        <v>368005.4554913656</v>
+        <v>368005.4522763975</v>
       </c>
       <c r="OZ2" t="n">
-        <v>3811.027277081655</v>
+        <v>3811.027279719825</v>
       </c>
       <c r="PA2" t="n">
-        <v>716.1127518175184</v>
+        <v>716.1127517541739</v>
       </c>
       <c r="PB2" t="n">
-        <v>1004.546470272839</v>
+        <v>1004.546470176577</v>
       </c>
       <c r="PC2" t="n">
-        <v>311.8879232549845</v>
+        <v>311.8879211820724</v>
       </c>
       <c r="PD2" t="n">
-        <v>0.9993132453406763</v>
+        <v>0.9993132453376327</v>
       </c>
       <c r="PE2" t="n">
-        <v>1.560911249947755e-05</v>
+        <v>1.56091123300001e-05</v>
       </c>
       <c r="PF2" t="n">
-        <v>0.02190894420510022</v>
+        <v>0.02190894394824925</v>
       </c>
       <c r="PG2" t="n">
-        <v>269.6172469927554</v>
+        <v>269.617246861227</v>
       </c>
       <c r="PH2" t="n">
-        <v>90751.39248861191</v>
+        <v>90751.39150439923</v>
       </c>
       <c r="PI2" t="n">
-        <v>1.173280703500342</v>
+        <v>1.173280691342822</v>
       </c>
       <c r="PJ2" t="n">
-        <v>318415.7283710057</v>
+        <v>318415.7282789032</v>
       </c>
       <c r="PK2" t="n">
-        <v>395764.1346116147</v>
+        <v>395764.1344821401</v>
       </c>
       <c r="PL2" t="n">
-        <v>3811.027277078427</v>
+        <v>3811.027279709494</v>
       </c>
       <c r="PM2" t="n">
-        <v>-631754.548048568</v>
+        <v>-631754.5483861649</v>
       </c>
       <c r="PN2" t="n">
-        <v>716.8090419928369</v>
+        <v>716.8090419859953</v>
       </c>
       <c r="PO2" t="n">
-        <v>1005.419714724273</v>
+        <v>1005.419714702286</v>
       </c>
       <c r="PP2" t="n">
-        <v>1.402632578307125</v>
+        <v>1.402632578289839</v>
       </c>
       <c r="PQ2" t="n">
-        <v>0.9994186961904999</v>
+        <v>0.9994186961951663</v>
       </c>
       <c r="PR2" t="n">
-        <v>329.2850256056917</v>
+        <v>329.2850255248722</v>
       </c>
       <c r="PS2" t="n">
-        <v>127217.217042831</v>
+        <v>127217.2156621596</v>
       </c>
       <c r="PT2" t="n">
-        <v>7.860571259496454e-06</v>
+        <v>7.860571344806181e-06</v>
       </c>
       <c r="PU2" t="n">
-        <v>90698.88936728735</v>
+        <v>90698.88838406232</v>
       </c>
       <c r="PV2" t="n">
-        <v>1.10254933326744e-05</v>
+        <v>1.102549345219672e-05</v>
       </c>
       <c r="PW2" t="n">
-        <v>0.003721194223567179</v>
+        <v>0.003721194225267595</v>
       </c>
       <c r="PX2" t="n">
-        <v>1.703937091045614e-05</v>
+        <v>1.703937090368299e-05</v>
       </c>
       <c r="PY2" t="n">
-        <v>0.02408581986917193</v>
+        <v>0.02408581985871508</v>
       </c>
       <c r="PZ2" t="n">
-        <v>90751.39248861191</v>
+        <v>90751.39150439923</v>
       </c>
       <c r="QA2" t="n">
-        <v>1.173280703500342</v>
+        <v>1.173280691342822</v>
       </c>
       <c r="QB2" t="n">
-        <v>1.173280703500342</v>
+        <v>1.173280691342822</v>
       </c>
       <c r="QC2" t="n">
-        <v>318415.7283710057</v>
+        <v>318415.7282789032</v>
       </c>
       <c r="QD2" t="n">
-        <v>395764.1346116147</v>
+        <v>395764.1344821401</v>
       </c>
       <c r="QE2" t="n">
-        <v>3811.027277078427</v>
+        <v>3811.027279709494</v>
       </c>
       <c r="QF2" t="n">
-        <v>716.8090419928369</v>
+        <v>716.8090419859953</v>
       </c>
       <c r="QG2" t="n">
-        <v>1005.419714724273</v>
+        <v>1005.419714702286</v>
       </c>
       <c r="QH2" t="n">
-        <v>329.2850256056917</v>
+        <v>329.2850255248722</v>
       </c>
       <c r="QI2" t="n">
-        <v>0.9994186961904999</v>
+        <v>0.9994186961951663</v>
       </c>
       <c r="QJ2" t="n">
-        <v>1.703937091045614e-05</v>
+        <v>1.703937090368299e-05</v>
       </c>
       <c r="QK2" t="n">
-        <v>0.02408581986917193</v>
+        <v>0.02408581985871508</v>
       </c>
       <c r="QL2" t="n">
-        <v>0.02714087601327371</v>
+        <v>0.02714087598032661</v>
       </c>
       <c r="QM2" t="n">
-        <v>0.0008514082042428211</v>
+        <v>0.0008514083151524589</v>
       </c>
       <c r="QN2" t="n">
         <v>0.01389884222857662</v>
       </c>
       <c r="QO2" t="n">
-        <v>0.08223654294249219</v>
+        <v>0.08223654376374555</v>
       </c>
       <c r="QP2" t="n">
-        <v>0.04172633494335062</v>
+        <v>0.04172633511866303</v>
       </c>
       <c r="QQ2" t="n">
-        <v>0.165854004331936</v>
+        <v>0.1658540054064643</v>
       </c>
       <c r="QR2" t="n">
-        <v>2.40287044773746e-05</v>
+        <v>2.402868945669545e-05</v>
       </c>
       <c r="QS2" t="n">
-        <v>0.5348960247980477</v>
+        <v>0.5348960932622118</v>
       </c>
       <c r="QT2" t="n">
-        <v>0.9432216348635551</v>
+        <v>0.943221717959029</v>
       </c>
       <c r="QU2" t="n">
-        <v>389644.8703968791</v>
+        <v>389644.8782241439</v>
       </c>
       <c r="QV2" t="n">
-        <v>2.708274498088614</v>
+        <v>2.708274491629842</v>
       </c>
       <c r="QW2" t="n">
-        <v>382101.5606464004</v>
+        <v>382101.5605169261</v>
       </c>
       <c r="QX2" t="n">
         <v>0</v>
       </c>
       <c r="QY2" t="n">
-        <v>3800.74411830341</v>
+        <v>3800.744136498892</v>
       </c>
       <c r="QZ2" t="n">
-        <v>4.282436980258865</v>
+        <v>4.282437852265645</v>
       </c>
       <c r="RA2" t="n">
-        <v>0.009585105647586876</v>
+        <v>0.009585105759520594</v>
       </c>
       <c r="RB2" t="n">
-        <v>0.0002341272323995725</v>
+        <v>0.0002341272891364445</v>
       </c>
       <c r="RC2" t="n">
-        <v>0.02886589010306095</v>
+        <v>0.0288658903677445</v>
       </c>
       <c r="RD2" t="n">
-        <v>0.01465049480499314</v>
+        <v>0.01465049476147925</v>
       </c>
       <c r="RE2" t="n">
-        <v>0.00493711458538551</v>
+        <v>0.004937114520142971</v>
       </c>
     </row>
     <row r="3">
@@ -9557,7 +9557,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01761869846138403</v>
+        <v>0.01761869839159354</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -9566,25 +9566,25 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04914443526870539</v>
+        <v>0.0491444352530653</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.08204320226933255</v>
+        <v>0.08204320218390196</v>
       </c>
       <c r="H3" t="n">
-        <v>2.979283486581608e-12</v>
+        <v>3.208683319044781e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>80.71248350640418</v>
+        <v>80.71248350711537</v>
       </c>
       <c r="K3" t="n">
-        <v>80.71248350640418</v>
+        <v>80.71248350711537</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -9593,10 +9593,10 @@
         <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>80.71248350640418</v>
+        <v>80.71248350711537</v>
       </c>
       <c r="O3" t="n">
-        <v>80.71248350640418</v>
+        <v>80.71248350711537</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -9605,295 +9605,295 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>292.3522750147027</v>
+        <v>292.3522750145454</v>
       </c>
       <c r="S3" t="n">
-        <v>132772.1796843738</v>
+        <v>132772.1796841238</v>
       </c>
       <c r="T3" t="n">
-        <v>1.582932747002381</v>
+        <v>1.582932747000254</v>
       </c>
       <c r="U3" t="n">
-        <v>334649.8439824811</v>
+        <v>334649.8439823686</v>
       </c>
       <c r="V3" t="n">
-        <v>418527.1785918043</v>
+        <v>418527.1785916466</v>
       </c>
       <c r="W3" t="n">
-        <v>3782.917347723461</v>
+        <v>3782.917347723462</v>
       </c>
       <c r="X3" t="n">
-        <v>-687417.314207735</v>
+        <v>-687417.3142072975</v>
       </c>
       <c r="Y3" t="n">
-        <v>717.7129007517499</v>
+        <v>717.7129007517427</v>
       </c>
       <c r="Z3" t="n">
-        <v>1006.647652845953</v>
+        <v>1006.647652845945</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.402577063602404</v>
+        <v>1.402577063602407</v>
       </c>
       <c r="AB3" t="n">
-        <v>0.9994979633405113</v>
+        <v>0.9994979633405102</v>
       </c>
       <c r="AC3" t="n">
-        <v>342.9081100795721</v>
+        <v>342.9081100794797</v>
       </c>
       <c r="AD3" t="n">
-        <v>186130.6856009663</v>
+        <v>186130.6856006159</v>
       </c>
       <c r="AE3" t="n">
-        <v>5.372569261061211e-06</v>
+        <v>5.372569261071324e-06</v>
       </c>
       <c r="AF3" t="n">
-        <v>132706.2094705191</v>
+        <v>132706.2094702691</v>
       </c>
       <c r="AG3" t="n">
-        <v>7.535442418179775e-06</v>
+        <v>7.53544241819397e-06</v>
       </c>
       <c r="AH3" t="n">
-        <v>0.003433462124705825</v>
+        <v>0.00343346212470767</v>
       </c>
       <c r="AI3" t="n">
-        <v>1.817140103499074e-05</v>
+        <v>1.817140103498305e-05</v>
       </c>
       <c r="AJ3" t="n">
-        <v>0.02582429250874619</v>
+        <v>0.02582429250873434</v>
       </c>
       <c r="AK3" t="n">
-        <v>132772.1796843738</v>
+        <v>132772.1796841238</v>
       </c>
       <c r="AL3" t="n">
-        <v>1.582932747002381</v>
+        <v>1.582932747000254</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.582932747002381</v>
+        <v>1.582932747000254</v>
       </c>
       <c r="AN3" t="n">
-        <v>334649.8439824811</v>
+        <v>334649.8439823686</v>
       </c>
       <c r="AO3" t="n">
-        <v>418527.1785918043</v>
+        <v>418527.1785916466</v>
       </c>
       <c r="AP3" t="n">
-        <v>3782.917347723461</v>
+        <v>3782.917347723462</v>
       </c>
       <c r="AQ3" t="n">
-        <v>717.7129007517499</v>
+        <v>717.7129007517427</v>
       </c>
       <c r="AR3" t="n">
-        <v>1006.647652845953</v>
+        <v>1006.647652845945</v>
       </c>
       <c r="AS3" t="n">
-        <v>342.9081100795721</v>
+        <v>342.9081100794797</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.9994979633405113</v>
+        <v>0.9994979633405102</v>
       </c>
       <c r="AU3" t="n">
-        <v>1.817140103499074e-05</v>
+        <v>1.817140103498305e-05</v>
       </c>
       <c r="AV3" t="n">
-        <v>0.02582429250874619</v>
+        <v>0.02582429250873434</v>
       </c>
       <c r="AW3" t="n">
-        <v>295.5999999999887</v>
+        <v>295.6000000001888</v>
       </c>
       <c r="AX3" t="n">
-        <v>137999.9999950273</v>
+        <v>137999.999995353</v>
       </c>
       <c r="AY3" t="n">
-        <v>1.627145819753704</v>
+        <v>1.627145819756441</v>
       </c>
       <c r="AZ3" t="n">
-        <v>336973.3475828231</v>
+        <v>336973.3475829663</v>
       </c>
       <c r="BA3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="BB3" t="n">
-        <v>3782.917347723355</v>
+        <v>3782.917347723356</v>
       </c>
       <c r="BC3" t="n">
-        <v>-696445.9368984912</v>
+        <v>-696445.9368990482</v>
       </c>
       <c r="BD3" t="n">
-        <v>717.8632360362508</v>
+        <v>717.8632360362602</v>
       </c>
       <c r="BE3" t="n">
-        <v>1006.821582550244</v>
+        <v>1006.821582550254</v>
       </c>
       <c r="BF3" t="n">
-        <v>1.402525623278194</v>
+        <v>1.40252562327819</v>
       </c>
       <c r="BG3" t="n">
-        <v>0.9995210660216013</v>
+        <v>0.9995210660216027</v>
       </c>
       <c r="BH3" t="n">
-        <v>344.8092213939905</v>
+        <v>344.8092213941073</v>
       </c>
       <c r="BI3" t="n">
-        <v>193456.8974367851</v>
+        <v>193456.8974372416</v>
       </c>
       <c r="BJ3" t="n">
-        <v>5.169110087309059e-06</v>
+        <v>5.169110087296861e-06</v>
       </c>
       <c r="BK3" t="n">
-        <v>137934.6617458643</v>
+        <v>137934.6617461901</v>
       </c>
       <c r="BL3" t="n">
-        <v>7.249809346996735e-06</v>
+        <v>7.249809346979611e-06</v>
       </c>
       <c r="BM3" t="n">
-        <v>0.003395798695746383</v>
+        <v>0.003395798695744087</v>
       </c>
       <c r="BN3" t="n">
-        <v>1.832995174011631e-05</v>
+        <v>1.832995174012606e-05</v>
       </c>
       <c r="BO3" t="n">
-        <v>0.02606863419705883</v>
+        <v>0.02606863419707387</v>
       </c>
       <c r="BP3" t="n">
-        <v>137999.9999950273</v>
+        <v>137999.999995353</v>
       </c>
       <c r="BQ3" t="n">
-        <v>1.627145819753704</v>
+        <v>1.627145819756441</v>
       </c>
       <c r="BR3" t="n">
-        <v>1.627145819753704</v>
+        <v>1.627145819756441</v>
       </c>
       <c r="BS3" t="n">
-        <v>336973.3475828231</v>
+        <v>336973.3475829663</v>
       </c>
       <c r="BT3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="BU3" t="n">
-        <v>3782.917347723355</v>
+        <v>3782.917347723356</v>
       </c>
       <c r="BV3" t="n">
-        <v>717.8632360362508</v>
+        <v>717.8632360362602</v>
       </c>
       <c r="BW3" t="n">
-        <v>1006.821582550244</v>
+        <v>1006.821582550254</v>
       </c>
       <c r="BX3" t="n">
-        <v>344.8092213939905</v>
+        <v>344.8092213941073</v>
       </c>
       <c r="BY3" t="n">
-        <v>0.9995210660216013</v>
+        <v>0.9995210660216027</v>
       </c>
       <c r="BZ3" t="n">
-        <v>1.832995174011631e-05</v>
+        <v>1.832995174012606e-05</v>
       </c>
       <c r="CA3" t="n">
-        <v>0.02606863419705883</v>
+        <v>0.02606863419707387</v>
       </c>
       <c r="CB3" t="n">
-        <v>295.5999999999887</v>
+        <v>295.6000000001888</v>
       </c>
       <c r="CC3" t="n">
-        <v>137999.9999950273</v>
+        <v>137999.999995353</v>
       </c>
       <c r="CD3" t="n">
-        <v>1.627145819753704</v>
+        <v>1.627145819756441</v>
       </c>
       <c r="CE3" t="n">
-        <v>336973.3475828231</v>
+        <v>336973.3475829663</v>
       </c>
       <c r="CF3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="CG3" t="n">
-        <v>3782.917347723355</v>
+        <v>3782.917347723356</v>
       </c>
       <c r="CH3" t="n">
-        <v>-696445.9368984912</v>
+        <v>-696445.9368990482</v>
       </c>
       <c r="CI3" t="n">
-        <v>717.8632360362508</v>
+        <v>717.8632360362602</v>
       </c>
       <c r="CJ3" t="n">
-        <v>1006.821582550244</v>
+        <v>1006.821582550254</v>
       </c>
       <c r="CK3" t="n">
-        <v>1.402525623278194</v>
+        <v>1.40252562327819</v>
       </c>
       <c r="CL3" t="n">
-        <v>0.9995210660216013</v>
+        <v>0.9995210660216027</v>
       </c>
       <c r="CM3" t="n">
-        <v>344.8092213939905</v>
+        <v>344.8092213941073</v>
       </c>
       <c r="CN3" t="n">
-        <v>193456.8974367851</v>
+        <v>193456.8974372416</v>
       </c>
       <c r="CO3" t="n">
-        <v>5.169110087309059e-06</v>
+        <v>5.169110087296861e-06</v>
       </c>
       <c r="CP3" t="n">
-        <v>137934.6617458643</v>
+        <v>137934.6617461901</v>
       </c>
       <c r="CQ3" t="n">
-        <v>7.249809346996735e-06</v>
+        <v>7.249809346979611e-06</v>
       </c>
       <c r="CR3" t="n">
-        <v>0.003395798695746383</v>
+        <v>0.003395798695744087</v>
       </c>
       <c r="CS3" t="n">
-        <v>1.832995174011631e-05</v>
+        <v>1.832995174012606e-05</v>
       </c>
       <c r="CT3" t="n">
-        <v>0.02606863419705883</v>
+        <v>0.02606863419707387</v>
       </c>
       <c r="CU3" t="n">
-        <v>137999.9999950273</v>
+        <v>137999.999995353</v>
       </c>
       <c r="CV3" t="n">
-        <v>1.627145819753704</v>
+        <v>1.627145819756441</v>
       </c>
       <c r="CW3" t="n">
-        <v>1.627145819753704</v>
+        <v>1.627145819756441</v>
       </c>
       <c r="CX3" t="n">
-        <v>336973.3475828231</v>
+        <v>336973.3475829663</v>
       </c>
       <c r="CY3" t="n">
-        <v>421784.4310884894</v>
+        <v>421784.4310886902</v>
       </c>
       <c r="CZ3" t="n">
-        <v>3782.917347723355</v>
+        <v>3782.917347723356</v>
       </c>
       <c r="DA3" t="n">
-        <v>717.8632360362508</v>
+        <v>717.8632360362602</v>
       </c>
       <c r="DB3" t="n">
-        <v>1006.821582550244</v>
+        <v>1006.821582550254</v>
       </c>
       <c r="DC3" t="n">
-        <v>344.8092213939905</v>
+        <v>344.8092213941073</v>
       </c>
       <c r="DD3" t="n">
-        <v>0.9995210660216013</v>
+        <v>0.9995210660216027</v>
       </c>
       <c r="DE3" t="n">
-        <v>1.832995174011631e-05</v>
+        <v>1.832995174012606e-05</v>
       </c>
       <c r="DF3" t="n">
-        <v>0.02606863419705883</v>
+        <v>0.02606863419707387</v>
       </c>
       <c r="DG3" t="n">
-        <v>0.2353764204867443</v>
+        <v>0.2353764204888818</v>
       </c>
       <c r="DH3" t="n">
-        <v>0.2353764204867443</v>
+        <v>0.2353764204888818</v>
       </c>
       <c r="DI3" t="n">
-        <v>183929.9703402185</v>
+        <v>183929.97034167</v>
       </c>
       <c r="DJ3" t="n">
-        <v>2.742859854009969</v>
+        <v>2.742859854030453</v>
       </c>
       <c r="DK3" t="n">
         <v>421784.4310885898</v>
@@ -9902,310 +9902,310 @@
         <v>0</v>
       </c>
       <c r="DM3" t="n">
-        <v>306.8418919443049</v>
+        <v>306.8418981822652</v>
       </c>
       <c r="DN3" t="n">
-        <v>125.3773417567408</v>
+        <v>125.3773443056068</v>
       </c>
       <c r="DO3" t="n">
-        <v>280.0579740446144</v>
+        <v>280.0579797380695</v>
       </c>
       <c r="DP3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DQ3" t="n">
-        <v>306.8418919443049</v>
+        <v>306.8418981822652</v>
       </c>
       <c r="DR3" t="n">
-        <v>125.3773417567408</v>
+        <v>125.3773443056068</v>
       </c>
       <c r="DS3" t="n">
-        <v>280.0579740446144</v>
+        <v>280.0579797380695</v>
       </c>
       <c r="DT3" t="n">
         <v>65.88272377225761</v>
       </c>
       <c r="DU3" t="n">
-        <v>248.6139877151998</v>
+        <v>248.6139858036789</v>
       </c>
       <c r="DV3" t="n">
-        <v>72670.28758732982</v>
+        <v>72670.28555086387</v>
       </c>
       <c r="DW3" t="n">
-        <v>1.019019560903706</v>
+        <v>1.019019540188359</v>
       </c>
       <c r="DX3" t="n">
-        <v>303394.52977198</v>
+        <v>303394.5284066489</v>
       </c>
       <c r="DY3" t="n">
-        <v>374708.4577626095</v>
+        <v>374708.455848542</v>
       </c>
       <c r="DZ3" t="n">
-        <v>3793.461869587908</v>
+        <v>3793.461869927345</v>
       </c>
       <c r="EA3" t="n">
-        <v>-568399.2248811976</v>
+        <v>-568399.2196283723</v>
       </c>
       <c r="EB3" t="n">
-        <v>716.2663343000686</v>
+        <v>716.2663342580755</v>
       </c>
       <c r="EC3" t="n">
-        <v>1004.832375557054</v>
+        <v>1004.832375500392</v>
       </c>
       <c r="ED3" t="n">
-        <v>1.402875337620007</v>
+        <v>1.402875337623148</v>
       </c>
       <c r="EE3" t="n">
-        <v>0.9992923632746759</v>
+        <v>0.9992923632687296</v>
       </c>
       <c r="EF3" t="n">
-        <v>316.1865749099297</v>
+        <v>316.1865736928534</v>
       </c>
       <c r="EG3" t="n">
-        <v>101875.4107869968</v>
+        <v>101875.407931717</v>
       </c>
       <c r="EH3" t="n">
-        <v>9.815911339889665e-06</v>
+        <v>9.815911615001923e-06</v>
       </c>
       <c r="EI3" t="n">
-        <v>72619.00473625082</v>
+        <v>72619.00270078282</v>
       </c>
       <c r="EJ3" t="n">
-        <v>1.377049993499578e-05</v>
+        <v>1.37705003209748e-05</v>
       </c>
       <c r="EK3" t="n">
-        <v>0.004035765701344932</v>
+        <v>0.004035765732296399</v>
       </c>
       <c r="EL3" t="n">
-        <v>1.596159553924878e-05</v>
+        <v>1.596159543948072e-05</v>
       </c>
       <c r="EM3" t="n">
-        <v>0.02244419787346002</v>
+        <v>0.02244419772194699</v>
       </c>
       <c r="EN3" t="n">
-        <v>72670.28758732982</v>
+        <v>72670.28555086387</v>
       </c>
       <c r="EO3" t="n">
-        <v>1.019019560903706</v>
+        <v>1.019019540188359</v>
       </c>
       <c r="EP3" t="n">
-        <v>1.019019560903706</v>
+        <v>1.019019540188359</v>
       </c>
       <c r="EQ3" t="n">
-        <v>303394.52977198</v>
+        <v>303394.5284066489</v>
       </c>
       <c r="ER3" t="n">
-        <v>374708.4577626095</v>
+        <v>374708.455848542</v>
       </c>
       <c r="ES3" t="n">
-        <v>3793.461869587908</v>
+        <v>3793.461869927345</v>
       </c>
       <c r="ET3" t="n">
-        <v>716.2663343000686</v>
+        <v>716.2663342580755</v>
       </c>
       <c r="EU3" t="n">
-        <v>1004.832375557054</v>
+        <v>1004.832375500392</v>
       </c>
       <c r="EV3" t="n">
-        <v>316.1865749099297</v>
+        <v>316.1865736928534</v>
       </c>
       <c r="EW3" t="n">
-        <v>0.9992923632746759</v>
+        <v>0.9992923632687296</v>
       </c>
       <c r="EX3" t="n">
-        <v>1.596159553924878e-05</v>
+        <v>1.596159543948072e-05</v>
       </c>
       <c r="EY3" t="n">
-        <v>0.02244419787346002</v>
+        <v>0.02244419772194699</v>
       </c>
       <c r="EZ3" t="n">
-        <v>295.5884537392139</v>
+        <v>295.5884537386489</v>
       </c>
       <c r="FA3" t="n">
-        <v>133020.3588351744</v>
+        <v>133020.3586774902</v>
       </c>
       <c r="FB3" t="n">
-        <v>1.568465980066881</v>
+        <v>1.568465978209759</v>
       </c>
       <c r="FC3" t="n">
-        <v>336975.2222657469</v>
+        <v>336975.222265663</v>
       </c>
       <c r="FD3" t="n">
-        <v>421784.4310886899</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="FE3" t="n">
-        <v>3793.46186959534</v>
+        <v>3793.461869934777</v>
       </c>
       <c r="FF3" t="n">
-        <v>-699519.0972636642</v>
+        <v>-699519.0973620551</v>
       </c>
       <c r="FG3" t="n">
-        <v>717.8502656716444</v>
+        <v>717.850265671225</v>
       </c>
       <c r="FH3" t="n">
-        <v>1006.739822662211</v>
+        <v>1006.739822659616</v>
       </c>
       <c r="FI3" t="n">
-        <v>1.402437069129273</v>
+        <v>1.402437069126478</v>
       </c>
       <c r="FJ3" t="n">
-        <v>0.9995380147663061</v>
+        <v>0.9995380147668408</v>
       </c>
       <c r="FK3" t="n">
-        <v>344.7973817654637</v>
+        <v>344.7973817649729</v>
       </c>
       <c r="FL3" t="n">
-        <v>186467.4458021067</v>
+        <v>186467.4455807914</v>
       </c>
       <c r="FM3" t="n">
-        <v>5.36286640114798e-06</v>
+        <v>5.362866407513083e-06</v>
       </c>
       <c r="FN3" t="n">
-        <v>132959.5815075525</v>
+        <v>132959.5813500099</v>
       </c>
       <c r="FO3" t="n">
-        <v>7.521082637757828e-06</v>
+        <v>7.52108264666949e-06</v>
       </c>
       <c r="FP3" t="n">
-        <v>0.003395470178520578</v>
+        <v>0.003395470178512488</v>
       </c>
       <c r="FQ3" t="n">
-        <v>1.832867335238018e-05</v>
+        <v>1.832867335233004e-05</v>
       </c>
       <c r="FR3" t="n">
-        <v>0.02606617654990091</v>
+        <v>0.02606617654980824</v>
       </c>
       <c r="FS3" t="n">
-        <v>133020.3588351744</v>
+        <v>133020.3586774902</v>
       </c>
       <c r="FT3" t="n">
-        <v>1.568465980066881</v>
+        <v>1.568465978209759</v>
       </c>
       <c r="FU3" t="n">
-        <v>1.568465980066881</v>
+        <v>1.568465978209759</v>
       </c>
       <c r="FV3" t="n">
-        <v>336975.2222657469</v>
+        <v>336975.222265663</v>
       </c>
       <c r="FW3" t="n">
-        <v>421784.4310886899</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="FX3" t="n">
-        <v>3793.46186959534</v>
+        <v>3793.461869934777</v>
       </c>
       <c r="FY3" t="n">
-        <v>717.8502656716444</v>
+        <v>717.850265671225</v>
       </c>
       <c r="FZ3" t="n">
-        <v>1006.739822662211</v>
+        <v>1006.739822659616</v>
       </c>
       <c r="GA3" t="n">
-        <v>344.7973817654637</v>
+        <v>344.7973817649729</v>
       </c>
       <c r="GB3" t="n">
-        <v>0.9995380147663061</v>
+        <v>0.9995380147668408</v>
       </c>
       <c r="GC3" t="n">
-        <v>1.832867335238018e-05</v>
+        <v>1.832867335233004e-05</v>
       </c>
       <c r="GD3" t="n">
-        <v>0.02606617654990091</v>
+        <v>0.02606617654980824</v>
       </c>
       <c r="GE3" t="n">
-        <v>295.5884537392139</v>
+        <v>295.5884537386489</v>
       </c>
       <c r="GF3" t="n">
-        <v>133020.3588351744</v>
+        <v>133020.3586774902</v>
       </c>
       <c r="GG3" t="n">
-        <v>1.568465980066881</v>
+        <v>1.568465978209759</v>
       </c>
       <c r="GH3" t="n">
-        <v>336975.2222657469</v>
+        <v>336975.222265663</v>
       </c>
       <c r="GI3" t="n">
-        <v>421784.4310886899</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="GJ3" t="n">
-        <v>3793.46186959534</v>
+        <v>3793.461869934777</v>
       </c>
       <c r="GK3" t="n">
-        <v>-699519.0972636642</v>
+        <v>-699519.0973620551</v>
       </c>
       <c r="GL3" t="n">
-        <v>717.8502656716444</v>
+        <v>717.850265671225</v>
       </c>
       <c r="GM3" t="n">
-        <v>1006.739822662211</v>
+        <v>1006.739822659616</v>
       </c>
       <c r="GN3" t="n">
-        <v>1.402437069129273</v>
+        <v>1.402437069126478</v>
       </c>
       <c r="GO3" t="n">
-        <v>0.9995380147663061</v>
+        <v>0.9995380147668408</v>
       </c>
       <c r="GP3" t="n">
-        <v>344.7973817654637</v>
+        <v>344.7973817649729</v>
       </c>
       <c r="GQ3" t="n">
-        <v>186467.4458021067</v>
+        <v>186467.4455807914</v>
       </c>
       <c r="GR3" t="n">
-        <v>5.36286640114798e-06</v>
+        <v>5.362866407513083e-06</v>
       </c>
       <c r="GS3" t="n">
-        <v>132959.5815075525</v>
+        <v>132959.5813500099</v>
       </c>
       <c r="GT3" t="n">
-        <v>7.521082637757828e-06</v>
+        <v>7.52108264666949e-06</v>
       </c>
       <c r="GU3" t="n">
-        <v>0.003395470178520578</v>
+        <v>0.003395470178512488</v>
       </c>
       <c r="GV3" t="n">
-        <v>1.832867335238018e-05</v>
+        <v>1.832867335233004e-05</v>
       </c>
       <c r="GW3" t="n">
-        <v>0.02606617654990091</v>
+        <v>0.02606617654980824</v>
       </c>
       <c r="GX3" t="n">
-        <v>133020.3588351744</v>
+        <v>133020.3586774902</v>
       </c>
       <c r="GY3" t="n">
-        <v>1.568465980066881</v>
+        <v>1.568465978209759</v>
       </c>
       <c r="GZ3" t="n">
-        <v>1.568465980066881</v>
+        <v>1.568465978209759</v>
       </c>
       <c r="HA3" t="n">
-        <v>336975.2222657469</v>
+        <v>336975.222265663</v>
       </c>
       <c r="HB3" t="n">
-        <v>421784.4310886899</v>
+        <v>421784.4310884894</v>
       </c>
       <c r="HC3" t="n">
-        <v>3793.46186959534</v>
+        <v>3793.461869934777</v>
       </c>
       <c r="HD3" t="n">
-        <v>717.8502656716444</v>
+        <v>717.850265671225</v>
       </c>
       <c r="HE3" t="n">
-        <v>1006.739822662211</v>
+        <v>1006.739822659616</v>
       </c>
       <c r="HF3" t="n">
-        <v>344.7973817654637</v>
+        <v>344.7973817649729</v>
       </c>
       <c r="HG3" t="n">
-        <v>0.9995380147663061</v>
+        <v>0.9995380147668408</v>
       </c>
       <c r="HH3" t="n">
-        <v>1.832867335238018e-05</v>
+        <v>1.832867335233004e-05</v>
       </c>
       <c r="HI3" t="n">
-        <v>0.02606617654990091</v>
+        <v>0.02606617654980824</v>
       </c>
       <c r="HJ3" t="n">
-        <v>0.01795407857189881</v>
+        <v>0.01795407859118268</v>
       </c>
       <c r="HK3" t="n">
         <v>0</v>
@@ -10214,28 +10214,28 @@
         <v>0.01528006853924313</v>
       </c>
       <c r="HM3" t="n">
-        <v>0.04927004796090715</v>
+        <v>0.04927004797734958</v>
       </c>
       <c r="HN3" t="n">
         <v>0</v>
       </c>
       <c r="HO3" t="n">
-        <v>0.08250419507204909</v>
+        <v>0.08250419510777539</v>
       </c>
       <c r="HP3" t="n">
-        <v>8.402790555112061e-06</v>
+        <v>8.402804319074253e-06</v>
       </c>
       <c r="HQ3" t="n">
-        <v>0.9704456681366475</v>
+        <v>0.9704456916008531</v>
       </c>
       <c r="HR3" t="n">
-        <v>0.9704456681366475</v>
+        <v>0.9704456916008531</v>
       </c>
       <c r="HS3" t="n">
-        <v>512458.3931587935</v>
+        <v>512458.3963623562</v>
       </c>
       <c r="HT3" t="n">
-        <v>2.742849774794193</v>
+        <v>2.742849774796536</v>
       </c>
       <c r="HU3" t="n">
         <v>421784.4310885898</v>
@@ -10244,733 +10244,733 @@
         <v>0</v>
       </c>
       <c r="HW3" t="n">
-        <v>2113.446625612443</v>
+        <v>2113.446610952378</v>
       </c>
       <c r="HX3" t="n">
         <v>0</v>
       </c>
       <c r="HY3" t="n">
-        <v>0.006643765923430298</v>
+        <v>0.006643765851860967</v>
       </c>
       <c r="HZ3" t="n">
         <v>0</v>
       </c>
       <c r="IA3" t="n">
-        <v>0.01853168241002989</v>
+        <v>0.01853168227790841</v>
       </c>
       <c r="IB3" t="n">
         <v>0</v>
       </c>
       <c r="IC3" t="n">
-        <v>0.005761901135387742</v>
+        <v>0.005761901096142026</v>
       </c>
       <c r="ID3" t="n">
-        <v>0.02707894899111803</v>
+        <v>0.02707894880009905</v>
       </c>
       <c r="IE3" t="n">
-        <v>0.0007370771549868602</v>
+        <v>0.0007370770797422196</v>
       </c>
       <c r="IF3" t="n">
-        <v>0.01389216954142047</v>
+        <v>0.01389216954460171</v>
       </c>
       <c r="IG3" t="n">
-        <v>0.08157447988615107</v>
+        <v>0.08157447923654525</v>
       </c>
       <c r="IH3" t="n">
-        <v>0.0414753181804807</v>
+        <v>0.04147531797976777</v>
       </c>
       <c r="II3" t="n">
-        <v>0.1647579937541571</v>
+        <v>0.164757992640756</v>
       </c>
       <c r="IJ3" t="n">
-        <v>2.943026378154912e-11</v>
+        <v>-1.313790742862864e-11</v>
       </c>
       <c r="IK3" t="n">
         <v>165.3032</v>
       </c>
       <c r="IL3" t="n">
-        <v>263.7260042373846</v>
+        <v>263.7260035389042</v>
       </c>
       <c r="IM3" t="n">
-        <v>108.797034933502</v>
+        <v>108.7970349322904</v>
       </c>
       <c r="IN3" t="n">
-        <v>240.2386532194504</v>
+        <v>240.2386524532305</v>
       </c>
       <c r="IO3" t="n">
-        <v>65.63562325319825</v>
+        <v>65.63562318476484</v>
       </c>
       <c r="IP3" t="n">
-        <v>132.1064607031999</v>
+        <v>132.1064602675751</v>
       </c>
       <c r="IQ3" t="n">
-        <v>108.797034933502</v>
+        <v>108.7970349322904</v>
       </c>
       <c r="IR3" t="n">
-        <v>74.93545321945041</v>
+        <v>74.93545245323054</v>
       </c>
       <c r="IS3" t="n">
-        <v>34.55766177402867</v>
+        <v>34.55766150064554</v>
       </c>
       <c r="IT3" t="n">
-        <v>260.8965732810468</v>
+        <v>260.8965734653905</v>
       </c>
       <c r="IU3" t="n">
-        <v>86724.35686302098</v>
+        <v>86724.35709645181</v>
       </c>
       <c r="IV3" t="n">
-        <v>1.158791009806903</v>
+        <v>1.158791012106398</v>
       </c>
       <c r="IW3" t="n">
-        <v>312168.3507210506</v>
+        <v>312168.3508527288</v>
       </c>
       <c r="IX3" t="n">
-        <v>387008.7284328802</v>
+        <v>387008.7286174891</v>
       </c>
       <c r="IY3" t="n">
-        <v>3791.037829096509</v>
+        <v>3791.037829031983</v>
       </c>
       <c r="IZ3" t="n">
-        <v>-602060.0503572177</v>
+        <v>-602060.0508546281</v>
       </c>
       <c r="JA3" t="n">
-        <v>716.5707622948397</v>
+        <v>716.5707622999762</v>
       </c>
       <c r="JB3" t="n">
-        <v>1005.233646361784</v>
+        <v>1005.233646368551</v>
       </c>
       <c r="JC3" t="n">
-        <v>1.402839327608753</v>
+        <v>1.402839327608141</v>
       </c>
       <c r="JD3" t="n">
-        <v>0.9993356156811555</v>
+        <v>0.9993356156818262</v>
       </c>
       <c r="JE3" t="n">
-        <v>323.9128725779688</v>
+        <v>323.9128726925523</v>
       </c>
       <c r="JF3" t="n">
-        <v>121579.8301593538</v>
+        <v>121579.8304866331</v>
       </c>
       <c r="JG3" t="n">
-        <v>8.22504850261188e-06</v>
+        <v>8.225048480470972e-06</v>
       </c>
       <c r="JH3" t="n">
-        <v>86666.96731877058</v>
+        <v>86666.96755210614</v>
       </c>
       <c r="JI3" t="n">
-        <v>1.153842151095343e-05</v>
+        <v>1.153842147988825e-05</v>
       </c>
       <c r="JJ3" t="n">
-        <v>0.003846245883057109</v>
+        <v>0.003846245880347697</v>
       </c>
       <c r="JK3" t="n">
-        <v>1.659665537618934e-05</v>
+        <v>1.659665538563317e-05</v>
       </c>
       <c r="JL3" t="n">
-        <v>0.02341062006499968</v>
+        <v>0.02341062007940167</v>
       </c>
       <c r="JM3" t="n">
-        <v>86724.35686302098</v>
+        <v>86724.35709645181</v>
       </c>
       <c r="JN3" t="n">
-        <v>1.158791009806903</v>
+        <v>1.158791012106398</v>
       </c>
       <c r="JO3" t="n">
-        <v>1.158791009806903</v>
+        <v>1.158791012106398</v>
       </c>
       <c r="JP3" t="n">
-        <v>312168.3507210506</v>
+        <v>312168.3508527288</v>
       </c>
       <c r="JQ3" t="n">
-        <v>387008.7284328802</v>
+        <v>387008.7286174891</v>
       </c>
       <c r="JR3" t="n">
-        <v>3791.037829096509</v>
+        <v>3791.037829031983</v>
       </c>
       <c r="JS3" t="n">
-        <v>716.5707622948397</v>
+        <v>716.5707622999762</v>
       </c>
       <c r="JT3" t="n">
-        <v>1005.233646361784</v>
+        <v>1005.233646368551</v>
       </c>
       <c r="JU3" t="n">
-        <v>323.9128725779688</v>
+        <v>323.9128726925523</v>
       </c>
       <c r="JV3" t="n">
-        <v>0.9993356156811555</v>
+        <v>0.9993356156818262</v>
       </c>
       <c r="JW3" t="n">
-        <v>1.659665537618934e-05</v>
+        <v>1.659665538563317e-05</v>
       </c>
       <c r="JX3" t="n">
-        <v>0.02341062006499968</v>
+        <v>0.02341062007940167</v>
       </c>
       <c r="JY3" t="n">
-        <v>295.5910708746308</v>
+        <v>295.5910708749014</v>
       </c>
       <c r="JZ3" t="n">
-        <v>134148.9565245255</v>
+        <v>134148.9565550131</v>
       </c>
       <c r="KA3" t="n">
-        <v>1.581765547379191</v>
+        <v>1.581765547737386</v>
       </c>
       <c r="KB3" t="n">
-        <v>336974.7974821454</v>
+        <v>336974.7974822775</v>
       </c>
       <c r="KC3" t="n">
-        <v>421784.4310885893</v>
+        <v>421784.4310887905</v>
       </c>
       <c r="KD3" t="n">
-        <v>3791.037829101735</v>
+        <v>3791.037829037208</v>
       </c>
       <c r="KE3" t="n">
-        <v>-698812.500541828</v>
+        <v>-698812.5005235794</v>
       </c>
       <c r="KF3" t="n">
-        <v>717.8532055402476</v>
+        <v>717.8532055403355</v>
       </c>
       <c r="KG3" t="n">
-        <v>1006.758353831801</v>
+        <v>1006.758353832308</v>
       </c>
       <c r="KH3" t="n">
-        <v>1.402457140348252</v>
+        <v>1.402457140348785</v>
       </c>
       <c r="KI3" t="n">
-        <v>0.99953417128836</v>
+        <v>0.9995341712882586</v>
       </c>
       <c r="KJ3" t="n">
-        <v>344.8000645106117</v>
+        <v>344.8000645108005</v>
       </c>
       <c r="KK3" t="n">
-        <v>188051.4942691395</v>
+        <v>188051.4943119303</v>
       </c>
       <c r="KL3" t="n">
-        <v>5.317692389983347e-06</v>
+        <v>5.317692388773314e-06</v>
       </c>
       <c r="KM3" t="n">
-        <v>134087.1594995362</v>
+        <v>134087.1595299965</v>
       </c>
       <c r="KN3" t="n">
-        <v>7.457835662507706e-06</v>
+        <v>7.457835660813524e-06</v>
       </c>
       <c r="KO3" t="n">
-        <v>0.003395544649989728</v>
+        <v>0.003395544649989417</v>
       </c>
       <c r="KP3" t="n">
-        <v>1.832896306782577e-05</v>
+        <v>1.832896306784329e-05</v>
       </c>
       <c r="KQ3" t="n">
-        <v>0.02606673348872226</v>
+        <v>0.02606673348875221</v>
       </c>
       <c r="KR3" t="n">
-        <v>134148.9565245255</v>
+        <v>134148.9565550131</v>
       </c>
       <c r="KS3" t="n">
-        <v>1.581765547379191</v>
+        <v>1.581765547737386</v>
       </c>
       <c r="KT3" t="n">
-        <v>1.581765547379191</v>
+        <v>1.581765547737386</v>
       </c>
       <c r="KU3" t="n">
-        <v>336974.7974821454</v>
+        <v>336974.7974822775</v>
       </c>
       <c r="KV3" t="n">
-        <v>421784.4310885893</v>
+        <v>421784.4310887905</v>
       </c>
       <c r="KW3" t="n">
-        <v>3791.037829101735</v>
+        <v>3791.037829037208</v>
       </c>
       <c r="KX3" t="n">
-        <v>717.8532055402476</v>
+        <v>717.8532055403355</v>
       </c>
       <c r="KY3" t="n">
-        <v>1006.758353831801</v>
+        <v>1006.758353832308</v>
       </c>
       <c r="KZ3" t="n">
-        <v>344.8000645106117</v>
+        <v>344.8000645108005</v>
       </c>
       <c r="LA3" t="n">
-        <v>0.99953417128836</v>
+        <v>0.9995341712882586</v>
       </c>
       <c r="LB3" t="n">
-        <v>1.832896306782577e-05</v>
+        <v>1.832896306784329e-05</v>
       </c>
       <c r="LC3" t="n">
-        <v>0.02606673348872226</v>
+        <v>0.02606673348875221</v>
       </c>
       <c r="LD3" t="n">
-        <v>269.6062653663848</v>
+        <v>269.606265492851</v>
       </c>
       <c r="LE3" t="n">
-        <v>97263.52459305117</v>
+        <v>97263.5247742123</v>
       </c>
       <c r="LF3" t="n">
-        <v>1.257576519328046</v>
+        <v>1.25757652107985</v>
       </c>
       <c r="LG3" t="n">
-        <v>318392.7539644061</v>
+        <v>318392.7540547469</v>
       </c>
       <c r="LH3" t="n">
-        <v>395734.7869128437</v>
+        <v>395734.7870395028</v>
       </c>
       <c r="LI3" t="n">
-        <v>3791.037829096509</v>
+        <v>3791.037829031982</v>
       </c>
       <c r="LJ3" t="n">
-        <v>-626352.7640525531</v>
+        <v>-626352.7643879354</v>
       </c>
       <c r="LK3" t="n">
-        <v>716.8294850124084</v>
+        <v>716.8294850165214</v>
       </c>
       <c r="LL3" t="n">
-        <v>1005.552545557932</v>
+        <v>1005.552545563297</v>
       </c>
       <c r="LM3" t="n">
-        <v>1.402777880349781</v>
+        <v>1.402777880349218</v>
       </c>
       <c r="LN3" t="n">
-        <v>0.9993770519442958</v>
+        <v>0.9993770519447986</v>
       </c>
       <c r="LO3" t="n">
-        <v>329.2817208442381</v>
+        <v>329.2817209215686</v>
       </c>
       <c r="LP3" t="n">
-        <v>136354.5597095196</v>
+        <v>136354.5599635062</v>
       </c>
       <c r="LQ3" t="n">
-        <v>7.333821488114011e-06</v>
+        <v>7.33382147445336e-06</v>
       </c>
       <c r="LR3" t="n">
-        <v>97203.24337843122</v>
+        <v>97203.24355952992</v>
       </c>
       <c r="LS3" t="n">
-        <v>1.028772256196025e-05</v>
+        <v>1.028772254279326e-05</v>
       </c>
       <c r="LT3" t="n">
-        <v>0.003722224624743574</v>
+        <v>0.003722224623003749</v>
       </c>
       <c r="LU3" t="n">
-        <v>1.703980595937249e-05</v>
+        <v>1.703980596576879e-05</v>
       </c>
       <c r="LV3" t="n">
-        <v>0.02408727595842394</v>
+        <v>0.02408727596820721</v>
       </c>
       <c r="LW3" t="n">
-        <v>97263.52459305117</v>
+        <v>97263.5247742123</v>
       </c>
       <c r="LX3" t="n">
-        <v>1.257576519328046</v>
+        <v>1.25757652107985</v>
       </c>
       <c r="LY3" t="n">
-        <v>1.257576519328046</v>
+        <v>1.25757652107985</v>
       </c>
       <c r="LZ3" t="n">
-        <v>318392.7539644061</v>
+        <v>318392.7540547469</v>
       </c>
       <c r="MA3" t="n">
-        <v>395734.7869128437</v>
+        <v>395734.7870395028</v>
       </c>
       <c r="MB3" t="n">
-        <v>3791.037829096509</v>
+        <v>3791.037829031982</v>
       </c>
       <c r="MC3" t="n">
-        <v>716.8294850124084</v>
+        <v>716.8294850165214</v>
       </c>
       <c r="MD3" t="n">
-        <v>1005.552545557932</v>
+        <v>1005.552545563297</v>
       </c>
       <c r="ME3" t="n">
-        <v>329.2817208442381</v>
+        <v>329.2817209215686</v>
       </c>
       <c r="MF3" t="n">
-        <v>0.9993770519442958</v>
+        <v>0.9993770519447986</v>
       </c>
       <c r="MG3" t="n">
-        <v>1.703980595937249e-05</v>
+        <v>1.703980596576879e-05</v>
       </c>
       <c r="MH3" t="n">
-        <v>0.02408727595842394</v>
+        <v>0.02408727596820721</v>
       </c>
       <c r="MI3" t="n">
-        <v>0.8141880936636853</v>
+        <v>0.8141880912192843</v>
       </c>
       <c r="MJ3" t="n">
-        <v>0.4078456643349383</v>
+        <v>0.4078456628457811</v>
       </c>
       <c r="MK3" t="n">
-        <v>240371.5200636522</v>
+        <v>240371.5196112354</v>
       </c>
       <c r="ML3" t="n">
-        <v>2.706590919299709</v>
+        <v>2.706590924640505</v>
       </c>
       <c r="MM3" t="n">
-        <v>382072.2129476235</v>
+        <v>382072.2130744832</v>
       </c>
       <c r="MN3" t="n">
         <v>165.3032</v>
       </c>
       <c r="MO3" t="n">
-        <v>162.2027684360388</v>
+        <v>162.2027642332915</v>
       </c>
       <c r="MP3" t="n">
-        <v>137.9941248050775</v>
+        <v>137.9941224767013</v>
       </c>
       <c r="MQ3" t="n">
-        <v>-85.2488100069198</v>
+        <v>-85.24880577935335</v>
       </c>
       <c r="MR3" t="n">
-        <v>-31.70658219760175</v>
+        <v>-31.70658135941551</v>
       </c>
       <c r="MS3" t="n">
-        <v>286.0396619338426</v>
+        <v>286.0396571074926</v>
       </c>
       <c r="MT3" t="n">
-        <v>137.9941248050775</v>
+        <v>137.9941224767013</v>
       </c>
       <c r="MU3" t="n">
-        <v>-250.5520100069198</v>
+        <v>-250.5520057793534</v>
       </c>
       <c r="MV3" t="n">
         <v>-61.15576777799674</v>
       </c>
       <c r="MW3" t="n">
-        <v>228.7445774100001</v>
+        <v>228.7445789158682</v>
       </c>
       <c r="MX3" t="n">
-        <v>51101.26998093931</v>
+        <v>51101.27127876752</v>
       </c>
       <c r="MY3" t="n">
-        <v>0.7788201371507519</v>
+        <v>0.7788201518023767</v>
       </c>
       <c r="MZ3" t="n">
-        <v>289211.7439072296</v>
+        <v>289211.7449824776</v>
       </c>
       <c r="NA3" t="n">
-        <v>354825.44281323</v>
+        <v>354825.4443205172</v>
       </c>
       <c r="NB3" t="n">
-        <v>3811.113741368185</v>
+        <v>3811.11374067258</v>
       </c>
       <c r="NC3" t="n">
-        <v>-516946.15941748</v>
+        <v>-516946.1634901114</v>
       </c>
       <c r="ND3" t="n">
-        <v>715.8960653506841</v>
+        <v>715.8960653725613</v>
       </c>
       <c r="NE3" t="n">
-        <v>1004.24733596725</v>
+        <v>1004.247336001581</v>
       </c>
       <c r="NF3" t="n">
-        <v>1.402783706424362</v>
+        <v>1.402783706429449</v>
       </c>
       <c r="NG3" t="n">
-        <v>0.9992806636143541</v>
+        <v>0.9992806636157571</v>
       </c>
       <c r="NH3" t="n">
-        <v>303.2749728686394</v>
+        <v>303.2749738678808</v>
       </c>
       <c r="NI3" t="n">
-        <v>71632.53442912856</v>
+        <v>71632.53624875711</v>
       </c>
       <c r="NJ3" t="n">
-        <v>1.396013707974238e-05</v>
+        <v>1.39601367251233e-05</v>
       </c>
       <c r="NK3" t="n">
-        <v>51064.56120146772</v>
+        <v>51064.56249843801</v>
       </c>
       <c r="NL3" t="n">
-        <v>1.958305283491318e-05</v>
+        <v>1.958305233753033e-05</v>
       </c>
       <c r="NM3" t="n">
-        <v>0.004384744730487937</v>
+        <v>0.004384744701710761</v>
       </c>
       <c r="NN3" t="n">
-        <v>1.490768011310588e-05</v>
+        <v>1.490768019423294e-05</v>
       </c>
       <c r="NO3" t="n">
-        <v>0.02084864733966933</v>
+        <v>0.02084864746204697</v>
       </c>
       <c r="NP3" t="n">
-        <v>51101.26998093931</v>
+        <v>51101.27127876752</v>
       </c>
       <c r="NQ3" t="n">
-        <v>0.7788201371507519</v>
+        <v>0.7788201518023767</v>
       </c>
       <c r="NR3" t="n">
-        <v>0.7788201371507519</v>
+        <v>0.7788201518023767</v>
       </c>
       <c r="NS3" t="n">
-        <v>289211.7439072296</v>
+        <v>289211.7449824776</v>
       </c>
       <c r="NT3" t="n">
-        <v>354825.44281323</v>
+        <v>354825.4443205172</v>
       </c>
       <c r="NU3" t="n">
-        <v>3811.113741368185</v>
+        <v>3811.11374067258</v>
       </c>
       <c r="NV3" t="n">
-        <v>715.8960653506841</v>
+        <v>715.8960653725613</v>
       </c>
       <c r="NW3" t="n">
-        <v>1004.24733596725</v>
+        <v>1004.247336001581</v>
       </c>
       <c r="NX3" t="n">
-        <v>303.2749728686394</v>
+        <v>303.2749738678808</v>
       </c>
       <c r="NY3" t="n">
-        <v>0.9992806636143541</v>
+        <v>0.9992806636157571</v>
       </c>
       <c r="NZ3" t="n">
-        <v>1.490768011310588e-05</v>
+        <v>1.490768019423294e-05</v>
       </c>
       <c r="OA3" t="n">
-        <v>0.02084864733966933</v>
+        <v>0.02084864746204697</v>
       </c>
       <c r="OB3" t="n">
-        <v>241.8817781807128</v>
+        <v>241.8817790057301</v>
       </c>
       <c r="OC3" t="n">
-        <v>62100.24804561128</v>
+        <v>62100.2489352107</v>
       </c>
       <c r="OD3" t="n">
-        <v>0.8950189912840235</v>
+        <v>0.8950190010519466</v>
       </c>
       <c r="OE3" t="n">
-        <v>298596.0321375802</v>
+        <v>298596.0327265614</v>
       </c>
       <c r="OF3" t="n">
-        <v>367980.3118571872</v>
+        <v>367980.3126828775</v>
       </c>
       <c r="OG3" t="n">
-        <v>3811.113741360537</v>
+        <v>3811.113740664931</v>
       </c>
       <c r="OH3" t="n">
-        <v>-553858.6567520483</v>
+        <v>-553858.6589023387</v>
       </c>
       <c r="OI3" t="n">
-        <v>716.1121939624001</v>
+        <v>716.1121939786772</v>
       </c>
       <c r="OJ3" t="n">
-        <v>1004.545337420231</v>
+        <v>1004.545337445047</v>
       </c>
       <c r="OK3" t="n">
-        <v>1.402776472582976</v>
+        <v>1.402776472585744</v>
       </c>
       <c r="OL3" t="n">
-        <v>0.9993133781957302</v>
+        <v>0.9993133781964673</v>
       </c>
       <c r="OM3" t="n">
-        <v>311.871682752774</v>
+        <v>311.8716832851883</v>
       </c>
       <c r="ON3" t="n">
-        <v>87053.07928746028</v>
+        <v>87053.08053475377</v>
       </c>
       <c r="OO3" t="n">
-        <v>1.148724442817093e-05</v>
+        <v>1.148724426358209e-05</v>
       </c>
       <c r="OP3" t="n">
-        <v>62057.69842088009</v>
+        <v>62057.69930991819</v>
       </c>
       <c r="OQ3" t="n">
-        <v>1.611403621864805e-05</v>
+        <v>1.61140359877985e-05</v>
       </c>
       <c r="OR3" t="n">
-        <v>0.004147050254939617</v>
+        <v>0.004147050240852978</v>
       </c>
       <c r="OS3" t="n">
-        <v>1.560778216435984e-05</v>
+        <v>1.560778220788921e-05</v>
       </c>
       <c r="OT3" t="n">
-        <v>0.02190692583420466</v>
+        <v>0.02190692590017546</v>
       </c>
       <c r="OU3" t="n">
-        <v>62100.24804561128</v>
+        <v>62100.2489352107</v>
       </c>
       <c r="OV3" t="n">
-        <v>0.8950189912840235</v>
+        <v>0.8950190010519466</v>
       </c>
       <c r="OW3" t="n">
-        <v>0.8950189912840235</v>
+        <v>0.8950190010519466</v>
       </c>
       <c r="OX3" t="n">
-        <v>298596.0321375802</v>
+        <v>298596.0327265614</v>
       </c>
       <c r="OY3" t="n">
-        <v>367980.3118571872</v>
+        <v>367980.3126828775</v>
       </c>
       <c r="OZ3" t="n">
-        <v>3811.113741360537</v>
+        <v>3811.113740664931</v>
       </c>
       <c r="PA3" t="n">
-        <v>716.1121939624001</v>
+        <v>716.1121939786772</v>
       </c>
       <c r="PB3" t="n">
-        <v>1004.545337420231</v>
+        <v>1004.545337445047</v>
       </c>
       <c r="PC3" t="n">
-        <v>311.871682752774</v>
+        <v>311.8716832851883</v>
       </c>
       <c r="PD3" t="n">
-        <v>0.9993133781957302</v>
+        <v>0.9993133781964673</v>
       </c>
       <c r="PE3" t="n">
-        <v>1.560778216435984e-05</v>
+        <v>1.560778220788921e-05</v>
       </c>
       <c r="PF3" t="n">
-        <v>0.02190692583420466</v>
+        <v>0.02190692590017546</v>
       </c>
       <c r="PG3" t="n">
-        <v>269.5878847592249</v>
+        <v>269.5878848866319</v>
       </c>
       <c r="PH3" t="n">
-        <v>90689.62672841646</v>
+        <v>90689.62709730404</v>
       </c>
       <c r="PI3" t="n">
-        <v>1.172609824153702</v>
+        <v>1.17260982837015</v>
       </c>
       <c r="PJ3" t="n">
-        <v>318394.801471306</v>
+        <v>318394.801561877</v>
       </c>
       <c r="PK3" t="n">
-        <v>395734.7869126432</v>
+        <v>395734.7870397035</v>
       </c>
       <c r="PL3" t="n">
-        <v>3811.113741357512</v>
+        <v>3811.113740661908</v>
       </c>
       <c r="PM3" t="n">
-        <v>-631695.3051967444</v>
+        <v>-631695.3053677198</v>
       </c>
       <c r="PN3" t="n">
-        <v>716.8080181718755</v>
+        <v>716.8080181766386</v>
       </c>
       <c r="PO3" t="n">
-        <v>1005.418031190988</v>
+        <v>1005.418031200354</v>
       </c>
       <c r="PP3" t="n">
-        <v>1.402632233042223</v>
+        <v>1.402632233045968</v>
       </c>
       <c r="PQ3" t="n">
-        <v>0.9994187311425183</v>
+        <v>0.9994187311417224</v>
       </c>
       <c r="PR3" t="n">
-        <v>329.2670654309238</v>
+        <v>329.2670655089102</v>
       </c>
       <c r="PS3" t="n">
-        <v>127130.6052259582</v>
+        <v>127130.6057433133</v>
       </c>
       <c r="PT3" t="n">
-        <v>7.865926526681983e-06</v>
+        <v>7.865926494671776e-06</v>
       </c>
       <c r="PU3" t="n">
-        <v>90637.16220909862</v>
+        <v>90637.1625777025</v>
       </c>
       <c r="PV3" t="n">
-        <v>1.103300208906601e-05</v>
+        <v>1.103300204419692e-05</v>
       </c>
       <c r="PW3" t="n">
-        <v>0.003721595140971234</v>
+        <v>0.003721595139245009</v>
       </c>
       <c r="PX3" t="n">
-        <v>1.703788280188363e-05</v>
+        <v>1.703788280835619e-05</v>
       </c>
       <c r="PY3" t="n">
-        <v>0.02408354121014269</v>
+        <v>0.02408354122006591</v>
       </c>
       <c r="PZ3" t="n">
-        <v>90689.62672841646</v>
+        <v>90689.62709730404</v>
       </c>
       <c r="QA3" t="n">
-        <v>1.172609824153702</v>
+        <v>1.17260982837015</v>
       </c>
       <c r="QB3" t="n">
-        <v>1.172609824153702</v>
+        <v>1.17260982837015</v>
       </c>
       <c r="QC3" t="n">
-        <v>318394.801471306</v>
+        <v>318394.801561877</v>
       </c>
       <c r="QD3" t="n">
-        <v>395734.7869126432</v>
+        <v>395734.7870397035</v>
       </c>
       <c r="QE3" t="n">
-        <v>3811.113741357512</v>
+        <v>3811.113740661908</v>
       </c>
       <c r="QF3" t="n">
-        <v>716.8080181718755</v>
+        <v>716.8080181766386</v>
       </c>
       <c r="QG3" t="n">
-        <v>1005.418031190988</v>
+        <v>1005.418031200354</v>
       </c>
       <c r="QH3" t="n">
-        <v>329.2670654309238</v>
+        <v>329.2670655089102</v>
       </c>
       <c r="QI3" t="n">
-        <v>0.9994187311425183</v>
+        <v>0.9994187311417224</v>
       </c>
       <c r="QJ3" t="n">
-        <v>1.703788280188363e-05</v>
+        <v>1.703788280835619e-05</v>
       </c>
       <c r="QK3" t="n">
-        <v>0.02408354121014269</v>
+        <v>0.02408354122006591</v>
       </c>
       <c r="QL3" t="n">
-        <v>0.02716239615570025</v>
+        <v>0.02716239609275801</v>
       </c>
       <c r="QM3" t="n">
-        <v>0.000865726921746406</v>
+        <v>0.0008657268483977956</v>
       </c>
       <c r="QN3" t="n">
         <v>0.01389884222857662</v>
       </c>
       <c r="QO3" t="n">
-        <v>0.08233925537522103</v>
+        <v>0.08233925484469612</v>
       </c>
       <c r="QP3" t="n">
-        <v>0.04176601952356714</v>
+        <v>0.04176601935175529</v>
       </c>
       <c r="QQ3" t="n">
-        <v>0.1660322402048114</v>
+        <v>0.1660322393661838</v>
       </c>
       <c r="QR3" t="n">
-        <v>2.41057700349212e-05</v>
+        <v>2.410576321301705e-05</v>
       </c>
       <c r="QS3" t="n">
-        <v>0.5348373026029264</v>
+        <v>0.5348372869828482</v>
       </c>
       <c r="QT3" t="n">
-        <v>0.9431693595690729</v>
+        <v>0.9431693405473787</v>
       </c>
       <c r="QU3" t="n">
-        <v>389428.5381804705</v>
+        <v>389428.5368165426</v>
       </c>
       <c r="QV3" t="n">
-        <v>2.706564320255334</v>
+        <v>2.706564325504935</v>
       </c>
       <c r="QW3" t="n">
-        <v>382072.2129476235</v>
+        <v>382072.2130744832</v>
       </c>
       <c r="QX3" t="n">
         <v>0</v>
       </c>
       <c r="QY3" t="n">
-        <v>4015.781417217338</v>
+        <v>4015.781410575844</v>
       </c>
       <c r="QZ3" t="n">
-        <v>4.598004856748069</v>
+        <v>4.598004485820994</v>
       </c>
       <c r="RA3" t="n">
-        <v>0.009661558631503302</v>
+        <v>0.009661558603811675</v>
       </c>
       <c r="RB3" t="n">
-        <v>0.000262983402759945</v>
+        <v>0.000262983377014612</v>
       </c>
       <c r="RC3" t="n">
-        <v>0.02910514069482337</v>
+        <v>0.02910514058494093</v>
       </c>
       <c r="RD3" t="n">
-        <v>0.01479807131703691</v>
+        <v>0.01479807130739819</v>
       </c>
       <c r="RE3" t="n">
-        <v>0.004956618168129155</v>
+        <v>0.004956618190022434</v>
       </c>
     </row>
   </sheetData>
@@ -11751,16 +11751,16 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F2" t="n">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="G2" t="n">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="H2" t="n">
-        <v>7.436084609907838e-09</v>
+        <v>9.429547107843096e-08</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -11782,19 +11782,19 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="G3" t="n">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="H3" t="n">
-        <v>1.210194723518189e-08</v>
+        <v>5.147384487364273e-08</v>
       </c>
       <c r="I3" t="n">
-        <v>5.163142385016476e-08</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
